--- a/data/feature_analysis_results.xlsx
+++ b/data/feature_analysis_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY106"/>
+  <dimension ref="A1:EO118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8460,82 +8460,82 @@
         </is>
       </c>
       <c r="B62" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="C62" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="D62" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="E62" s="1" t="n">
+        <v>471</v>
+      </c>
+      <c r="F62" s="1" t="n">
+        <v>584</v>
+      </c>
+      <c r="G62" s="1" t="n">
+        <v>863</v>
+      </c>
+      <c r="H62" s="1" t="n">
+        <v>864</v>
+      </c>
+      <c r="I62" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="C62" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="D62" s="1" t="n">
+      <c r="J62" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="K62" s="1" t="n">
+        <v>351</v>
+      </c>
+      <c r="L62" s="1" t="n">
+        <v>375</v>
+      </c>
+      <c r="M62" s="1" t="n">
+        <v>541</v>
+      </c>
+      <c r="N62" s="1" t="n">
+        <v>565</v>
+      </c>
+      <c r="O62" s="1" t="n">
+        <v>725</v>
+      </c>
+      <c r="P62" s="1" t="n">
         <v>334</v>
       </c>
-      <c r="E62" s="1" t="n">
+      <c r="Q62" s="1" t="n">
         <v>342</v>
       </c>
-      <c r="F62" s="1" t="n">
-        <v>351</v>
-      </c>
-      <c r="G62" s="1" t="n">
-        <v>375</v>
-      </c>
-      <c r="H62" s="1" t="n">
+      <c r="R62" s="1" t="n">
+        <v>408</v>
+      </c>
+      <c r="S62" s="1" t="n">
         <v>410</v>
       </c>
-      <c r="I62" s="1" t="n">
+      <c r="T62" s="1" t="n">
         <v>494</v>
       </c>
-      <c r="J62" s="1" t="n">
-        <v>541</v>
-      </c>
-      <c r="K62" s="1" t="n">
+      <c r="U62" s="1" t="n">
+        <v>526</v>
+      </c>
+      <c r="V62" s="1" t="n">
         <v>549</v>
       </c>
-      <c r="L62" s="1" t="n">
-        <v>565</v>
-      </c>
-      <c r="M62" s="1" t="n">
+      <c r="W62" s="1" t="n">
         <v>625</v>
       </c>
-      <c r="N62" s="1" t="n">
+      <c r="X62" s="1" t="n">
         <v>678</v>
       </c>
-      <c r="O62" s="1" t="n">
+      <c r="Y62" s="1" t="n">
         <v>712</v>
       </c>
-      <c r="P62" s="1" t="n">
-        <v>725</v>
-      </c>
-      <c r="Q62" s="1" t="n">
+      <c r="Z62" s="1" t="n">
         <v>799</v>
       </c>
-      <c r="R62" s="1" t="n">
-        <v>864</v>
-      </c>
-      <c r="S62" s="1" t="n">
+      <c r="AA62" s="1" t="n">
         <v>871</v>
-      </c>
-      <c r="T62" s="1" t="n">
-        <v>863</v>
-      </c>
-      <c r="U62" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="V62" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="W62" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="X62" s="1" t="n">
-        <v>408</v>
-      </c>
-      <c r="Y62" s="1" t="n">
-        <v>471</v>
-      </c>
-      <c r="Z62" s="1" t="n">
-        <v>526</v>
-      </c>
-      <c r="AA62" s="1" t="n">
-        <v>584</v>
       </c>
     </row>
     <row r="63">
@@ -8581,62 +8581,62 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Cat 1</t>
+          <t>Cat 2</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Cat 1</t>
+          <t>Cat 2</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Cat 1</t>
+          <t>Cat 2</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Cat 1</t>
+          <t>Cat 2</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>Cat 1</t>
+          <t>Cat 2</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>Cat 1</t>
+          <t>Cat 2</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>Cat 1</t>
+          <t>Cat 2</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>Cat 1</t>
+          <t>Cat 3</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>Cat 1</t>
+          <t>Cat 3</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>Cat 1</t>
+          <t>Cat 3</t>
         </is>
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>Cat 1</t>
+          <t>Cat 3</t>
         </is>
       </c>
       <c r="T63" t="inlineStr">
         <is>
-          <t>Cat 2</t>
+          <t>Cat 3</t>
         </is>
       </c>
       <c r="U63" t="inlineStr">
@@ -8712,132 +8712,132 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>9/17 (52.9%)</t>
+          <t>6/17 (35.3%)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>11/17 (64.7%)</t>
+          <t>2/17 (11.8%)</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>8/17 (47.1%)</t>
+          <t>5/17 (29.4%)</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
+          <t>3/17 (17.6%)</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3/17 (17.6%)</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>10/17 (58.8%)</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>3/17 (17.6%)</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>3/17 (17.6%)</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>5/17 (29.4%)</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>6/17 (35.3%)</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>3/17 (17.6%)</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>0/17 (0.0%)</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
           <t>2/17 (11.8%)</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>11/17 (64.7%)</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>11/17 (64.7%)</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>3/17 (17.6%)</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>1/17 (5.9%)</t>
+        </is>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>0/17 (0.0%)</t>
+        </is>
+      </c>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>6/17 (35.3%)</t>
+        </is>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>0/17 (0.0%)</t>
+        </is>
+      </c>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>0/17 (0.0%)</t>
+        </is>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>3/17 (17.6%)</t>
+        </is>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>3/17 (17.6%)</t>
+        </is>
+      </c>
+      <c r="W65" t="inlineStr">
         <is>
           <t>2/17 (11.8%)</t>
         </is>
       </c>
-      <c r="I65" t="inlineStr">
+      <c r="X65" t="inlineStr">
         <is>
           <t>2/17 (11.8%)</t>
         </is>
       </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>3/17 (17.6%)</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>14/17 (82.4%)</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>9/17 (52.9%)</t>
-        </is>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>10/17 (58.8%)</t>
-        </is>
-      </c>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>7/17 (41.2%)</t>
-        </is>
-      </c>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t>5/17 (29.4%)</t>
-        </is>
-      </c>
-      <c r="P65" t="inlineStr">
-        <is>
-          <t>9/17 (52.9%)</t>
-        </is>
-      </c>
-      <c r="Q65" t="inlineStr">
+      <c r="Y65" t="inlineStr">
+        <is>
+          <t>1/17 (5.9%)</t>
+        </is>
+      </c>
+      <c r="Z65" t="inlineStr">
+        <is>
+          <t>0/17 (0.0%)</t>
+        </is>
+      </c>
+      <c r="AA65" t="inlineStr">
         <is>
           <t>2/17 (11.8%)</t>
-        </is>
-      </c>
-      <c r="R65" t="inlineStr">
-        <is>
-          <t>11/17 (64.7%)</t>
-        </is>
-      </c>
-      <c r="S65" t="inlineStr">
-        <is>
-          <t>6/17 (35.3%)</t>
-        </is>
-      </c>
-      <c r="T65" t="inlineStr">
-        <is>
-          <t>10/17 (58.8%)</t>
-        </is>
-      </c>
-      <c r="U65" t="inlineStr">
-        <is>
-          <t>0/17 (0.0%)</t>
-        </is>
-      </c>
-      <c r="V65" t="inlineStr">
-        <is>
-          <t>0/17 (0.0%)</t>
-        </is>
-      </c>
-      <c r="W65" t="inlineStr">
-        <is>
-          <t>0/17 (0.0%)</t>
-        </is>
-      </c>
-      <c r="X65" t="inlineStr">
-        <is>
-          <t>0/17 (0.0%)</t>
-        </is>
-      </c>
-      <c r="Y65" t="inlineStr">
-        <is>
-          <t>0/17 (0.0%)</t>
-        </is>
-      </c>
-      <c r="Z65" t="inlineStr">
-        <is>
-          <t>0/17 (0.0%)</t>
-        </is>
-      </c>
-      <c r="AA65" t="inlineStr">
-        <is>
-          <t>0/17 (0.0%)</t>
         </is>
       </c>
     </row>
@@ -8849,122 +8849,122 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0.2877</t>
+          <t>0.9473</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>0.9006</t>
+          <t>0.0015</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>0.2478</t>
+          <t>0.9293</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>0.0004</t>
+          <t>0.4140</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>0.7303</t>
+          <t>0.1513</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>0.7887</t>
+          <t>0.5506</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>0.0002</t>
+          <t>0.2025</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>0.0003</t>
+          <t>0.0751</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>0.0022</t>
+          <t>0.6136</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>1.3636</t>
+          <t>0.3358</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>0.4559</t>
+          <t>0.0535</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>0.4446</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>0.2886</t>
+          <t>0.0152</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>1.2359</t>
+          <t>0.0186</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>0.5820</t>
+          <t>0.1022</t>
         </is>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>0.0002</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>0.4482</t>
+          <t>0.0933</t>
         </is>
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>0.3658</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="T66" t="inlineStr">
         <is>
-          <t>0.4485</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.0846</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.4425</t>
         </is>
       </c>
       <c r="W66" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.0275</t>
         </is>
       </c>
       <c r="X66" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.0884</t>
         </is>
       </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.0868</t>
         </is>
       </c>
       <c r="Z66" t="inlineStr">
@@ -8974,7 +8974,7 @@
       </c>
       <c r="AA66" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.0259</t>
         </is>
       </c>
     </row>
@@ -8986,132 +8986,132 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
+          <t>13/32 (40.6%)</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
           <t>0/32 (0.0%)</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>16/32 (50.0%)</t>
-        </is>
-      </c>
       <c r="D67" t="inlineStr">
         <is>
+          <t>14/32 (43.8%)</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>5/32 (15.6%)</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5/32 (15.6%)</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>12/32 (37.5%)</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>4/32 (12.5%)</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>4/32 (12.5%)</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>11/32 (34.4%)</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>13/32 (40.6%)</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>3/32 (9.4%)</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>2/32 (6.2%)</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>4/32 (12.5%)</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>3/32 (9.4%)</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>3/32 (9.4%)</t>
+        </is>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
           <t>0/32 (0.0%)</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>13/32 (40.6%)</t>
+        </is>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>1/32 (3.1%)</t>
+        </is>
+      </c>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>1/32 (3.1%)</t>
+        </is>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>7/32 (21.9%)</t>
+        </is>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>4/32 (12.5%)</t>
+        </is>
+      </c>
+      <c r="W67" t="inlineStr">
+        <is>
+          <t>2/32 (6.2%)</t>
+        </is>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>1/32 (3.1%)</t>
+        </is>
+      </c>
+      <c r="Y67" t="inlineStr">
+        <is>
+          <t>1/32 (3.1%)</t>
+        </is>
+      </c>
+      <c r="Z67" t="inlineStr">
         <is>
           <t>0/32 (0.0%)</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>16/32 (50.0%)</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>0/32 (0.0%)</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>0/32 (0.0%)</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>0/32 (0.0%)</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>0/32 (0.0%)</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>0/32 (0.0%)</t>
-        </is>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>0/32 (0.0%)</t>
-        </is>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>0/32 (0.0%)</t>
-        </is>
-      </c>
-      <c r="N67" t="inlineStr">
-        <is>
-          <t>0/32 (0.0%)</t>
-        </is>
-      </c>
-      <c r="O67" t="inlineStr">
-        <is>
-          <t>0/32 (0.0%)</t>
-        </is>
-      </c>
-      <c r="P67" t="inlineStr">
-        <is>
-          <t>0/32 (0.0%)</t>
-        </is>
-      </c>
-      <c r="Q67" t="inlineStr">
-        <is>
-          <t>0/32 (0.0%)</t>
-        </is>
-      </c>
-      <c r="R67" t="inlineStr">
-        <is>
-          <t>0/32 (0.0%)</t>
-        </is>
-      </c>
-      <c r="S67" t="inlineStr">
-        <is>
-          <t>0/32 (0.0%)</t>
-        </is>
-      </c>
-      <c r="T67" t="inlineStr">
-        <is>
-          <t>19/32 (59.4%)</t>
-        </is>
-      </c>
-      <c r="U67" t="inlineStr">
-        <is>
-          <t>0/32 (0.0%)</t>
-        </is>
-      </c>
-      <c r="V67" t="inlineStr">
-        <is>
-          <t>8/32 (25.0%)</t>
-        </is>
-      </c>
-      <c r="W67" t="inlineStr">
-        <is>
-          <t>12/32 (37.5%)</t>
-        </is>
-      </c>
-      <c r="X67" t="inlineStr">
-        <is>
-          <t>14/32 (43.8%)</t>
-        </is>
-      </c>
-      <c r="Y67" t="inlineStr">
-        <is>
-          <t>0/32 (0.0%)</t>
-        </is>
-      </c>
-      <c r="Z67" t="inlineStr">
-        <is>
-          <t>0/32 (0.0%)</t>
-        </is>
-      </c>
       <c r="AA67" t="inlineStr">
         <is>
-          <t>0/32 (0.0%)</t>
+          <t>1/32 (3.1%)</t>
         </is>
       </c>
     </row>
@@ -9123,77 +9123,77 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.2072</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>0.5326</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.3449</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.0641</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>0.2684</t>
+          <t>0.0815</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.3241</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.1164</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.1071</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.6076</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.4252</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.3386</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.0011</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.2176</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.2931</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.0005</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr">
@@ -9203,42 +9203,42 @@
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.1394</t>
         </is>
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.0001</t>
         </is>
       </c>
       <c r="T68" t="inlineStr">
         <is>
-          <t>0.5028</t>
+          <t>0.0001</t>
         </is>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.1156</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>0.2834</t>
+          <t>0.1869</t>
         </is>
       </c>
       <c r="W68" t="inlineStr">
         <is>
-          <t>0.1405</t>
+          <t>0.0003</t>
         </is>
       </c>
       <c r="X68" t="inlineStr">
         <is>
-          <t>0.1243</t>
+          <t>0.0002</t>
         </is>
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.0004</t>
         </is>
       </c>
       <c r="Z68" t="inlineStr">
@@ -9248,7 +9248,7 @@
       </c>
       <c r="AA68" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.0001</t>
         </is>
       </c>
     </row>
@@ -9260,132 +9260,132 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0/21 (0.0%)</t>
+          <t>8/21 (38.1%)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>0/21 (0.0%)</t>
+          <t>1/21 (4.8%)</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>0/21 (0.0%)</t>
+          <t>6/21 (28.6%)</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>0/21 (0.0%)</t>
+          <t>1/21 (4.8%)</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>0/21 (0.0%)</t>
+          <t>1/21 (4.8%)</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>0/21 (0.0%)</t>
+          <t>7/21 (33.3%)</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>0/21 (0.0%)</t>
+          <t>4/21 (19.0%)</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>0/21 (0.0%)</t>
+          <t>2/21 (9.5%)</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>0/21 (0.0%)</t>
+          <t>3/21 (14.3%)</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>0/21 (0.0%)</t>
+          <t>8/21 (38.1%)</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>0/21 (0.0%)</t>
+          <t>5/21 (23.8%)</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>0/21 (0.0%)</t>
+          <t>1/21 (4.8%)</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>0/21 (0.0%)</t>
+          <t>3/21 (14.3%)</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>0/21 (0.0%)</t>
+          <t>3/21 (14.3%)</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>0/21 (0.0%)</t>
+          <t>4/21 (19.0%)</t>
         </is>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>0/21 (0.0%)</t>
+          <t>2/21 (9.5%)</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>0/21 (0.0%)</t>
+          <t>8/21 (38.1%)</t>
         </is>
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>0/21 (0.0%)</t>
+          <t>1/21 (4.8%)</t>
         </is>
       </c>
       <c r="T69" t="inlineStr">
         <is>
-          <t>0/21 (0.0%)</t>
+          <t>1/21 (4.8%)</t>
         </is>
       </c>
       <c r="U69" t="inlineStr">
         <is>
+          <t>5/21 (23.8%)</t>
+        </is>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>7/21 (33.3%)</t>
+        </is>
+      </c>
+      <c r="W69" t="inlineStr">
+        <is>
+          <t>6/21 (28.6%)</t>
+        </is>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>4/21 (19.0%)</t>
+        </is>
+      </c>
+      <c r="Y69" t="inlineStr">
+        <is>
           <t>3/21 (14.3%)</t>
         </is>
       </c>
-      <c r="V69" t="inlineStr">
-        <is>
-          <t>11/21 (52.4%)</t>
-        </is>
-      </c>
-      <c r="W69" t="inlineStr">
-        <is>
-          <t>13/21 (61.9%)</t>
-        </is>
-      </c>
-      <c r="X69" t="inlineStr">
-        <is>
-          <t>13/21 (61.9%)</t>
-        </is>
-      </c>
-      <c r="Y69" t="inlineStr">
-        <is>
-          <t>9/21 (42.9%)</t>
-        </is>
-      </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>15/21 (71.4%)</t>
+          <t>2/21 (9.5%)</t>
         </is>
       </c>
       <c r="AA69" t="inlineStr">
         <is>
-          <t>9/21 (42.9%)</t>
+          <t>3/21 (14.3%)</t>
         </is>
       </c>
     </row>
@@ -9397,132 +9397,132 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.4580</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.0007</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.1219</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.0121</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.0041</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.1896</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.0215</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.0089</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.5193</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.0804</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.0791</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.0002</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.0251</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.0095</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.1171</t>
         </is>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.0004</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.3329</t>
         </is>
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.0001</t>
         </is>
       </c>
       <c r="T70" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.0002</t>
         </is>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>0.0019</t>
+          <t>0.2438</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>1.5101</t>
+          <t>0.4609</t>
         </is>
       </c>
       <c r="W70" t="inlineStr">
         <is>
-          <t>1.1856</t>
+          <t>0.3373</t>
         </is>
       </c>
       <c r="X70" t="inlineStr">
         <is>
-          <t>0.4315</t>
+          <t>0.1617</t>
         </is>
       </c>
       <c r="Y70" t="inlineStr">
         <is>
-          <t>0.4448</t>
+          <t>0.9296</t>
         </is>
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>0.4884</t>
+          <t>0.0002</t>
         </is>
       </c>
       <c r="AA70" t="inlineStr">
         <is>
-          <t>0.2507</t>
+          <t>0.2750</t>
         </is>
       </c>
     </row>
@@ -10258,7 +10258,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Dataset: Merged_selected</t>
+          <t>Dataset: Merged_df</t>
         </is>
       </c>
     </row>
@@ -10269,34 +10269,436 @@
         </is>
       </c>
       <c r="B86" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="C86" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="D86" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="E86" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="F86" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="G86" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="H86" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="I86" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="J86" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="K86" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="L86" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="M86" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="N86" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="O86" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="P86" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="Q86" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="R86" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="S86" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="T86" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="U86" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="V86" s="1" t="n">
+        <v>334</v>
+      </c>
+      <c r="W86" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="X86" s="1" t="n">
+        <v>342</v>
+      </c>
+      <c r="Y86" s="1" t="n">
+        <v>358</v>
+      </c>
+      <c r="Z86" s="1" t="n">
+        <v>406</v>
+      </c>
+      <c r="AA86" s="1" t="n">
+        <v>410</v>
+      </c>
+      <c r="AB86" s="1" t="n">
+        <v>412</v>
+      </c>
+      <c r="AC86" s="1" t="n">
+        <v>426</v>
+      </c>
+      <c r="AD86" s="1" t="n">
+        <v>427</v>
+      </c>
+      <c r="AE86" s="1" t="n">
+        <v>428</v>
+      </c>
+      <c r="AF86" s="1" t="n">
+        <v>436</v>
+      </c>
+      <c r="AG86" s="1" t="n">
+        <v>465</v>
+      </c>
+      <c r="AH86" s="1" t="n">
+        <v>477</v>
+      </c>
+      <c r="AI86" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="AJ86" s="1" t="n">
+        <v>494</v>
+      </c>
+      <c r="AK86" s="1" t="n">
+        <v>516</v>
+      </c>
+      <c r="AL86" s="1" t="n">
         <v>541</v>
       </c>
-      <c r="C86" s="1" t="n">
+      <c r="AM86" s="1" t="n">
+        <v>543</v>
+      </c>
+      <c r="AN86" s="1" t="n">
         <v>549</v>
       </c>
-      <c r="D86" s="1" t="n">
+      <c r="AO86" s="1" t="n">
+        <v>558</v>
+      </c>
+      <c r="AP86" s="1" t="n">
+        <v>564</v>
+      </c>
+      <c r="AQ86" s="1" t="n">
+        <v>565</v>
+      </c>
+      <c r="AR86" s="1" t="n">
+        <v>591</v>
+      </c>
+      <c r="AS86" s="1" t="n">
+        <v>605</v>
+      </c>
+      <c r="AT86" s="1" t="n">
+        <v>606</v>
+      </c>
+      <c r="AU86" s="1" t="n">
+        <v>607</v>
+      </c>
+      <c r="AV86" s="1" t="n">
+        <v>625</v>
+      </c>
+      <c r="AW86" s="1" t="n">
+        <v>635</v>
+      </c>
+      <c r="AX86" s="1" t="n">
+        <v>636</v>
+      </c>
+      <c r="AY86" s="1" t="n">
+        <v>645</v>
+      </c>
+      <c r="AZ86" s="1" t="n">
+        <v>657</v>
+      </c>
+      <c r="BA86" s="1" t="n">
+        <v>678</v>
+      </c>
+      <c r="BB86" s="1" t="n">
+        <v>712</v>
+      </c>
+      <c r="BC86" s="1" t="n">
+        <v>725</v>
+      </c>
+      <c r="BD86" s="1" t="n">
+        <v>771</v>
+      </c>
+      <c r="BE86" s="1" t="n">
+        <v>799</v>
+      </c>
+      <c r="BF86" s="1" t="n">
+        <v>871</v>
+      </c>
+      <c r="BG86" s="1" t="n">
+        <v>872</v>
+      </c>
+      <c r="BH86" s="1" t="n">
+        <v>875</v>
+      </c>
+      <c r="BI86" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="BJ86" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="BK86" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="BL86" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="BM86" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="BN86" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="BO86" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="BP86" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="BQ86" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="BR86" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="BS86" s="1" t="n">
         <v>238</v>
       </c>
-      <c r="E86" s="1" t="n">
+      <c r="BT86" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="BU86" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="BV86" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="BW86" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="BX86" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="BY86" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="BZ86" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="CA86" s="1" t="n">
+        <v>361</v>
+      </c>
+      <c r="CB86" s="1" t="n">
+        <v>382</v>
+      </c>
+      <c r="CC86" s="1" t="n">
+        <v>396</v>
+      </c>
+      <c r="CD86" s="1" t="n">
+        <v>399</v>
+      </c>
+      <c r="CE86" s="1" t="n">
+        <v>413</v>
+      </c>
+      <c r="CF86" s="1" t="n">
+        <v>442</v>
+      </c>
+      <c r="CG86" s="1" t="n">
+        <v>455</v>
+      </c>
+      <c r="CH86" s="1" t="n">
+        <v>457</v>
+      </c>
+      <c r="CI86" s="1" t="n">
+        <v>546</v>
+      </c>
+      <c r="CJ86" s="1" t="n">
+        <v>552</v>
+      </c>
+      <c r="CK86" s="1" t="n">
+        <v>571</v>
+      </c>
+      <c r="CL86" s="1" t="n">
+        <v>575</v>
+      </c>
+      <c r="CM86" s="1" t="n">
+        <v>576</v>
+      </c>
+      <c r="CN86" s="1" t="n">
+        <v>594</v>
+      </c>
+      <c r="CO86" s="1" t="n">
+        <v>609</v>
+      </c>
+      <c r="CP86" s="1" t="n">
+        <v>614</v>
+      </c>
+      <c r="CQ86" s="1" t="n">
+        <v>621</v>
+      </c>
+      <c r="CR86" s="1" t="n">
+        <v>634</v>
+      </c>
+      <c r="CS86" s="1" t="n">
+        <v>662</v>
+      </c>
+      <c r="CT86" s="1" t="n">
+        <v>690</v>
+      </c>
+      <c r="CU86" s="1" t="n">
+        <v>698</v>
+      </c>
+      <c r="CV86" s="1" t="n">
+        <v>720</v>
+      </c>
+      <c r="CW86" s="1" t="n">
+        <v>736</v>
+      </c>
+      <c r="CX86" s="1" t="n">
+        <v>856</v>
+      </c>
+      <c r="CY86" s="1" t="n">
+        <v>857</v>
+      </c>
+      <c r="CZ86" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="DA86" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="DB86" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="DC86" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="DD86" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="DE86" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="DF86" s="1" t="n">
         <v>110</v>
       </c>
-      <c r="F86" s="1" t="n">
+      <c r="DG86" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="DH86" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="DI86" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="DJ86" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="DK86" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="DL86" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="DM86" s="1" t="n">
         <v>201</v>
       </c>
-      <c r="G86" s="1" t="n">
+      <c r="DN86" s="1" t="n">
         <v>211</v>
       </c>
-      <c r="H86" s="1" t="n">
+      <c r="DO86" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="DP86" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="DQ86" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="DR86" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="DS86" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="DT86" s="1" t="n">
+        <v>343</v>
+      </c>
+      <c r="DU86" s="1" t="n">
+        <v>389</v>
+      </c>
+      <c r="DV86" s="1" t="n">
+        <v>456</v>
+      </c>
+      <c r="DW86" s="1" t="n">
+        <v>470</v>
+      </c>
+      <c r="DX86" s="1" t="n">
+        <v>474</v>
+      </c>
+      <c r="DY86" s="1" t="n">
+        <v>491</v>
+      </c>
+      <c r="DZ86" s="1" t="n">
+        <v>497</v>
+      </c>
+      <c r="EA86" s="1" t="n">
+        <v>503</v>
+      </c>
+      <c r="EB86" s="1" t="n">
+        <v>512</v>
+      </c>
+      <c r="EC86" s="1" t="n">
+        <v>526</v>
+      </c>
+      <c r="ED86" s="1" t="n">
+        <v>529</v>
+      </c>
+      <c r="EE86" s="1" t="n">
+        <v>542</v>
+      </c>
+      <c r="EF86" s="1" t="n">
+        <v>566</v>
+      </c>
+      <c r="EG86" s="1" t="n">
         <v>578</v>
       </c>
-      <c r="I86" s="1" t="n">
+      <c r="EH86" s="1" t="n">
+        <v>584</v>
+      </c>
+      <c r="EI86" s="1" t="n">
         <v>649</v>
       </c>
-      <c r="J86" s="1" t="n">
+      <c r="EJ86" s="1" t="n">
+        <v>655</v>
+      </c>
+      <c r="EK86" s="1" t="n">
         <v>680</v>
       </c>
-      <c r="K86" s="1" t="n">
+      <c r="EL86" s="1" t="n">
+        <v>687</v>
+      </c>
+      <c r="EM86" s="1" t="n">
+        <v>696</v>
+      </c>
+      <c r="EN86" s="1" t="n">
         <v>704</v>
+      </c>
+      <c r="EO86" s="1" t="n">
+        <v>727</v>
       </c>
     </row>
     <row r="87">
@@ -10317,40 +10719,710 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
+          <t>Cat 1</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Cat 1</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Cat 1</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Cat 1</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Cat 1</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>Cat 1</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>Cat 1</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>Cat 1</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>Cat 1</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>Cat 1</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>Cat 1</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>Cat 1</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>Cat 1</t>
+        </is>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>Cat 1</t>
+        </is>
+      </c>
+      <c r="R87" t="inlineStr">
+        <is>
+          <t>Cat 1</t>
+        </is>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>Cat 1</t>
+        </is>
+      </c>
+      <c r="T87" t="inlineStr">
+        <is>
+          <t>Cat 1</t>
+        </is>
+      </c>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>Cat 1</t>
+        </is>
+      </c>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>Cat 1</t>
+        </is>
+      </c>
+      <c r="W87" t="inlineStr">
+        <is>
+          <t>Cat 1</t>
+        </is>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>Cat 1</t>
+        </is>
+      </c>
+      <c r="Y87" t="inlineStr">
+        <is>
+          <t>Cat 1</t>
+        </is>
+      </c>
+      <c r="Z87" t="inlineStr">
+        <is>
+          <t>Cat 1</t>
+        </is>
+      </c>
+      <c r="AA87" t="inlineStr">
+        <is>
+          <t>Cat 1</t>
+        </is>
+      </c>
+      <c r="AB87" t="inlineStr">
+        <is>
+          <t>Cat 1</t>
+        </is>
+      </c>
+      <c r="AC87" t="inlineStr">
+        <is>
+          <t>Cat 1</t>
+        </is>
+      </c>
+      <c r="AD87" t="inlineStr">
+        <is>
+          <t>Cat 1</t>
+        </is>
+      </c>
+      <c r="AE87" t="inlineStr">
+        <is>
+          <t>Cat 1</t>
+        </is>
+      </c>
+      <c r="AF87" t="inlineStr">
+        <is>
+          <t>Cat 1</t>
+        </is>
+      </c>
+      <c r="AG87" t="inlineStr">
+        <is>
+          <t>Cat 1</t>
+        </is>
+      </c>
+      <c r="AH87" t="inlineStr">
+        <is>
+          <t>Cat 1</t>
+        </is>
+      </c>
+      <c r="AI87" t="inlineStr">
+        <is>
+          <t>Cat 1</t>
+        </is>
+      </c>
+      <c r="AJ87" t="inlineStr">
+        <is>
+          <t>Cat 1</t>
+        </is>
+      </c>
+      <c r="AK87" t="inlineStr">
+        <is>
+          <t>Cat 1</t>
+        </is>
+      </c>
+      <c r="AL87" t="inlineStr">
+        <is>
+          <t>Cat 1</t>
+        </is>
+      </c>
+      <c r="AM87" t="inlineStr">
+        <is>
+          <t>Cat 1</t>
+        </is>
+      </c>
+      <c r="AN87" t="inlineStr">
+        <is>
+          <t>Cat 1</t>
+        </is>
+      </c>
+      <c r="AO87" t="inlineStr">
+        <is>
+          <t>Cat 1</t>
+        </is>
+      </c>
+      <c r="AP87" t="inlineStr">
+        <is>
+          <t>Cat 1</t>
+        </is>
+      </c>
+      <c r="AQ87" t="inlineStr">
+        <is>
+          <t>Cat 1</t>
+        </is>
+      </c>
+      <c r="AR87" t="inlineStr">
+        <is>
+          <t>Cat 1</t>
+        </is>
+      </c>
+      <c r="AS87" t="inlineStr">
+        <is>
+          <t>Cat 1</t>
+        </is>
+      </c>
+      <c r="AT87" t="inlineStr">
+        <is>
+          <t>Cat 1</t>
+        </is>
+      </c>
+      <c r="AU87" t="inlineStr">
+        <is>
+          <t>Cat 1</t>
+        </is>
+      </c>
+      <c r="AV87" t="inlineStr">
+        <is>
+          <t>Cat 1</t>
+        </is>
+      </c>
+      <c r="AW87" t="inlineStr">
+        <is>
+          <t>Cat 1</t>
+        </is>
+      </c>
+      <c r="AX87" t="inlineStr">
+        <is>
+          <t>Cat 1</t>
+        </is>
+      </c>
+      <c r="AY87" t="inlineStr">
+        <is>
+          <t>Cat 1</t>
+        </is>
+      </c>
+      <c r="AZ87" t="inlineStr">
+        <is>
+          <t>Cat 1</t>
+        </is>
+      </c>
+      <c r="BA87" t="inlineStr">
+        <is>
+          <t>Cat 1</t>
+        </is>
+      </c>
+      <c r="BB87" t="inlineStr">
+        <is>
+          <t>Cat 1</t>
+        </is>
+      </c>
+      <c r="BC87" t="inlineStr">
+        <is>
+          <t>Cat 1</t>
+        </is>
+      </c>
+      <c r="BD87" t="inlineStr">
+        <is>
+          <t>Cat 1</t>
+        </is>
+      </c>
+      <c r="BE87" t="inlineStr">
+        <is>
+          <t>Cat 1</t>
+        </is>
+      </c>
+      <c r="BF87" t="inlineStr">
+        <is>
+          <t>Cat 1</t>
+        </is>
+      </c>
+      <c r="BG87" t="inlineStr">
+        <is>
+          <t>Cat 1</t>
+        </is>
+      </c>
+      <c r="BH87" t="inlineStr">
+        <is>
+          <t>Cat 1</t>
+        </is>
+      </c>
+      <c r="BI87" t="inlineStr">
+        <is>
           <t>Cat 2</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="BJ87" t="inlineStr">
+        <is>
+          <t>Cat 2</t>
+        </is>
+      </c>
+      <c r="BK87" t="inlineStr">
+        <is>
+          <t>Cat 2</t>
+        </is>
+      </c>
+      <c r="BL87" t="inlineStr">
+        <is>
+          <t>Cat 2</t>
+        </is>
+      </c>
+      <c r="BM87" t="inlineStr">
+        <is>
+          <t>Cat 2</t>
+        </is>
+      </c>
+      <c r="BN87" t="inlineStr">
+        <is>
+          <t>Cat 2</t>
+        </is>
+      </c>
+      <c r="BO87" t="inlineStr">
+        <is>
+          <t>Cat 2</t>
+        </is>
+      </c>
+      <c r="BP87" t="inlineStr">
+        <is>
+          <t>Cat 2</t>
+        </is>
+      </c>
+      <c r="BQ87" t="inlineStr">
+        <is>
+          <t>Cat 2</t>
+        </is>
+      </c>
+      <c r="BR87" t="inlineStr">
+        <is>
+          <t>Cat 2</t>
+        </is>
+      </c>
+      <c r="BS87" t="inlineStr">
+        <is>
+          <t>Cat 2</t>
+        </is>
+      </c>
+      <c r="BT87" t="inlineStr">
+        <is>
+          <t>Cat 2</t>
+        </is>
+      </c>
+      <c r="BU87" t="inlineStr">
+        <is>
+          <t>Cat 2</t>
+        </is>
+      </c>
+      <c r="BV87" t="inlineStr">
+        <is>
+          <t>Cat 2</t>
+        </is>
+      </c>
+      <c r="BW87" t="inlineStr">
+        <is>
+          <t>Cat 2</t>
+        </is>
+      </c>
+      <c r="BX87" t="inlineStr">
+        <is>
+          <t>Cat 2</t>
+        </is>
+      </c>
+      <c r="BY87" t="inlineStr">
+        <is>
+          <t>Cat 2</t>
+        </is>
+      </c>
+      <c r="BZ87" t="inlineStr">
+        <is>
+          <t>Cat 2</t>
+        </is>
+      </c>
+      <c r="CA87" t="inlineStr">
+        <is>
+          <t>Cat 2</t>
+        </is>
+      </c>
+      <c r="CB87" t="inlineStr">
+        <is>
+          <t>Cat 2</t>
+        </is>
+      </c>
+      <c r="CC87" t="inlineStr">
+        <is>
+          <t>Cat 2</t>
+        </is>
+      </c>
+      <c r="CD87" t="inlineStr">
+        <is>
+          <t>Cat 2</t>
+        </is>
+      </c>
+      <c r="CE87" t="inlineStr">
+        <is>
+          <t>Cat 2</t>
+        </is>
+      </c>
+      <c r="CF87" t="inlineStr">
+        <is>
+          <t>Cat 2</t>
+        </is>
+      </c>
+      <c r="CG87" t="inlineStr">
+        <is>
+          <t>Cat 2</t>
+        </is>
+      </c>
+      <c r="CH87" t="inlineStr">
+        <is>
+          <t>Cat 2</t>
+        </is>
+      </c>
+      <c r="CI87" t="inlineStr">
+        <is>
+          <t>Cat 2</t>
+        </is>
+      </c>
+      <c r="CJ87" t="inlineStr">
+        <is>
+          <t>Cat 2</t>
+        </is>
+      </c>
+      <c r="CK87" t="inlineStr">
+        <is>
+          <t>Cat 2</t>
+        </is>
+      </c>
+      <c r="CL87" t="inlineStr">
+        <is>
+          <t>Cat 2</t>
+        </is>
+      </c>
+      <c r="CM87" t="inlineStr">
+        <is>
+          <t>Cat 2</t>
+        </is>
+      </c>
+      <c r="CN87" t="inlineStr">
+        <is>
+          <t>Cat 2</t>
+        </is>
+      </c>
+      <c r="CO87" t="inlineStr">
+        <is>
+          <t>Cat 2</t>
+        </is>
+      </c>
+      <c r="CP87" t="inlineStr">
+        <is>
+          <t>Cat 2</t>
+        </is>
+      </c>
+      <c r="CQ87" t="inlineStr">
+        <is>
+          <t>Cat 2</t>
+        </is>
+      </c>
+      <c r="CR87" t="inlineStr">
+        <is>
+          <t>Cat 2</t>
+        </is>
+      </c>
+      <c r="CS87" t="inlineStr">
+        <is>
+          <t>Cat 2</t>
+        </is>
+      </c>
+      <c r="CT87" t="inlineStr">
+        <is>
+          <t>Cat 2</t>
+        </is>
+      </c>
+      <c r="CU87" t="inlineStr">
+        <is>
+          <t>Cat 2</t>
+        </is>
+      </c>
+      <c r="CV87" t="inlineStr">
+        <is>
+          <t>Cat 2</t>
+        </is>
+      </c>
+      <c r="CW87" t="inlineStr">
+        <is>
+          <t>Cat 2</t>
+        </is>
+      </c>
+      <c r="CX87" t="inlineStr">
+        <is>
+          <t>Cat 2</t>
+        </is>
+      </c>
+      <c r="CY87" t="inlineStr">
+        <is>
+          <t>Cat 2</t>
+        </is>
+      </c>
+      <c r="CZ87" t="inlineStr">
         <is>
           <t>Cat 3</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="DA87" t="inlineStr">
         <is>
           <t>Cat 3</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="DB87" t="inlineStr">
         <is>
           <t>Cat 3</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
+      <c r="DC87" t="inlineStr">
         <is>
           <t>Cat 3</t>
         </is>
       </c>
-      <c r="I87" t="inlineStr">
+      <c r="DD87" t="inlineStr">
         <is>
           <t>Cat 3</t>
         </is>
       </c>
-      <c r="J87" t="inlineStr">
+      <c r="DE87" t="inlineStr">
         <is>
           <t>Cat 3</t>
         </is>
       </c>
-      <c r="K87" t="inlineStr">
+      <c r="DF87" t="inlineStr">
+        <is>
+          <t>Cat 3</t>
+        </is>
+      </c>
+      <c r="DG87" t="inlineStr">
+        <is>
+          <t>Cat 3</t>
+        </is>
+      </c>
+      <c r="DH87" t="inlineStr">
+        <is>
+          <t>Cat 3</t>
+        </is>
+      </c>
+      <c r="DI87" t="inlineStr">
+        <is>
+          <t>Cat 3</t>
+        </is>
+      </c>
+      <c r="DJ87" t="inlineStr">
+        <is>
+          <t>Cat 3</t>
+        </is>
+      </c>
+      <c r="DK87" t="inlineStr">
+        <is>
+          <t>Cat 3</t>
+        </is>
+      </c>
+      <c r="DL87" t="inlineStr">
+        <is>
+          <t>Cat 3</t>
+        </is>
+      </c>
+      <c r="DM87" t="inlineStr">
+        <is>
+          <t>Cat 3</t>
+        </is>
+      </c>
+      <c r="DN87" t="inlineStr">
+        <is>
+          <t>Cat 3</t>
+        </is>
+      </c>
+      <c r="DO87" t="inlineStr">
+        <is>
+          <t>Cat 3</t>
+        </is>
+      </c>
+      <c r="DP87" t="inlineStr">
+        <is>
+          <t>Cat 3</t>
+        </is>
+      </c>
+      <c r="DQ87" t="inlineStr">
+        <is>
+          <t>Cat 3</t>
+        </is>
+      </c>
+      <c r="DR87" t="inlineStr">
+        <is>
+          <t>Cat 3</t>
+        </is>
+      </c>
+      <c r="DS87" t="inlineStr">
+        <is>
+          <t>Cat 3</t>
+        </is>
+      </c>
+      <c r="DT87" t="inlineStr">
+        <is>
+          <t>Cat 3</t>
+        </is>
+      </c>
+      <c r="DU87" t="inlineStr">
+        <is>
+          <t>Cat 3</t>
+        </is>
+      </c>
+      <c r="DV87" t="inlineStr">
+        <is>
+          <t>Cat 3</t>
+        </is>
+      </c>
+      <c r="DW87" t="inlineStr">
+        <is>
+          <t>Cat 3</t>
+        </is>
+      </c>
+      <c r="DX87" t="inlineStr">
+        <is>
+          <t>Cat 3</t>
+        </is>
+      </c>
+      <c r="DY87" t="inlineStr">
+        <is>
+          <t>Cat 3</t>
+        </is>
+      </c>
+      <c r="DZ87" t="inlineStr">
+        <is>
+          <t>Cat 3</t>
+        </is>
+      </c>
+      <c r="EA87" t="inlineStr">
+        <is>
+          <t>Cat 3</t>
+        </is>
+      </c>
+      <c r="EB87" t="inlineStr">
+        <is>
+          <t>Cat 3</t>
+        </is>
+      </c>
+      <c r="EC87" t="inlineStr">
+        <is>
+          <t>Cat 3</t>
+        </is>
+      </c>
+      <c r="ED87" t="inlineStr">
+        <is>
+          <t>Cat 3</t>
+        </is>
+      </c>
+      <c r="EE87" t="inlineStr">
+        <is>
+          <t>Cat 3</t>
+        </is>
+      </c>
+      <c r="EF87" t="inlineStr">
+        <is>
+          <t>Cat 3</t>
+        </is>
+      </c>
+      <c r="EG87" t="inlineStr">
+        <is>
+          <t>Cat 3</t>
+        </is>
+      </c>
+      <c r="EH87" t="inlineStr">
+        <is>
+          <t>Cat 3</t>
+        </is>
+      </c>
+      <c r="EI87" t="inlineStr">
+        <is>
+          <t>Cat 3</t>
+        </is>
+      </c>
+      <c r="EJ87" t="inlineStr">
+        <is>
+          <t>Cat 3</t>
+        </is>
+      </c>
+      <c r="EK87" t="inlineStr">
+        <is>
+          <t>Cat 3</t>
+        </is>
+      </c>
+      <c r="EL87" t="inlineStr">
+        <is>
+          <t>Cat 3</t>
+        </is>
+      </c>
+      <c r="EM87" t="inlineStr">
+        <is>
+          <t>Cat 3</t>
+        </is>
+      </c>
+      <c r="EN87" t="inlineStr">
+        <is>
+          <t>Cat 3</t>
+        </is>
+      </c>
+      <c r="EO87" t="inlineStr">
         <is>
           <t>Cat 3</t>
         </is>
@@ -10368,6 +11440,140 @@
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="inlineStr"/>
+      <c r="O88" t="inlineStr"/>
+      <c r="P88" t="inlineStr"/>
+      <c r="Q88" t="inlineStr"/>
+      <c r="R88" t="inlineStr"/>
+      <c r="S88" t="inlineStr"/>
+      <c r="T88" t="inlineStr"/>
+      <c r="U88" t="inlineStr"/>
+      <c r="V88" t="inlineStr"/>
+      <c r="W88" t="inlineStr"/>
+      <c r="X88" t="inlineStr"/>
+      <c r="Y88" t="inlineStr"/>
+      <c r="Z88" t="inlineStr"/>
+      <c r="AA88" t="inlineStr"/>
+      <c r="AB88" t="inlineStr"/>
+      <c r="AC88" t="inlineStr"/>
+      <c r="AD88" t="inlineStr"/>
+      <c r="AE88" t="inlineStr"/>
+      <c r="AF88" t="inlineStr"/>
+      <c r="AG88" t="inlineStr"/>
+      <c r="AH88" t="inlineStr"/>
+      <c r="AI88" t="inlineStr"/>
+      <c r="AJ88" t="inlineStr"/>
+      <c r="AK88" t="inlineStr"/>
+      <c r="AL88" t="inlineStr"/>
+      <c r="AM88" t="inlineStr"/>
+      <c r="AN88" t="inlineStr"/>
+      <c r="AO88" t="inlineStr"/>
+      <c r="AP88" t="inlineStr"/>
+      <c r="AQ88" t="inlineStr"/>
+      <c r="AR88" t="inlineStr"/>
+      <c r="AS88" t="inlineStr"/>
+      <c r="AT88" t="inlineStr"/>
+      <c r="AU88" t="inlineStr"/>
+      <c r="AV88" t="inlineStr"/>
+      <c r="AW88" t="inlineStr"/>
+      <c r="AX88" t="inlineStr"/>
+      <c r="AY88" t="inlineStr"/>
+      <c r="AZ88" t="inlineStr"/>
+      <c r="BA88" t="inlineStr"/>
+      <c r="BB88" t="inlineStr"/>
+      <c r="BC88" t="inlineStr"/>
+      <c r="BD88" t="inlineStr"/>
+      <c r="BE88" t="inlineStr"/>
+      <c r="BF88" t="inlineStr"/>
+      <c r="BG88" t="inlineStr"/>
+      <c r="BH88" t="inlineStr"/>
+      <c r="BI88" t="inlineStr"/>
+      <c r="BJ88" t="inlineStr"/>
+      <c r="BK88" t="inlineStr"/>
+      <c r="BL88" t="inlineStr"/>
+      <c r="BM88" t="inlineStr"/>
+      <c r="BN88" t="inlineStr"/>
+      <c r="BO88" t="inlineStr"/>
+      <c r="BP88" t="inlineStr"/>
+      <c r="BQ88" t="inlineStr"/>
+      <c r="BR88" t="inlineStr"/>
+      <c r="BS88" t="inlineStr"/>
+      <c r="BT88" t="inlineStr"/>
+      <c r="BU88" t="inlineStr"/>
+      <c r="BV88" t="inlineStr"/>
+      <c r="BW88" t="inlineStr"/>
+      <c r="BX88" t="inlineStr"/>
+      <c r="BY88" t="inlineStr"/>
+      <c r="BZ88" t="inlineStr"/>
+      <c r="CA88" t="inlineStr"/>
+      <c r="CB88" t="inlineStr"/>
+      <c r="CC88" t="inlineStr"/>
+      <c r="CD88" t="inlineStr"/>
+      <c r="CE88" t="inlineStr"/>
+      <c r="CF88" t="inlineStr"/>
+      <c r="CG88" t="inlineStr"/>
+      <c r="CH88" t="inlineStr"/>
+      <c r="CI88" t="inlineStr"/>
+      <c r="CJ88" t="inlineStr"/>
+      <c r="CK88" t="inlineStr"/>
+      <c r="CL88" t="inlineStr"/>
+      <c r="CM88" t="inlineStr"/>
+      <c r="CN88" t="inlineStr"/>
+      <c r="CO88" t="inlineStr"/>
+      <c r="CP88" t="inlineStr"/>
+      <c r="CQ88" t="inlineStr"/>
+      <c r="CR88" t="inlineStr"/>
+      <c r="CS88" t="inlineStr"/>
+      <c r="CT88" t="inlineStr"/>
+      <c r="CU88" t="inlineStr"/>
+      <c r="CV88" t="inlineStr"/>
+      <c r="CW88" t="inlineStr"/>
+      <c r="CX88" t="inlineStr"/>
+      <c r="CY88" t="inlineStr"/>
+      <c r="CZ88" t="inlineStr"/>
+      <c r="DA88" t="inlineStr"/>
+      <c r="DB88" t="inlineStr"/>
+      <c r="DC88" t="inlineStr"/>
+      <c r="DD88" t="inlineStr"/>
+      <c r="DE88" t="inlineStr"/>
+      <c r="DF88" t="inlineStr"/>
+      <c r="DG88" t="inlineStr"/>
+      <c r="DH88" t="inlineStr"/>
+      <c r="DI88" t="inlineStr"/>
+      <c r="DJ88" t="inlineStr"/>
+      <c r="DK88" t="inlineStr"/>
+      <c r="DL88" t="inlineStr"/>
+      <c r="DM88" t="inlineStr"/>
+      <c r="DN88" t="inlineStr"/>
+      <c r="DO88" t="inlineStr"/>
+      <c r="DP88" t="inlineStr"/>
+      <c r="DQ88" t="inlineStr"/>
+      <c r="DR88" t="inlineStr"/>
+      <c r="DS88" t="inlineStr"/>
+      <c r="DT88" t="inlineStr"/>
+      <c r="DU88" t="inlineStr"/>
+      <c r="DV88" t="inlineStr"/>
+      <c r="DW88" t="inlineStr"/>
+      <c r="DX88" t="inlineStr"/>
+      <c r="DY88" t="inlineStr"/>
+      <c r="DZ88" t="inlineStr"/>
+      <c r="EA88" t="inlineStr"/>
+      <c r="EB88" t="inlineStr"/>
+      <c r="EC88" t="inlineStr"/>
+      <c r="ED88" t="inlineStr"/>
+      <c r="EE88" t="inlineStr"/>
+      <c r="EF88" t="inlineStr"/>
+      <c r="EG88" t="inlineStr"/>
+      <c r="EH88" t="inlineStr"/>
+      <c r="EI88" t="inlineStr"/>
+      <c r="EJ88" t="inlineStr"/>
+      <c r="EK88" t="inlineStr"/>
+      <c r="EL88" t="inlineStr"/>
+      <c r="EM88" t="inlineStr"/>
+      <c r="EN88" t="inlineStr"/>
+      <c r="EO88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -10377,52 +11583,722 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
+          <t>9/17 (52.9%)</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>1/17 (5.9%)</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>5/17 (29.4%)</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>6/17 (35.3%)</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4/17 (23.5%)</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>11/17 (64.7%)</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>4/17 (23.5%)</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>1/17 (5.9%)</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>5/17 (29.4%)</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>2/17 (11.8%)</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>1/17 (5.9%)</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>1/17 (5.9%)</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>1/17 (5.9%)</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>1/17 (5.9%)</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>15/17 (88.2%)</t>
+        </is>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>6/17 (35.3%)</t>
+        </is>
+      </c>
+      <c r="R89" t="inlineStr">
+        <is>
           <t>3/17 (17.6%)</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>4/17 (23.5%)</t>
+        </is>
+      </c>
+      <c r="T89" t="inlineStr">
+        <is>
+          <t>12/17 (70.6%)</t>
+        </is>
+      </c>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>6/17 (35.3%)</t>
+        </is>
+      </c>
+      <c r="V89" t="inlineStr">
+        <is>
+          <t>8/17 (47.1%)</t>
+        </is>
+      </c>
+      <c r="W89" t="inlineStr">
+        <is>
+          <t>6/17 (35.3%)</t>
+        </is>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>2/17 (11.8%)</t>
+        </is>
+      </c>
+      <c r="Y89" t="inlineStr">
+        <is>
+          <t>2/17 (11.8%)</t>
+        </is>
+      </c>
+      <c r="Z89" t="inlineStr">
+        <is>
+          <t>1/17 (5.9%)</t>
+        </is>
+      </c>
+      <c r="AA89" t="inlineStr">
+        <is>
+          <t>2/17 (11.8%)</t>
+        </is>
+      </c>
+      <c r="AB89" t="inlineStr">
+        <is>
+          <t>1/17 (5.9%)</t>
+        </is>
+      </c>
+      <c r="AC89" t="inlineStr">
+        <is>
+          <t>6/17 (35.3%)</t>
+        </is>
+      </c>
+      <c r="AD89" t="inlineStr">
+        <is>
+          <t>1/17 (5.9%)</t>
+        </is>
+      </c>
+      <c r="AE89" t="inlineStr">
+        <is>
+          <t>6/17 (35.3%)</t>
+        </is>
+      </c>
+      <c r="AF89" t="inlineStr">
+        <is>
+          <t>1/17 (5.9%)</t>
+        </is>
+      </c>
+      <c r="AG89" t="inlineStr">
+        <is>
+          <t>4/17 (23.5%)</t>
+        </is>
+      </c>
+      <c r="AH89" t="inlineStr">
+        <is>
+          <t>1/17 (5.9%)</t>
+        </is>
+      </c>
+      <c r="AI89" t="inlineStr">
+        <is>
+          <t>4/17 (23.5%)</t>
+        </is>
+      </c>
+      <c r="AJ89" t="inlineStr">
+        <is>
+          <t>2/17 (11.8%)</t>
+        </is>
+      </c>
+      <c r="AK89" t="inlineStr">
+        <is>
+          <t>1/17 (5.9%)</t>
+        </is>
+      </c>
+      <c r="AL89" t="inlineStr">
+        <is>
+          <t>3/17 (17.6%)</t>
+        </is>
+      </c>
+      <c r="AM89" t="inlineStr">
+        <is>
+          <t>3/17 (17.6%)</t>
+        </is>
+      </c>
+      <c r="AN89" t="inlineStr">
         <is>
           <t>14/17 (82.4%)</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="AO89" t="inlineStr">
+        <is>
+          <t>1/17 (5.9%)</t>
+        </is>
+      </c>
+      <c r="AP89" t="inlineStr">
+        <is>
+          <t>7/17 (41.2%)</t>
+        </is>
+      </c>
+      <c r="AQ89" t="inlineStr">
+        <is>
+          <t>9/17 (52.9%)</t>
+        </is>
+      </c>
+      <c r="AR89" t="inlineStr">
+        <is>
+          <t>10/17 (58.8%)</t>
+        </is>
+      </c>
+      <c r="AS89" t="inlineStr">
+        <is>
+          <t>7/17 (41.2%)</t>
+        </is>
+      </c>
+      <c r="AT89" t="inlineStr">
+        <is>
+          <t>5/17 (29.4%)</t>
+        </is>
+      </c>
+      <c r="AU89" t="inlineStr">
+        <is>
+          <t>7/17 (41.2%)</t>
+        </is>
+      </c>
+      <c r="AV89" t="inlineStr">
+        <is>
+          <t>10/17 (58.8%)</t>
+        </is>
+      </c>
+      <c r="AW89" t="inlineStr">
+        <is>
+          <t>1/17 (5.9%)</t>
+        </is>
+      </c>
+      <c r="AX89" t="inlineStr">
+        <is>
+          <t>1/17 (5.9%)</t>
+        </is>
+      </c>
+      <c r="AY89" t="inlineStr">
+        <is>
+          <t>1/17 (5.9%)</t>
+        </is>
+      </c>
+      <c r="AZ89" t="inlineStr">
+        <is>
+          <t>4/17 (23.5%)</t>
+        </is>
+      </c>
+      <c r="BA89" t="inlineStr">
+        <is>
+          <t>7/17 (41.2%)</t>
+        </is>
+      </c>
+      <c r="BB89" t="inlineStr">
+        <is>
+          <t>5/17 (29.4%)</t>
+        </is>
+      </c>
+      <c r="BC89" t="inlineStr">
+        <is>
+          <t>9/17 (52.9%)</t>
+        </is>
+      </c>
+      <c r="BD89" t="inlineStr">
+        <is>
+          <t>2/17 (11.8%)</t>
+        </is>
+      </c>
+      <c r="BE89" t="inlineStr">
+        <is>
+          <t>2/17 (11.8%)</t>
+        </is>
+      </c>
+      <c r="BF89" t="inlineStr">
+        <is>
+          <t>6/17 (35.3%)</t>
+        </is>
+      </c>
+      <c r="BG89" t="inlineStr">
+        <is>
+          <t>1/17 (5.9%)</t>
+        </is>
+      </c>
+      <c r="BH89" t="inlineStr">
+        <is>
+          <t>2/17 (11.8%)</t>
+        </is>
+      </c>
+      <c r="BI89" t="inlineStr">
+        <is>
+          <t>1/17 (5.9%)</t>
+        </is>
+      </c>
+      <c r="BJ89" t="inlineStr">
         <is>
           <t>0/17 (0.0%)</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="BK89" t="inlineStr">
+        <is>
+          <t>0/17 (0.0%)</t>
+        </is>
+      </c>
+      <c r="BL89" t="inlineStr">
+        <is>
+          <t>0/17 (0.0%)</t>
+        </is>
+      </c>
+      <c r="BM89" t="inlineStr">
+        <is>
+          <t>6/17 (35.3%)</t>
+        </is>
+      </c>
+      <c r="BN89" t="inlineStr">
+        <is>
+          <t>0/17 (0.0%)</t>
+        </is>
+      </c>
+      <c r="BO89" t="inlineStr">
+        <is>
+          <t>0/17 (0.0%)</t>
+        </is>
+      </c>
+      <c r="BP89" t="inlineStr">
+        <is>
+          <t>9/17 (52.9%)</t>
+        </is>
+      </c>
+      <c r="BQ89" t="inlineStr">
+        <is>
+          <t>0/17 (0.0%)</t>
+        </is>
+      </c>
+      <c r="BR89" t="inlineStr">
+        <is>
+          <t>0/17 (0.0%)</t>
+        </is>
+      </c>
+      <c r="BS89" t="inlineStr">
+        <is>
+          <t>0/17 (0.0%)</t>
+        </is>
+      </c>
+      <c r="BT89" t="inlineStr">
+        <is>
+          <t>0/17 (0.0%)</t>
+        </is>
+      </c>
+      <c r="BU89" t="inlineStr">
+        <is>
+          <t>0/17 (0.0%)</t>
+        </is>
+      </c>
+      <c r="BV89" t="inlineStr">
+        <is>
+          <t>0/17 (0.0%)</t>
+        </is>
+      </c>
+      <c r="BW89" t="inlineStr">
+        <is>
+          <t>2/17 (11.8%)</t>
+        </is>
+      </c>
+      <c r="BX89" t="inlineStr">
+        <is>
+          <t>8/17 (47.1%)</t>
+        </is>
+      </c>
+      <c r="BY89" t="inlineStr">
+        <is>
+          <t>4/17 (23.5%)</t>
+        </is>
+      </c>
+      <c r="BZ89" t="inlineStr">
+        <is>
+          <t>0/17 (0.0%)</t>
+        </is>
+      </c>
+      <c r="CA89" t="inlineStr">
+        <is>
+          <t>0/17 (0.0%)</t>
+        </is>
+      </c>
+      <c r="CB89" t="inlineStr">
+        <is>
+          <t>0/17 (0.0%)</t>
+        </is>
+      </c>
+      <c r="CC89" t="inlineStr">
+        <is>
+          <t>0/17 (0.0%)</t>
+        </is>
+      </c>
+      <c r="CD89" t="inlineStr">
+        <is>
+          <t>0/17 (0.0%)</t>
+        </is>
+      </c>
+      <c r="CE89" t="inlineStr">
+        <is>
+          <t>0/17 (0.0%)</t>
+        </is>
+      </c>
+      <c r="CF89" t="inlineStr">
+        <is>
+          <t>0/17 (0.0%)</t>
+        </is>
+      </c>
+      <c r="CG89" t="inlineStr">
+        <is>
+          <t>8/17 (47.1%)</t>
+        </is>
+      </c>
+      <c r="CH89" t="inlineStr">
+        <is>
+          <t>0/17 (0.0%)</t>
+        </is>
+      </c>
+      <c r="CI89" t="inlineStr">
+        <is>
+          <t>1/17 (5.9%)</t>
+        </is>
+      </c>
+      <c r="CJ89" t="inlineStr">
+        <is>
+          <t>0/17 (0.0%)</t>
+        </is>
+      </c>
+      <c r="CK89" t="inlineStr">
+        <is>
+          <t>0/17 (0.0%)</t>
+        </is>
+      </c>
+      <c r="CL89" t="inlineStr">
+        <is>
+          <t>15/17 (88.2%)</t>
+        </is>
+      </c>
+      <c r="CM89" t="inlineStr">
+        <is>
+          <t>0/17 (0.0%)</t>
+        </is>
+      </c>
+      <c r="CN89" t="inlineStr">
+        <is>
+          <t>0/17 (0.0%)</t>
+        </is>
+      </c>
+      <c r="CO89" t="inlineStr">
+        <is>
+          <t>3/17 (17.6%)</t>
+        </is>
+      </c>
+      <c r="CP89" t="inlineStr">
+        <is>
+          <t>11/17 (64.7%)</t>
+        </is>
+      </c>
+      <c r="CQ89" t="inlineStr">
+        <is>
+          <t>0/17 (0.0%)</t>
+        </is>
+      </c>
+      <c r="CR89" t="inlineStr">
+        <is>
+          <t>7/17 (41.2%)</t>
+        </is>
+      </c>
+      <c r="CS89" t="inlineStr">
+        <is>
+          <t>1/17 (5.9%)</t>
+        </is>
+      </c>
+      <c r="CT89" t="inlineStr">
+        <is>
+          <t>0/17 (0.0%)</t>
+        </is>
+      </c>
+      <c r="CU89" t="inlineStr">
+        <is>
+          <t>0/17 (0.0%)</t>
+        </is>
+      </c>
+      <c r="CV89" t="inlineStr">
+        <is>
+          <t>0/17 (0.0%)</t>
+        </is>
+      </c>
+      <c r="CW89" t="inlineStr">
+        <is>
+          <t>2/17 (11.8%)</t>
+        </is>
+      </c>
+      <c r="CX89" t="inlineStr">
+        <is>
+          <t>0/17 (0.0%)</t>
+        </is>
+      </c>
+      <c r="CY89" t="inlineStr">
+        <is>
+          <t>0/17 (0.0%)</t>
+        </is>
+      </c>
+      <c r="CZ89" t="inlineStr">
+        <is>
+          <t>1/17 (5.9%)</t>
+        </is>
+      </c>
+      <c r="DA89" t="inlineStr">
+        <is>
+          <t>1/17 (5.9%)</t>
+        </is>
+      </c>
+      <c r="DB89" t="inlineStr">
+        <is>
+          <t>2/17 (11.8%)</t>
+        </is>
+      </c>
+      <c r="DC89" t="inlineStr">
+        <is>
+          <t>7/17 (41.2%)</t>
+        </is>
+      </c>
+      <c r="DD89" t="inlineStr">
+        <is>
+          <t>0/17 (0.0%)</t>
+        </is>
+      </c>
+      <c r="DE89" t="inlineStr">
+        <is>
+          <t>1/17 (5.9%)</t>
+        </is>
+      </c>
+      <c r="DF89" t="inlineStr">
         <is>
           <t>17/17 (100.0%)</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="DG89" t="inlineStr">
+        <is>
+          <t>3/17 (17.6%)</t>
+        </is>
+      </c>
+      <c r="DH89" t="inlineStr">
+        <is>
+          <t>2/17 (11.8%)</t>
+        </is>
+      </c>
+      <c r="DI89" t="inlineStr">
+        <is>
+          <t>5/17 (29.4%)</t>
+        </is>
+      </c>
+      <c r="DJ89" t="inlineStr">
         <is>
           <t>0/17 (0.0%)</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="DK89" t="inlineStr">
+        <is>
+          <t>1/17 (5.9%)</t>
+        </is>
+      </c>
+      <c r="DL89" t="inlineStr">
+        <is>
+          <t>2/17 (11.8%)</t>
+        </is>
+      </c>
+      <c r="DM89" t="inlineStr">
         <is>
           <t>0/17 (0.0%)</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
+      <c r="DN89" t="inlineStr">
         <is>
           <t>0/17 (0.0%)</t>
         </is>
       </c>
-      <c r="I89" t="inlineStr">
+      <c r="DO89" t="inlineStr">
+        <is>
+          <t>4/17 (23.5%)</t>
+        </is>
+      </c>
+      <c r="DP89" t="inlineStr">
         <is>
           <t>0/17 (0.0%)</t>
         </is>
       </c>
-      <c r="J89" t="inlineStr">
+      <c r="DQ89" t="inlineStr">
+        <is>
+          <t>6/17 (35.3%)</t>
+        </is>
+      </c>
+      <c r="DR89" t="inlineStr">
+        <is>
+          <t>1/17 (5.9%)</t>
+        </is>
+      </c>
+      <c r="DS89" t="inlineStr">
+        <is>
+          <t>3/17 (17.6%)</t>
+        </is>
+      </c>
+      <c r="DT89" t="inlineStr">
+        <is>
+          <t>2/17 (11.8%)</t>
+        </is>
+      </c>
+      <c r="DU89" t="inlineStr">
+        <is>
+          <t>3/17 (17.6%)</t>
+        </is>
+      </c>
+      <c r="DV89" t="inlineStr">
+        <is>
+          <t>3/17 (17.6%)</t>
+        </is>
+      </c>
+      <c r="DW89" t="inlineStr">
+        <is>
+          <t>7/17 (41.2%)</t>
+        </is>
+      </c>
+      <c r="DX89" t="inlineStr">
+        <is>
+          <t>6/17 (35.3%)</t>
+        </is>
+      </c>
+      <c r="DY89" t="inlineStr">
+        <is>
+          <t>16/17 (94.1%)</t>
+        </is>
+      </c>
+      <c r="DZ89" t="inlineStr">
         <is>
           <t>0/17 (0.0%)</t>
         </is>
       </c>
-      <c r="K89" t="inlineStr">
+      <c r="EA89" t="inlineStr">
+        <is>
+          <t>1/17 (5.9%)</t>
+        </is>
+      </c>
+      <c r="EB89" t="inlineStr">
+        <is>
+          <t>1/17 (5.9%)</t>
+        </is>
+      </c>
+      <c r="EC89" t="inlineStr">
+        <is>
+          <t>13/17 (76.5%)</t>
+        </is>
+      </c>
+      <c r="ED89" t="inlineStr">
+        <is>
+          <t>5/17 (29.4%)</t>
+        </is>
+      </c>
+      <c r="EE89" t="inlineStr">
         <is>
           <t>0/17 (0.0%)</t>
+        </is>
+      </c>
+      <c r="EF89" t="inlineStr">
+        <is>
+          <t>2/17 (11.8%)</t>
+        </is>
+      </c>
+      <c r="EG89" t="inlineStr">
+        <is>
+          <t>0/17 (0.0%)</t>
+        </is>
+      </c>
+      <c r="EH89" t="inlineStr">
+        <is>
+          <t>3/17 (17.6%)</t>
+        </is>
+      </c>
+      <c r="EI89" t="inlineStr">
+        <is>
+          <t>0/17 (0.0%)</t>
+        </is>
+      </c>
+      <c r="EJ89" t="inlineStr">
+        <is>
+          <t>1/17 (5.9%)</t>
+        </is>
+      </c>
+      <c r="EK89" t="inlineStr">
+        <is>
+          <t>0/17 (0.0%)</t>
+        </is>
+      </c>
+      <c r="EL89" t="inlineStr">
+        <is>
+          <t>14/17 (82.4%)</t>
+        </is>
+      </c>
+      <c r="EM89" t="inlineStr">
+        <is>
+          <t>0/17 (0.0%)</t>
+        </is>
+      </c>
+      <c r="EN89" t="inlineStr">
+        <is>
+          <t>0/17 (0.0%)</t>
+        </is>
+      </c>
+      <c r="EO89" t="inlineStr">
+        <is>
+          <t>7/17 (41.2%)</t>
         </is>
       </c>
     </row>
@@ -10434,52 +12310,722 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
+          <t>0.2877</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.9006</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>3.1918</t>
+        </is>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="R90" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="T90" t="inlineStr">
+        <is>
+          <t>0.2580</t>
+        </is>
+      </c>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="V90" t="inlineStr">
+        <is>
+          <t>0.2478</t>
+        </is>
+      </c>
+      <c r="W90" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="Y90" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="Z90" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="AA90" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="AB90" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="AC90" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="AD90" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="AE90" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="AF90" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="AG90" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="AH90" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="AI90" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="AJ90" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="AK90" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="AL90" t="inlineStr">
+        <is>
           <t>0.0022</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="AM90" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="AN90" t="inlineStr">
         <is>
           <t>1.3636</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
+      <c r="AO90" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="AP90" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="AQ90" t="inlineStr">
+        <is>
+          <t>0.4558</t>
+        </is>
+      </c>
+      <c r="AR90" t="inlineStr">
+        <is>
+          <t>3.0550</t>
+        </is>
+      </c>
+      <c r="AS90" t="inlineStr">
+        <is>
+          <t>0.3178</t>
+        </is>
+      </c>
+      <c r="AT90" t="inlineStr">
+        <is>
+          <t>0.4041</t>
+        </is>
+      </c>
+      <c r="AU90" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="AV90" t="inlineStr">
+        <is>
+          <t>0.4446</t>
+        </is>
+      </c>
+      <c r="AW90" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="AX90" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="AY90" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="AZ90" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="BA90" t="inlineStr">
+        <is>
+          <t>0.2886</t>
+        </is>
+      </c>
+      <c r="BB90" t="inlineStr">
+        <is>
+          <t>1.2359</t>
+        </is>
+      </c>
+      <c r="BC90" t="inlineStr">
+        <is>
+          <t>0.5820</t>
+        </is>
+      </c>
+      <c r="BD90" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="BE90" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="BF90" t="inlineStr">
+        <is>
+          <t>0.3658</t>
+        </is>
+      </c>
+      <c r="BG90" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="BH90" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="BI90" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="BJ90" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="BK90" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="BL90" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="BM90" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="BN90" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="BO90" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="BP90" t="inlineStr">
+        <is>
+          <t>0.2133</t>
+        </is>
+      </c>
+      <c r="BQ90" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="BR90" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="BS90" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="BT90" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="BU90" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="BV90" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="BW90" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="BX90" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="BY90" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="BZ90" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="CA90" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="CB90" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="CC90" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="CD90" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="CE90" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="CF90" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="CG90" t="inlineStr">
+        <is>
+          <t>0.1252</t>
+        </is>
+      </c>
+      <c r="CH90" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="CI90" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="CJ90" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="CK90" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="CL90" t="inlineStr">
+        <is>
+          <t>0.7372</t>
+        </is>
+      </c>
+      <c r="CM90" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="CN90" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="CO90" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="CP90" t="inlineStr">
+        <is>
+          <t>0.0834</t>
+        </is>
+      </c>
+      <c r="CQ90" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="CR90" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="CS90" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="CT90" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="CU90" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="CV90" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="CW90" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="CX90" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="CY90" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="CZ90" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="DA90" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="DB90" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="DC90" t="inlineStr">
+        <is>
+          <t>0.0746</t>
+        </is>
+      </c>
+      <c r="DD90" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="DE90" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="DF90" t="inlineStr">
         <is>
           <t>3.7249</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>0.0000</t>
+      <c r="DG90" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="DH90" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="DI90" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="DJ90" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="DK90" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="DL90" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="DM90" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="DN90" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="DO90" t="inlineStr">
+        <is>
+          <t>0.0743</t>
+        </is>
+      </c>
+      <c r="DP90" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="DQ90" t="inlineStr">
+        <is>
+          <t>0.1092</t>
+        </is>
+      </c>
+      <c r="DR90" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="DS90" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="DT90" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="DU90" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="DV90" t="inlineStr">
+        <is>
+          <t>0.0519</t>
+        </is>
+      </c>
+      <c r="DW90" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="DX90" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="DY90" t="inlineStr">
+        <is>
+          <t>1.1462</t>
+        </is>
+      </c>
+      <c r="DZ90" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="EA90" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="EB90" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="EC90" t="inlineStr">
+        <is>
+          <t>0.2201</t>
+        </is>
+      </c>
+      <c r="ED90" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="EE90" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="EF90" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="EG90" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="EH90" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="EI90" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="EJ90" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="EK90" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="EL90" t="inlineStr">
+        <is>
+          <t>0.6624</t>
+        </is>
+      </c>
+      <c r="EM90" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="EN90" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="EO90" t="inlineStr">
+        <is>
+          <t>0.0095</t>
         </is>
       </c>
     </row>
@@ -10491,52 +13037,722 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
+          <t>7/32 (21.9%)</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
           <t>0/32 (0.0%)</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>5/32 (15.6%)</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>3/32 (9.4%)</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2/32 (6.2%)</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>16/32 (50.0%)</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>3/32 (9.4%)</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>0/32 (0.0%)</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>2/32 (6.2%)</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>1/32 (3.1%)</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>0/32 (0.0%)</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>0/32 (0.0%)</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>1/32 (3.1%)</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>2/32 (6.2%)</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>17/32 (53.1%)</t>
+        </is>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>4/32 (12.5%)</t>
+        </is>
+      </c>
+      <c r="R91" t="inlineStr">
+        <is>
+          <t>3/32 (9.4%)</t>
+        </is>
+      </c>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>1/32 (3.1%)</t>
+        </is>
+      </c>
+      <c r="T91" t="inlineStr">
+        <is>
+          <t>12/32 (37.5%)</t>
+        </is>
+      </c>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>8/32 (25.0%)</t>
+        </is>
+      </c>
+      <c r="V91" t="inlineStr">
+        <is>
+          <t>6/32 (18.8%)</t>
+        </is>
+      </c>
+      <c r="W91" t="inlineStr">
+        <is>
+          <t>4/32 (12.5%)</t>
+        </is>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>0/32 (0.0%)</t>
+        </is>
+      </c>
+      <c r="Y91" t="inlineStr">
+        <is>
+          <t>2/32 (6.2%)</t>
+        </is>
+      </c>
+      <c r="Z91" t="inlineStr">
+        <is>
+          <t>0/32 (0.0%)</t>
+        </is>
+      </c>
+      <c r="AA91" t="inlineStr">
+        <is>
+          <t>0/32 (0.0%)</t>
+        </is>
+      </c>
+      <c r="AB91" t="inlineStr">
+        <is>
+          <t>0/32 (0.0%)</t>
+        </is>
+      </c>
+      <c r="AC91" t="inlineStr">
+        <is>
+          <t>6/32 (18.8%)</t>
+        </is>
+      </c>
+      <c r="AD91" t="inlineStr">
+        <is>
+          <t>0/32 (0.0%)</t>
+        </is>
+      </c>
+      <c r="AE91" t="inlineStr">
+        <is>
+          <t>3/32 (9.4%)</t>
+        </is>
+      </c>
+      <c r="AF91" t="inlineStr">
+        <is>
+          <t>0/32 (0.0%)</t>
+        </is>
+      </c>
+      <c r="AG91" t="inlineStr">
+        <is>
+          <t>4/32 (12.5%)</t>
+        </is>
+      </c>
+      <c r="AH91" t="inlineStr">
+        <is>
+          <t>0/32 (0.0%)</t>
+        </is>
+      </c>
+      <c r="AI91" t="inlineStr">
+        <is>
+          <t>5/32 (15.6%)</t>
+        </is>
+      </c>
+      <c r="AJ91" t="inlineStr">
+        <is>
+          <t>0/32 (0.0%)</t>
+        </is>
+      </c>
+      <c r="AK91" t="inlineStr">
+        <is>
+          <t>0/32 (0.0%)</t>
+        </is>
+      </c>
+      <c r="AL91" t="inlineStr">
+        <is>
+          <t>0/32 (0.0%)</t>
+        </is>
+      </c>
+      <c r="AM91" t="inlineStr">
+        <is>
+          <t>2/32 (6.2%)</t>
+        </is>
+      </c>
+      <c r="AN91" t="inlineStr">
         <is>
           <t>14/32 (43.8%)</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="AO91" t="inlineStr">
+        <is>
+          <t>0/32 (0.0%)</t>
+        </is>
+      </c>
+      <c r="AP91" t="inlineStr">
+        <is>
+          <t>8/32 (25.0%)</t>
+        </is>
+      </c>
+      <c r="AQ91" t="inlineStr">
+        <is>
+          <t>8/32 (25.0%)</t>
+        </is>
+      </c>
+      <c r="AR91" t="inlineStr">
+        <is>
+          <t>12/32 (37.5%)</t>
+        </is>
+      </c>
+      <c r="AS91" t="inlineStr">
+        <is>
+          <t>6/32 (18.8%)</t>
+        </is>
+      </c>
+      <c r="AT91" t="inlineStr">
+        <is>
+          <t>12/32 (37.5%)</t>
+        </is>
+      </c>
+      <c r="AU91" t="inlineStr">
+        <is>
+          <t>6/32 (18.8%)</t>
+        </is>
+      </c>
+      <c r="AV91" t="inlineStr">
+        <is>
+          <t>8/32 (25.0%)</t>
+        </is>
+      </c>
+      <c r="AW91" t="inlineStr">
+        <is>
+          <t>0/32 (0.0%)</t>
+        </is>
+      </c>
+      <c r="AX91" t="inlineStr">
+        <is>
+          <t>0/32 (0.0%)</t>
+        </is>
+      </c>
+      <c r="AY91" t="inlineStr">
+        <is>
+          <t>0/32 (0.0%)</t>
+        </is>
+      </c>
+      <c r="AZ91" t="inlineStr">
+        <is>
+          <t>2/32 (6.2%)</t>
+        </is>
+      </c>
+      <c r="BA91" t="inlineStr">
+        <is>
+          <t>13/32 (40.6%)</t>
+        </is>
+      </c>
+      <c r="BB91" t="inlineStr">
+        <is>
+          <t>6/32 (18.8%)</t>
+        </is>
+      </c>
+      <c r="BC91" t="inlineStr">
+        <is>
+          <t>6/32 (18.8%)</t>
+        </is>
+      </c>
+      <c r="BD91" t="inlineStr">
+        <is>
+          <t>1/32 (3.1%)</t>
+        </is>
+      </c>
+      <c r="BE91" t="inlineStr">
+        <is>
+          <t>0/32 (0.0%)</t>
+        </is>
+      </c>
+      <c r="BF91" t="inlineStr">
+        <is>
+          <t>8/32 (25.0%)</t>
+        </is>
+      </c>
+      <c r="BG91" t="inlineStr">
+        <is>
+          <t>0/32 (0.0%)</t>
+        </is>
+      </c>
+      <c r="BH91" t="inlineStr">
+        <is>
+          <t>1/32 (3.1%)</t>
+        </is>
+      </c>
+      <c r="BI91" t="inlineStr">
+        <is>
+          <t>1/32 (3.1%)</t>
+        </is>
+      </c>
+      <c r="BJ91" t="inlineStr">
+        <is>
+          <t>1/32 (3.1%)</t>
+        </is>
+      </c>
+      <c r="BK91" t="inlineStr">
+        <is>
+          <t>2/32 (6.2%)</t>
+        </is>
+      </c>
+      <c r="BL91" t="inlineStr">
         <is>
           <t>3/32 (9.4%)</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="BM91" t="inlineStr">
+        <is>
+          <t>12/32 (37.5%)</t>
+        </is>
+      </c>
+      <c r="BN91" t="inlineStr">
+        <is>
+          <t>1/32 (3.1%)</t>
+        </is>
+      </c>
+      <c r="BO91" t="inlineStr">
+        <is>
+          <t>1/32 (3.1%)</t>
+        </is>
+      </c>
+      <c r="BP91" t="inlineStr">
+        <is>
+          <t>19/32 (59.4%)</t>
+        </is>
+      </c>
+      <c r="BQ91" t="inlineStr">
+        <is>
+          <t>1/32 (3.1%)</t>
+        </is>
+      </c>
+      <c r="BR91" t="inlineStr">
+        <is>
+          <t>3/32 (9.4%)</t>
+        </is>
+      </c>
+      <c r="BS91" t="inlineStr">
+        <is>
+          <t>3/32 (9.4%)</t>
+        </is>
+      </c>
+      <c r="BT91" t="inlineStr">
+        <is>
+          <t>1/32 (3.1%)</t>
+        </is>
+      </c>
+      <c r="BU91" t="inlineStr">
+        <is>
+          <t>1/32 (3.1%)</t>
+        </is>
+      </c>
+      <c r="BV91" t="inlineStr">
+        <is>
+          <t>1/32 (3.1%)</t>
+        </is>
+      </c>
+      <c r="BW91" t="inlineStr">
+        <is>
+          <t>3/32 (9.4%)</t>
+        </is>
+      </c>
+      <c r="BX91" t="inlineStr">
+        <is>
+          <t>10/32 (31.2%)</t>
+        </is>
+      </c>
+      <c r="BY91" t="inlineStr">
+        <is>
+          <t>5/32 (15.6%)</t>
+        </is>
+      </c>
+      <c r="BZ91" t="inlineStr">
+        <is>
+          <t>4/32 (12.5%)</t>
+        </is>
+      </c>
+      <c r="CA91" t="inlineStr">
+        <is>
+          <t>1/32 (3.1%)</t>
+        </is>
+      </c>
+      <c r="CB91" t="inlineStr">
+        <is>
+          <t>1/32 (3.1%)</t>
+        </is>
+      </c>
+      <c r="CC91" t="inlineStr">
+        <is>
+          <t>1/32 (3.1%)</t>
+        </is>
+      </c>
+      <c r="CD91" t="inlineStr">
+        <is>
+          <t>4/32 (12.5%)</t>
+        </is>
+      </c>
+      <c r="CE91" t="inlineStr">
+        <is>
+          <t>1/32 (3.1%)</t>
+        </is>
+      </c>
+      <c r="CF91" t="inlineStr">
+        <is>
+          <t>1/32 (3.1%)</t>
+        </is>
+      </c>
+      <c r="CG91" t="inlineStr">
+        <is>
+          <t>14/32 (43.8%)</t>
+        </is>
+      </c>
+      <c r="CH91" t="inlineStr">
+        <is>
+          <t>1/32 (3.1%)</t>
+        </is>
+      </c>
+      <c r="CI91" t="inlineStr">
+        <is>
+          <t>2/32 (6.2%)</t>
+        </is>
+      </c>
+      <c r="CJ91" t="inlineStr">
+        <is>
+          <t>1/32 (3.1%)</t>
+        </is>
+      </c>
+      <c r="CK91" t="inlineStr">
+        <is>
+          <t>1/32 (3.1%)</t>
+        </is>
+      </c>
+      <c r="CL91" t="inlineStr">
+        <is>
+          <t>19/32 (59.4%)</t>
+        </is>
+      </c>
+      <c r="CM91" t="inlineStr">
+        <is>
+          <t>1/32 (3.1%)</t>
+        </is>
+      </c>
+      <c r="CN91" t="inlineStr">
+        <is>
+          <t>1/32 (3.1%)</t>
+        </is>
+      </c>
+      <c r="CO91" t="inlineStr">
+        <is>
+          <t>9/32 (28.1%)</t>
+        </is>
+      </c>
+      <c r="CP91" t="inlineStr">
+        <is>
+          <t>15/32 (46.9%)</t>
+        </is>
+      </c>
+      <c r="CQ91" t="inlineStr">
+        <is>
+          <t>6/32 (18.8%)</t>
+        </is>
+      </c>
+      <c r="CR91" t="inlineStr">
+        <is>
+          <t>14/32 (43.8%)</t>
+        </is>
+      </c>
+      <c r="CS91" t="inlineStr">
+        <is>
+          <t>2/32 (6.2%)</t>
+        </is>
+      </c>
+      <c r="CT91" t="inlineStr">
+        <is>
+          <t>4/32 (12.5%)</t>
+        </is>
+      </c>
+      <c r="CU91" t="inlineStr">
+        <is>
+          <t>1/32 (3.1%)</t>
+        </is>
+      </c>
+      <c r="CV91" t="inlineStr">
+        <is>
+          <t>2/32 (6.2%)</t>
+        </is>
+      </c>
+      <c r="CW91" t="inlineStr">
+        <is>
+          <t>2/32 (6.2%)</t>
+        </is>
+      </c>
+      <c r="CX91" t="inlineStr">
+        <is>
+          <t>1/32 (3.1%)</t>
+        </is>
+      </c>
+      <c r="CY91" t="inlineStr">
+        <is>
+          <t>2/32 (6.2%)</t>
+        </is>
+      </c>
+      <c r="CZ91" t="inlineStr">
+        <is>
+          <t>3/32 (9.4%)</t>
+        </is>
+      </c>
+      <c r="DA91" t="inlineStr">
+        <is>
+          <t>1/32 (3.1%)</t>
+        </is>
+      </c>
+      <c r="DB91" t="inlineStr">
+        <is>
+          <t>3/32 (9.4%)</t>
+        </is>
+      </c>
+      <c r="DC91" t="inlineStr">
+        <is>
+          <t>5/32 (15.6%)</t>
+        </is>
+      </c>
+      <c r="DD91" t="inlineStr">
+        <is>
+          <t>0/32 (0.0%)</t>
+        </is>
+      </c>
+      <c r="DE91" t="inlineStr">
+        <is>
+          <t>0/32 (0.0%)</t>
+        </is>
+      </c>
+      <c r="DF91" t="inlineStr">
         <is>
           <t>26/32 (81.2%)</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="DG91" t="inlineStr">
+        <is>
+          <t>4/32 (12.5%)</t>
+        </is>
+      </c>
+      <c r="DH91" t="inlineStr">
+        <is>
+          <t>8/32 (25.0%)</t>
+        </is>
+      </c>
+      <c r="DI91" t="inlineStr">
+        <is>
+          <t>2/32 (6.2%)</t>
+        </is>
+      </c>
+      <c r="DJ91" t="inlineStr">
         <is>
           <t>0/32 (0.0%)</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="DK91" t="inlineStr">
+        <is>
+          <t>1/32 (3.1%)</t>
+        </is>
+      </c>
+      <c r="DL91" t="inlineStr">
+        <is>
+          <t>1/32 (3.1%)</t>
+        </is>
+      </c>
+      <c r="DM91" t="inlineStr">
         <is>
           <t>0/32 (0.0%)</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
+      <c r="DN91" t="inlineStr">
         <is>
           <t>0/32 (0.0%)</t>
         </is>
       </c>
-      <c r="I91" t="inlineStr">
+      <c r="DO91" t="inlineStr">
+        <is>
+          <t>8/32 (25.0%)</t>
+        </is>
+      </c>
+      <c r="DP91" t="inlineStr">
+        <is>
+          <t>1/32 (3.1%)</t>
+        </is>
+      </c>
+      <c r="DQ91" t="inlineStr">
+        <is>
+          <t>12/32 (37.5%)</t>
+        </is>
+      </c>
+      <c r="DR91" t="inlineStr">
+        <is>
+          <t>2/32 (6.2%)</t>
+        </is>
+      </c>
+      <c r="DS91" t="inlineStr">
+        <is>
+          <t>3/32 (9.4%)</t>
+        </is>
+      </c>
+      <c r="DT91" t="inlineStr">
+        <is>
+          <t>3/32 (9.4%)</t>
+        </is>
+      </c>
+      <c r="DU91" t="inlineStr">
+        <is>
+          <t>5/32 (15.6%)</t>
+        </is>
+      </c>
+      <c r="DV91" t="inlineStr">
+        <is>
+          <t>4/32 (12.5%)</t>
+        </is>
+      </c>
+      <c r="DW91" t="inlineStr">
+        <is>
+          <t>9/32 (28.1%)</t>
+        </is>
+      </c>
+      <c r="DX91" t="inlineStr">
+        <is>
+          <t>7/32 (21.9%)</t>
+        </is>
+      </c>
+      <c r="DY91" t="inlineStr">
+        <is>
+          <t>24/32 (75.0%)</t>
+        </is>
+      </c>
+      <c r="DZ91" t="inlineStr">
+        <is>
+          <t>1/32 (3.1%)</t>
+        </is>
+      </c>
+      <c r="EA91" t="inlineStr">
+        <is>
+          <t>4/32 (12.5%)</t>
+        </is>
+      </c>
+      <c r="EB91" t="inlineStr">
+        <is>
+          <t>4/32 (12.5%)</t>
+        </is>
+      </c>
+      <c r="EC91" t="inlineStr">
+        <is>
+          <t>18/32 (56.2%)</t>
+        </is>
+      </c>
+      <c r="ED91" t="inlineStr">
+        <is>
+          <t>3/32 (9.4%)</t>
+        </is>
+      </c>
+      <c r="EE91" t="inlineStr">
+        <is>
+          <t>1/32 (3.1%)</t>
+        </is>
+      </c>
+      <c r="EF91" t="inlineStr">
+        <is>
+          <t>7/32 (21.9%)</t>
+        </is>
+      </c>
+      <c r="EG91" t="inlineStr">
         <is>
           <t>0/32 (0.0%)</t>
         </is>
       </c>
-      <c r="J91" t="inlineStr">
+      <c r="EH91" t="inlineStr">
+        <is>
+          <t>7/32 (21.9%)</t>
+        </is>
+      </c>
+      <c r="EI91" t="inlineStr">
         <is>
           <t>0/32 (0.0%)</t>
         </is>
       </c>
-      <c r="K91" t="inlineStr">
+      <c r="EJ91" t="inlineStr">
+        <is>
+          <t>2/32 (6.2%)</t>
+        </is>
+      </c>
+      <c r="EK91" t="inlineStr">
         <is>
           <t>0/32 (0.0%)</t>
+        </is>
+      </c>
+      <c r="EL91" t="inlineStr">
+        <is>
+          <t>22/32 (68.8%)</t>
+        </is>
+      </c>
+      <c r="EM91" t="inlineStr">
+        <is>
+          <t>0/32 (0.0%)</t>
+        </is>
+      </c>
+      <c r="EN91" t="inlineStr">
+        <is>
+          <t>0/32 (0.0%)</t>
+        </is>
+      </c>
+      <c r="EO91" t="inlineStr">
+        <is>
+          <t>11/32 (34.4%)</t>
         </is>
       </c>
     </row>
@@ -10548,52 +13764,722 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.0181</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.5326</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>3.5785</t>
+        </is>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="R92" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="T92" t="inlineStr">
+        <is>
+          <t>0.0649</t>
+        </is>
+      </c>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="V92" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="W92" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="Y92" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="Z92" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="AA92" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="AB92" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="AC92" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="AD92" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="AE92" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="AF92" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="AG92" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="AH92" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="AI92" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="AJ92" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="AK92" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="AL92" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="AM92" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="AN92" t="inlineStr">
+        <is>
           <t>0.1728</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="AO92" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="AP92" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="AQ92" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="AR92" t="inlineStr">
+        <is>
+          <t>0.6543</t>
+        </is>
+      </c>
+      <c r="AS92" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="AT92" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="AU92" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="AV92" t="inlineStr">
+        <is>
+          <t>0.0553</t>
+        </is>
+      </c>
+      <c r="AW92" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="AX92" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="AY92" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="AZ92" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="BA92" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="BB92" t="inlineStr">
+        <is>
+          <t>0.1555</t>
+        </is>
+      </c>
+      <c r="BC92" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="BD92" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="BE92" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="BF92" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="BG92" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="BH92" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="BI92" t="inlineStr">
+        <is>
+          <t>1.5478</t>
+        </is>
+      </c>
+      <c r="BJ92" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="BK92" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="BL92" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="BM92" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="BN92" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="BO92" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="BP92" t="inlineStr">
+        <is>
+          <t>0.2149</t>
+        </is>
+      </c>
+      <c r="BQ92" t="inlineStr">
+        <is>
+          <t>0.1978</t>
+        </is>
+      </c>
+      <c r="BR92" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="BS92" t="inlineStr">
         <is>
           <t>3.0723</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="BT92" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="BU92" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="BV92" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="BW92" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="BX92" t="inlineStr">
+        <is>
+          <t>0.0951</t>
+        </is>
+      </c>
+      <c r="BY92" t="inlineStr">
+        <is>
+          <t>0.0578</t>
+        </is>
+      </c>
+      <c r="BZ92" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="CA92" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="CB92" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="CC92" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="CD92" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="CE92" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="CF92" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="CG92" t="inlineStr">
+        <is>
+          <t>0.2088</t>
+        </is>
+      </c>
+      <c r="CH92" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="CI92" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="CJ92" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="CK92" t="inlineStr">
+        <is>
+          <t>0.0734</t>
+        </is>
+      </c>
+      <c r="CL92" t="inlineStr">
+        <is>
+          <t>3.3039</t>
+        </is>
+      </c>
+      <c r="CM92" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="CN92" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="CO92" t="inlineStr">
+        <is>
+          <t>0.4069</t>
+        </is>
+      </c>
+      <c r="CP92" t="inlineStr">
+        <is>
+          <t>0.3709</t>
+        </is>
+      </c>
+      <c r="CQ92" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="CR92" t="inlineStr">
+        <is>
+          <t>0.9505</t>
+        </is>
+      </c>
+      <c r="CS92" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="CT92" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="CU92" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="CV92" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="CW92" t="inlineStr">
+        <is>
+          <t>0.0651</t>
+        </is>
+      </c>
+      <c r="CX92" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="CY92" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="CZ92" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="DA92" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="DB92" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="DC92" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="DD92" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="DE92" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="DF92" t="inlineStr">
         <is>
           <t>5.3619</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
-      </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>0.0000</t>
+      <c r="DG92" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="DH92" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="DI92" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="DJ92" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="DK92" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="DL92" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="DM92" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="DN92" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="DO92" t="inlineStr">
+        <is>
+          <t>0.2834</t>
+        </is>
+      </c>
+      <c r="DP92" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="DQ92" t="inlineStr">
+        <is>
+          <t>0.1405</t>
+        </is>
+      </c>
+      <c r="DR92" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="DS92" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="DT92" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="DU92" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="DV92" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="DW92" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="DX92" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="DY92" t="inlineStr">
+        <is>
+          <t>1.5058</t>
+        </is>
+      </c>
+      <c r="DZ92" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="EA92" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="EB92" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="EC92" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="ED92" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="EE92" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="EF92" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="EG92" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="EH92" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="EI92" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="EJ92" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="EK92" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="EL92" t="inlineStr">
+        <is>
+          <t>0.5722</t>
+        </is>
+      </c>
+      <c r="EM92" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="EN92" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="EO92" t="inlineStr">
+        <is>
+          <t>0.0263</t>
         </is>
       </c>
     </row>
@@ -10605,52 +14491,722 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
+          <t>13/21 (61.9%)</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
           <t>0/21 (0.0%)</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0/21 (0.0%)</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>2/21 (9.5%)</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>0/21 (0.0%)</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>5/21 (23.8%)</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>1/21 (4.8%)</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>0/21 (0.0%)</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>2/21 (9.5%)</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>1/21 (4.8%)</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>0/21 (0.0%)</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>0/21 (0.0%)</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>1/21 (4.8%)</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>1/21 (4.8%)</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>13/21 (61.9%)</t>
+        </is>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>4/21 (19.0%)</t>
+        </is>
+      </c>
+      <c r="R93" t="inlineStr">
+        <is>
+          <t>2/21 (9.5%)</t>
+        </is>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>1/21 (4.8%)</t>
+        </is>
+      </c>
+      <c r="T93" t="inlineStr">
+        <is>
+          <t>14/21 (66.7%)</t>
+        </is>
+      </c>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>5/21 (23.8%)</t>
+        </is>
+      </c>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>1/21 (4.8%)</t>
+        </is>
+      </c>
+      <c r="W93" t="inlineStr">
+        <is>
+          <t>4/21 (19.0%)</t>
+        </is>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>0/21 (0.0%)</t>
+        </is>
+      </c>
+      <c r="Y93" t="inlineStr">
+        <is>
+          <t>2/21 (9.5%)</t>
+        </is>
+      </c>
+      <c r="Z93" t="inlineStr">
+        <is>
+          <t>0/21 (0.0%)</t>
+        </is>
+      </c>
+      <c r="AA93" t="inlineStr">
+        <is>
+          <t>0/21 (0.0%)</t>
+        </is>
+      </c>
+      <c r="AB93" t="inlineStr">
+        <is>
+          <t>0/21 (0.0%)</t>
+        </is>
+      </c>
+      <c r="AC93" t="inlineStr">
+        <is>
+          <t>2/21 (9.5%)</t>
+        </is>
+      </c>
+      <c r="AD93" t="inlineStr">
+        <is>
+          <t>0/21 (0.0%)</t>
+        </is>
+      </c>
+      <c r="AE93" t="inlineStr">
+        <is>
+          <t>1/21 (4.8%)</t>
+        </is>
+      </c>
+      <c r="AF93" t="inlineStr">
+        <is>
+          <t>0/21 (0.0%)</t>
+        </is>
+      </c>
+      <c r="AG93" t="inlineStr">
+        <is>
+          <t>1/21 (4.8%)</t>
+        </is>
+      </c>
+      <c r="AH93" t="inlineStr">
+        <is>
+          <t>0/21 (0.0%)</t>
+        </is>
+      </c>
+      <c r="AI93" t="inlineStr">
+        <is>
+          <t>1/21 (4.8%)</t>
+        </is>
+      </c>
+      <c r="AJ93" t="inlineStr">
+        <is>
+          <t>0/21 (0.0%)</t>
+        </is>
+      </c>
+      <c r="AK93" t="inlineStr">
+        <is>
+          <t>0/21 (0.0%)</t>
+        </is>
+      </c>
+      <c r="AL93" t="inlineStr">
+        <is>
+          <t>0/21 (0.0%)</t>
+        </is>
+      </c>
+      <c r="AM93" t="inlineStr">
+        <is>
+          <t>1/21 (4.8%)</t>
+        </is>
+      </c>
+      <c r="AN93" t="inlineStr">
         <is>
           <t>12/21 (57.1%)</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="AO93" t="inlineStr">
         <is>
           <t>0/21 (0.0%)</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="AP93" t="inlineStr">
+        <is>
+          <t>3/21 (14.3%)</t>
+        </is>
+      </c>
+      <c r="AQ93" t="inlineStr">
+        <is>
+          <t>4/21 (19.0%)</t>
+        </is>
+      </c>
+      <c r="AR93" t="inlineStr">
+        <is>
+          <t>7/21 (33.3%)</t>
+        </is>
+      </c>
+      <c r="AS93" t="inlineStr">
+        <is>
+          <t>2/21 (9.5%)</t>
+        </is>
+      </c>
+      <c r="AT93" t="inlineStr">
+        <is>
+          <t>10/21 (47.6%)</t>
+        </is>
+      </c>
+      <c r="AU93" t="inlineStr">
+        <is>
+          <t>5/21 (23.8%)</t>
+        </is>
+      </c>
+      <c r="AV93" t="inlineStr">
+        <is>
+          <t>3/21 (14.3%)</t>
+        </is>
+      </c>
+      <c r="AW93" t="inlineStr">
+        <is>
+          <t>0/21 (0.0%)</t>
+        </is>
+      </c>
+      <c r="AX93" t="inlineStr">
+        <is>
+          <t>0/21 (0.0%)</t>
+        </is>
+      </c>
+      <c r="AY93" t="inlineStr">
+        <is>
+          <t>0/21 (0.0%)</t>
+        </is>
+      </c>
+      <c r="AZ93" t="inlineStr">
+        <is>
+          <t>0/21 (0.0%)</t>
+        </is>
+      </c>
+      <c r="BA93" t="inlineStr">
+        <is>
+          <t>7/21 (33.3%)</t>
+        </is>
+      </c>
+      <c r="BB93" t="inlineStr">
+        <is>
+          <t>6/21 (28.6%)</t>
+        </is>
+      </c>
+      <c r="BC93" t="inlineStr">
+        <is>
+          <t>4/21 (19.0%)</t>
+        </is>
+      </c>
+      <c r="BD93" t="inlineStr">
+        <is>
+          <t>0/21 (0.0%)</t>
+        </is>
+      </c>
+      <c r="BE93" t="inlineStr">
+        <is>
+          <t>0/21 (0.0%)</t>
+        </is>
+      </c>
+      <c r="BF93" t="inlineStr">
+        <is>
+          <t>4/21 (19.0%)</t>
+        </is>
+      </c>
+      <c r="BG93" t="inlineStr">
+        <is>
+          <t>0/21 (0.0%)</t>
+        </is>
+      </c>
+      <c r="BH93" t="inlineStr">
+        <is>
+          <t>3/21 (14.3%)</t>
+        </is>
+      </c>
+      <c r="BI93" t="inlineStr">
+        <is>
+          <t>1/21 (4.8%)</t>
+        </is>
+      </c>
+      <c r="BJ93" t="inlineStr">
+        <is>
+          <t>0/21 (0.0%)</t>
+        </is>
+      </c>
+      <c r="BK93" t="inlineStr">
+        <is>
+          <t>0/21 (0.0%)</t>
+        </is>
+      </c>
+      <c r="BL93" t="inlineStr">
+        <is>
+          <t>0/21 (0.0%)</t>
+        </is>
+      </c>
+      <c r="BM93" t="inlineStr">
+        <is>
+          <t>8/21 (38.1%)</t>
+        </is>
+      </c>
+      <c r="BN93" t="inlineStr">
+        <is>
+          <t>0/21 (0.0%)</t>
+        </is>
+      </c>
+      <c r="BO93" t="inlineStr">
+        <is>
+          <t>0/21 (0.0%)</t>
+        </is>
+      </c>
+      <c r="BP93" t="inlineStr">
+        <is>
+          <t>6/21 (28.6%)</t>
+        </is>
+      </c>
+      <c r="BQ93" t="inlineStr">
+        <is>
+          <t>0/21 (0.0%)</t>
+        </is>
+      </c>
+      <c r="BR93" t="inlineStr">
+        <is>
+          <t>0/21 (0.0%)</t>
+        </is>
+      </c>
+      <c r="BS93" t="inlineStr">
+        <is>
+          <t>0/21 (0.0%)</t>
+        </is>
+      </c>
+      <c r="BT93" t="inlineStr">
+        <is>
+          <t>0/21 (0.0%)</t>
+        </is>
+      </c>
+      <c r="BU93" t="inlineStr">
+        <is>
+          <t>0/21 (0.0%)</t>
+        </is>
+      </c>
+      <c r="BV93" t="inlineStr">
+        <is>
+          <t>0/21 (0.0%)</t>
+        </is>
+      </c>
+      <c r="BW93" t="inlineStr">
+        <is>
+          <t>6/21 (28.6%)</t>
+        </is>
+      </c>
+      <c r="BX93" t="inlineStr">
+        <is>
+          <t>4/21 (19.0%)</t>
+        </is>
+      </c>
+      <c r="BY93" t="inlineStr">
+        <is>
+          <t>4/21 (19.0%)</t>
+        </is>
+      </c>
+      <c r="BZ93" t="inlineStr">
+        <is>
+          <t>0/21 (0.0%)</t>
+        </is>
+      </c>
+      <c r="CA93" t="inlineStr">
+        <is>
+          <t>0/21 (0.0%)</t>
+        </is>
+      </c>
+      <c r="CB93" t="inlineStr">
+        <is>
+          <t>0/21 (0.0%)</t>
+        </is>
+      </c>
+      <c r="CC93" t="inlineStr">
+        <is>
+          <t>0/21 (0.0%)</t>
+        </is>
+      </c>
+      <c r="CD93" t="inlineStr">
+        <is>
+          <t>0/21 (0.0%)</t>
+        </is>
+      </c>
+      <c r="CE93" t="inlineStr">
+        <is>
+          <t>1/21 (4.8%)</t>
+        </is>
+      </c>
+      <c r="CF93" t="inlineStr">
+        <is>
+          <t>0/21 (0.0%)</t>
+        </is>
+      </c>
+      <c r="CG93" t="inlineStr">
+        <is>
+          <t>10/21 (47.6%)</t>
+        </is>
+      </c>
+      <c r="CH93" t="inlineStr">
+        <is>
+          <t>0/21 (0.0%)</t>
+        </is>
+      </c>
+      <c r="CI93" t="inlineStr">
+        <is>
+          <t>0/21 (0.0%)</t>
+        </is>
+      </c>
+      <c r="CJ93" t="inlineStr">
+        <is>
+          <t>0/21 (0.0%)</t>
+        </is>
+      </c>
+      <c r="CK93" t="inlineStr">
+        <is>
+          <t>0/21 (0.0%)</t>
+        </is>
+      </c>
+      <c r="CL93" t="inlineStr">
+        <is>
+          <t>11/21 (52.4%)</t>
+        </is>
+      </c>
+      <c r="CM93" t="inlineStr">
+        <is>
+          <t>0/21 (0.0%)</t>
+        </is>
+      </c>
+      <c r="CN93" t="inlineStr">
+        <is>
+          <t>0/21 (0.0%)</t>
+        </is>
+      </c>
+      <c r="CO93" t="inlineStr">
+        <is>
+          <t>9/21 (42.9%)</t>
+        </is>
+      </c>
+      <c r="CP93" t="inlineStr">
+        <is>
+          <t>3/21 (14.3%)</t>
+        </is>
+      </c>
+      <c r="CQ93" t="inlineStr">
+        <is>
+          <t>0/21 (0.0%)</t>
+        </is>
+      </c>
+      <c r="CR93" t="inlineStr">
+        <is>
+          <t>3/21 (14.3%)</t>
+        </is>
+      </c>
+      <c r="CS93" t="inlineStr">
+        <is>
+          <t>0/21 (0.0%)</t>
+        </is>
+      </c>
+      <c r="CT93" t="inlineStr">
+        <is>
+          <t>0/21 (0.0%)</t>
+        </is>
+      </c>
+      <c r="CU93" t="inlineStr">
+        <is>
+          <t>0/21 (0.0%)</t>
+        </is>
+      </c>
+      <c r="CV93" t="inlineStr">
+        <is>
+          <t>1/21 (4.8%)</t>
+        </is>
+      </c>
+      <c r="CW93" t="inlineStr">
+        <is>
+          <t>3/21 (14.3%)</t>
+        </is>
+      </c>
+      <c r="CX93" t="inlineStr">
+        <is>
+          <t>0/21 (0.0%)</t>
+        </is>
+      </c>
+      <c r="CY93" t="inlineStr">
+        <is>
+          <t>0/21 (0.0%)</t>
+        </is>
+      </c>
+      <c r="CZ93" t="inlineStr">
+        <is>
+          <t>2/21 (9.5%)</t>
+        </is>
+      </c>
+      <c r="DA93" t="inlineStr">
+        <is>
+          <t>1/21 (4.8%)</t>
+        </is>
+      </c>
+      <c r="DB93" t="inlineStr">
+        <is>
+          <t>4/21 (19.0%)</t>
+        </is>
+      </c>
+      <c r="DC93" t="inlineStr">
+        <is>
+          <t>11/21 (52.4%)</t>
+        </is>
+      </c>
+      <c r="DD93" t="inlineStr">
+        <is>
+          <t>1/21 (4.8%)</t>
+        </is>
+      </c>
+      <c r="DE93" t="inlineStr">
+        <is>
+          <t>3/21 (14.3%)</t>
+        </is>
+      </c>
+      <c r="DF93" t="inlineStr">
         <is>
           <t>18/21 (85.7%)</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="DG93" t="inlineStr">
+        <is>
+          <t>9/21 (42.9%)</t>
+        </is>
+      </c>
+      <c r="DH93" t="inlineStr">
+        <is>
+          <t>4/21 (19.0%)</t>
+        </is>
+      </c>
+      <c r="DI93" t="inlineStr">
+        <is>
+          <t>8/21 (38.1%)</t>
+        </is>
+      </c>
+      <c r="DJ93" t="inlineStr">
+        <is>
+          <t>1/21 (4.8%)</t>
+        </is>
+      </c>
+      <c r="DK93" t="inlineStr">
+        <is>
+          <t>5/21 (23.8%)</t>
+        </is>
+      </c>
+      <c r="DL93" t="inlineStr">
         <is>
           <t>3/21 (14.3%)</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="DM93" t="inlineStr">
         <is>
           <t>3/21 (14.3%)</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
+      <c r="DN93" t="inlineStr">
+        <is>
+          <t>3/21 (14.3%)</t>
+        </is>
+      </c>
+      <c r="DO93" t="inlineStr">
+        <is>
+          <t>11/21 (52.4%)</t>
+        </is>
+      </c>
+      <c r="DP93" t="inlineStr">
+        <is>
+          <t>3/21 (14.3%)</t>
+        </is>
+      </c>
+      <c r="DQ93" t="inlineStr">
+        <is>
+          <t>13/21 (61.9%)</t>
+        </is>
+      </c>
+      <c r="DR93" t="inlineStr">
         <is>
           <t>2/21 (9.5%)</t>
         </is>
       </c>
-      <c r="I93" t="inlineStr">
+      <c r="DS93" t="inlineStr">
+        <is>
+          <t>9/21 (42.9%)</t>
+        </is>
+      </c>
+      <c r="DT93" t="inlineStr">
+        <is>
+          <t>3/21 (14.3%)</t>
+        </is>
+      </c>
+      <c r="DU93" t="inlineStr">
+        <is>
+          <t>7/21 (33.3%)</t>
+        </is>
+      </c>
+      <c r="DV93" t="inlineStr">
+        <is>
+          <t>9/21 (42.9%)</t>
+        </is>
+      </c>
+      <c r="DW93" t="inlineStr">
+        <is>
+          <t>11/21 (52.4%)</t>
+        </is>
+      </c>
+      <c r="DX93" t="inlineStr">
+        <is>
+          <t>10/21 (47.6%)</t>
+        </is>
+      </c>
+      <c r="DY93" t="inlineStr">
+        <is>
+          <t>20/21 (95.2%)</t>
+        </is>
+      </c>
+      <c r="DZ93" t="inlineStr">
+        <is>
+          <t>5/21 (23.8%)</t>
+        </is>
+      </c>
+      <c r="EA93" t="inlineStr">
+        <is>
+          <t>3/21 (14.3%)</t>
+        </is>
+      </c>
+      <c r="EB93" t="inlineStr">
+        <is>
+          <t>6/21 (28.6%)</t>
+        </is>
+      </c>
+      <c r="EC93" t="inlineStr">
+        <is>
+          <t>15/21 (71.4%)</t>
+        </is>
+      </c>
+      <c r="ED93" t="inlineStr">
+        <is>
+          <t>4/21 (19.0%)</t>
+        </is>
+      </c>
+      <c r="EE93" t="inlineStr">
         <is>
           <t>2/21 (9.5%)</t>
         </is>
       </c>
-      <c r="J93" t="inlineStr">
+      <c r="EF93" t="inlineStr">
+        <is>
+          <t>10/21 (47.6%)</t>
+        </is>
+      </c>
+      <c r="EG93" t="inlineStr">
         <is>
           <t>2/21 (9.5%)</t>
         </is>
       </c>
-      <c r="K93" t="inlineStr">
+      <c r="EH93" t="inlineStr">
+        <is>
+          <t>9/21 (42.9%)</t>
+        </is>
+      </c>
+      <c r="EI93" t="inlineStr">
+        <is>
+          <t>2/21 (9.5%)</t>
+        </is>
+      </c>
+      <c r="EJ93" t="inlineStr">
+        <is>
+          <t>3/21 (14.3%)</t>
+        </is>
+      </c>
+      <c r="EK93" t="inlineStr">
+        <is>
+          <t>2/21 (9.5%)</t>
+        </is>
+      </c>
+      <c r="EL93" t="inlineStr">
+        <is>
+          <t>14/21 (66.7%)</t>
+        </is>
+      </c>
+      <c r="EM93" t="inlineStr">
         <is>
           <t>1/21 (4.8%)</t>
+        </is>
+      </c>
+      <c r="EN93" t="inlineStr">
+        <is>
+          <t>1/21 (4.8%)</t>
+        </is>
+      </c>
+      <c r="EO93" t="inlineStr">
+        <is>
+          <t>10/21 (47.6%)</t>
         </is>
       </c>
     </row>
@@ -10662,59 +15218,729 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.0518</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>1.5181</t>
+        </is>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="R94" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="T94" t="inlineStr">
+        <is>
+          <t>0.1453</t>
+        </is>
+      </c>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="V94" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="W94" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="Y94" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="Z94" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="AA94" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="AB94" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="AC94" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="AD94" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="AE94" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="AF94" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="AG94" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="AH94" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="AI94" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="AJ94" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="AK94" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="AL94" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="AM94" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="AN94" t="inlineStr">
+        <is>
           <t>0.0762</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
+      <c r="AO94" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="AP94" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="AQ94" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="AR94" t="inlineStr">
+        <is>
+          <t>0.4269</t>
+        </is>
+      </c>
+      <c r="AS94" t="inlineStr">
+        <is>
+          <t>0.0848</t>
+        </is>
+      </c>
+      <c r="AT94" t="inlineStr">
+        <is>
+          <t>0.2259</t>
+        </is>
+      </c>
+      <c r="AU94" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="AV94" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="AW94" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="AX94" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="AY94" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="AZ94" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="BA94" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="BB94" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="BC94" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="BD94" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="BE94" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="BF94" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="BG94" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="BH94" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="BI94" t="inlineStr">
+        <is>
+          <t>0.5614</t>
+        </is>
+      </c>
+      <c r="BJ94" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="BK94" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="BL94" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="BM94" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="BN94" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="BO94" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="BP94" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="BQ94" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="BR94" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="BS94" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="BT94" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="BU94" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="BV94" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="BW94" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="BX94" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="BY94" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="BZ94" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="CA94" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="CB94" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="CC94" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="CD94" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="CE94" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="CF94" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="CG94" t="inlineStr">
+        <is>
+          <t>0.1582</t>
+        </is>
+      </c>
+      <c r="CH94" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="CI94" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="CJ94" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="CK94" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="CL94" t="inlineStr">
+        <is>
+          <t>2.7716</t>
+        </is>
+      </c>
+      <c r="CM94" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="CN94" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="CO94" t="inlineStr">
+        <is>
+          <t>0.1245</t>
+        </is>
+      </c>
+      <c r="CP94" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="CQ94" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="CR94" t="inlineStr">
+        <is>
+          <t>0.1363</t>
+        </is>
+      </c>
+      <c r="CS94" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="CT94" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="CU94" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="CV94" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="CW94" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="CX94" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="CY94" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="CZ94" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="DA94" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="DB94" t="inlineStr">
+        <is>
+          <t>0.0529</t>
+        </is>
+      </c>
+      <c r="DC94" t="inlineStr">
+        <is>
+          <t>0.1035</t>
+        </is>
+      </c>
+      <c r="DD94" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="DE94" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="DF94" t="inlineStr">
         <is>
           <t>6.9495</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="DG94" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="DH94" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="DI94" t="inlineStr">
+        <is>
+          <t>0.1367</t>
+        </is>
+      </c>
+      <c r="DJ94" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="DK94" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="DL94" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="DM94" t="inlineStr">
         <is>
           <t>0.0019</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="DN94" t="inlineStr">
         <is>
           <t>0.0009</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
+      <c r="DO94" t="inlineStr">
+        <is>
+          <t>1.5101</t>
+        </is>
+      </c>
+      <c r="DP94" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="DQ94" t="inlineStr">
+        <is>
+          <t>1.1856</t>
+        </is>
+      </c>
+      <c r="DR94" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="DS94" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="DT94" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="DU94" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="DV94" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="DW94" t="inlineStr">
+        <is>
+          <t>0.0762</t>
+        </is>
+      </c>
+      <c r="DX94" t="inlineStr">
+        <is>
+          <t>0.1514</t>
+        </is>
+      </c>
+      <c r="DY94" t="inlineStr">
+        <is>
+          <t>4.9482</t>
+        </is>
+      </c>
+      <c r="DZ94" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="EA94" t="inlineStr">
+        <is>
+          <t>0.7871</t>
+        </is>
+      </c>
+      <c r="EB94" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="EC94" t="inlineStr">
+        <is>
+          <t>0.4884</t>
+        </is>
+      </c>
+      <c r="ED94" t="inlineStr">
+        <is>
+          <t>0.0648</t>
+        </is>
+      </c>
+      <c r="EE94" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="EF94" t="inlineStr">
+        <is>
+          <t>0.1763</t>
+        </is>
+      </c>
+      <c r="EG94" t="inlineStr">
         <is>
           <t>0.0011</t>
         </is>
       </c>
-      <c r="I94" t="inlineStr">
+      <c r="EH94" t="inlineStr">
+        <is>
+          <t>0.2507</t>
+        </is>
+      </c>
+      <c r="EI94" t="inlineStr">
         <is>
           <t>0.0011</t>
         </is>
       </c>
-      <c r="J94" t="inlineStr">
+      <c r="EJ94" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="EK94" t="inlineStr">
         <is>
           <t>0.0011</t>
         </is>
       </c>
-      <c r="K94" t="inlineStr">
+      <c r="EL94" t="inlineStr">
+        <is>
+          <t>1.4245</t>
+        </is>
+      </c>
+      <c r="EM94" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="EN94" t="inlineStr">
         <is>
           <t>0.0011</t>
+        </is>
+      </c>
+      <c r="EO94" t="inlineStr">
+        <is>
+          <t>0.0225</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Dataset: high_loadings</t>
+          <t>Dataset: Merged_selected</t>
         </is>
       </c>
     </row>
@@ -10725,100 +15951,34 @@
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>23</v>
+        <v>110</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>91</v>
+        <v>201</v>
       </c>
       <c r="D98" s="1" t="n">
-        <v>334</v>
+        <v>541</v>
       </c>
       <c r="E98" s="1" t="n">
-        <v>342</v>
+        <v>549</v>
       </c>
       <c r="F98" s="1" t="n">
-        <v>351</v>
+        <v>211</v>
       </c>
       <c r="G98" s="1" t="n">
-        <v>494</v>
+        <v>578</v>
       </c>
       <c r="H98" s="1" t="n">
-        <v>541</v>
+        <v>649</v>
       </c>
       <c r="I98" s="1" t="n">
-        <v>549</v>
+        <v>680</v>
       </c>
       <c r="J98" s="1" t="n">
-        <v>565</v>
+        <v>704</v>
       </c>
       <c r="K98" s="1" t="n">
-        <v>606</v>
-      </c>
-      <c r="L98" s="1" t="n">
-        <v>625</v>
-      </c>
-      <c r="M98" s="1" t="n">
-        <v>678</v>
-      </c>
-      <c r="N98" s="1" t="n">
-        <v>712</v>
-      </c>
-      <c r="O98" s="1" t="n">
-        <v>725</v>
-      </c>
-      <c r="P98" s="1" t="n">
-        <v>864</v>
-      </c>
-      <c r="Q98" s="1" t="n">
-        <v>871</v>
-      </c>
-      <c r="R98" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="S98" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="T98" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="U98" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="V98" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="W98" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="X98" s="1" t="n">
-        <v>354</v>
-      </c>
-      <c r="Y98" s="1" t="n">
-        <v>408</v>
-      </c>
-      <c r="Z98" s="1" t="n">
-        <v>471</v>
-      </c>
-      <c r="AA98" s="1" t="n">
-        <v>497</v>
-      </c>
-      <c r="AB98" s="1" t="n">
-        <v>512</v>
-      </c>
-      <c r="AC98" s="1" t="n">
-        <v>581</v>
-      </c>
-      <c r="AD98" s="1" t="n">
-        <v>583</v>
-      </c>
-      <c r="AE98" s="1" t="n">
-        <v>584</v>
-      </c>
-      <c r="AF98" s="1" t="n">
-        <v>649</v>
-      </c>
-      <c r="AG98" s="1" t="n">
-        <v>680</v>
+        <v>238</v>
       </c>
     </row>
     <row r="99">
@@ -10849,140 +16009,30 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Cat 1</t>
+          <t>Cat 2</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Cat 1</t>
+          <t>Cat 2</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Cat 1</t>
+          <t>Cat 2</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Cat 1</t>
+          <t>Cat 2</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Cat 1</t>
+          <t>Cat 2</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
-        <is>
-          <t>Cat 1</t>
-        </is>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>Cat 1</t>
-        </is>
-      </c>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>Cat 1</t>
-        </is>
-      </c>
-      <c r="N99" t="inlineStr">
-        <is>
-          <t>Cat 1</t>
-        </is>
-      </c>
-      <c r="O99" t="inlineStr">
-        <is>
-          <t>Cat 1</t>
-        </is>
-      </c>
-      <c r="P99" t="inlineStr">
-        <is>
-          <t>Cat 1</t>
-        </is>
-      </c>
-      <c r="Q99" t="inlineStr">
-        <is>
-          <t>Cat 1</t>
-        </is>
-      </c>
-      <c r="R99" t="inlineStr">
-        <is>
-          <t>Cat 3</t>
-        </is>
-      </c>
-      <c r="S99" t="inlineStr">
-        <is>
-          <t>Cat 3</t>
-        </is>
-      </c>
-      <c r="T99" t="inlineStr">
-        <is>
-          <t>Cat 3</t>
-        </is>
-      </c>
-      <c r="U99" t="inlineStr">
-        <is>
-          <t>Cat 3</t>
-        </is>
-      </c>
-      <c r="V99" t="inlineStr">
-        <is>
-          <t>Cat 3</t>
-        </is>
-      </c>
-      <c r="W99" t="inlineStr">
-        <is>
-          <t>Cat 3</t>
-        </is>
-      </c>
-      <c r="X99" t="inlineStr">
-        <is>
-          <t>Cat 3</t>
-        </is>
-      </c>
-      <c r="Y99" t="inlineStr">
-        <is>
-          <t>Cat 3</t>
-        </is>
-      </c>
-      <c r="Z99" t="inlineStr">
-        <is>
-          <t>Cat 3</t>
-        </is>
-      </c>
-      <c r="AA99" t="inlineStr">
-        <is>
-          <t>Cat 3</t>
-        </is>
-      </c>
-      <c r="AB99" t="inlineStr">
-        <is>
-          <t>Cat 3</t>
-        </is>
-      </c>
-      <c r="AC99" t="inlineStr">
-        <is>
-          <t>Cat 3</t>
-        </is>
-      </c>
-      <c r="AD99" t="inlineStr">
-        <is>
-          <t>Cat 3</t>
-        </is>
-      </c>
-      <c r="AE99" t="inlineStr">
-        <is>
-          <t>Cat 3</t>
-        </is>
-      </c>
-      <c r="AF99" t="inlineStr">
-        <is>
-          <t>Cat 3</t>
-        </is>
-      </c>
-      <c r="AG99" t="inlineStr">
         <is>
           <t>Cat 3</t>
         </is>
@@ -11000,28 +16050,6 @@
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="inlineStr"/>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="inlineStr"/>
-      <c r="T100" t="inlineStr"/>
-      <c r="U100" t="inlineStr"/>
-      <c r="V100" t="inlineStr"/>
-      <c r="W100" t="inlineStr"/>
-      <c r="X100" t="inlineStr"/>
-      <c r="Y100" t="inlineStr"/>
-      <c r="Z100" t="inlineStr"/>
-      <c r="AA100" t="inlineStr"/>
-      <c r="AB100" t="inlineStr"/>
-      <c r="AC100" t="inlineStr"/>
-      <c r="AD100" t="inlineStr"/>
-      <c r="AE100" t="inlineStr"/>
-      <c r="AF100" t="inlineStr"/>
-      <c r="AG100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -11031,162 +16059,52 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>9/17 (52.9%)</t>
+          <t>14/17 (82.4%)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
+          <t>1/17 (5.9%)</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1/17 (5.9%)</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
           <t>11/17 (64.7%)</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>8/17 (47.1%)</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1/17 (5.9%)</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0/17 (0.0%)</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>0/17 (0.0%)</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>1/17 (5.9%)</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>0/17 (0.0%)</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
         <is>
           <t>2/17 (11.8%)</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>11/17 (64.7%)</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>2/17 (11.8%)</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>3/17 (17.6%)</t>
-        </is>
-      </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>14/17 (82.4%)</t>
-        </is>
-      </c>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>9/17 (52.9%)</t>
-        </is>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>5/17 (29.4%)</t>
-        </is>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>10/17 (58.8%)</t>
-        </is>
-      </c>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>7/17 (41.2%)</t>
-        </is>
-      </c>
-      <c r="N101" t="inlineStr">
-        <is>
-          <t>5/17 (29.4%)</t>
-        </is>
-      </c>
-      <c r="O101" t="inlineStr">
-        <is>
-          <t>9/17 (52.9%)</t>
-        </is>
-      </c>
-      <c r="P101" t="inlineStr">
-        <is>
-          <t>11/17 (64.7%)</t>
-        </is>
-      </c>
-      <c r="Q101" t="inlineStr">
-        <is>
-          <t>6/17 (35.3%)</t>
-        </is>
-      </c>
-      <c r="R101" t="inlineStr">
-        <is>
-          <t>17/17 (100.0%)</t>
-        </is>
-      </c>
-      <c r="S101" t="inlineStr">
-        <is>
-          <t>0/17 (0.0%)</t>
-        </is>
-      </c>
-      <c r="T101" t="inlineStr">
-        <is>
-          <t>0/17 (0.0%)</t>
-        </is>
-      </c>
-      <c r="U101" t="inlineStr">
-        <is>
-          <t>0/17 (0.0%)</t>
-        </is>
-      </c>
-      <c r="V101" t="inlineStr">
-        <is>
-          <t>4/17 (23.5%)</t>
-        </is>
-      </c>
-      <c r="W101" t="inlineStr">
-        <is>
-          <t>6/17 (35.3%)</t>
-        </is>
-      </c>
-      <c r="X101" t="inlineStr">
-        <is>
-          <t>4/17 (23.5%)</t>
-        </is>
-      </c>
-      <c r="Y101" t="inlineStr">
-        <is>
-          <t>8/17 (47.1%)</t>
-        </is>
-      </c>
-      <c r="Z101" t="inlineStr">
-        <is>
-          <t>3/17 (17.6%)</t>
-        </is>
-      </c>
-      <c r="AA101" t="inlineStr">
-        <is>
-          <t>0/17 (0.0%)</t>
-        </is>
-      </c>
-      <c r="AB101" t="inlineStr">
-        <is>
-          <t>1/17 (5.9%)</t>
-        </is>
-      </c>
-      <c r="AC101" t="inlineStr">
-        <is>
-          <t>3/17 (17.6%)</t>
-        </is>
-      </c>
-      <c r="AD101" t="inlineStr">
-        <is>
-          <t>0/17 (0.0%)</t>
-        </is>
-      </c>
-      <c r="AE101" t="inlineStr">
-        <is>
-          <t>3/17 (17.6%)</t>
-        </is>
-      </c>
-      <c r="AF101" t="inlineStr">
-        <is>
-          <t>0/17 (0.0%)</t>
-        </is>
-      </c>
-      <c r="AG101" t="inlineStr">
-        <is>
-          <t>0/17 (0.0%)</t>
         </is>
       </c>
     </row>
@@ -11198,162 +16116,52 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>0.2877</t>
+          <t>9.6387</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>0.9006</t>
+          <t>0.0009</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>0.2478</t>
+          <t>0.0013</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>0.0004</t>
+          <t>0.6980</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>0.7303</t>
+          <t>0.0001</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>0.0003</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>0.0022</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>1.3636</t>
+          <t>0.0001</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>0.4558</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>0.4041</t>
-        </is>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>0.4446</t>
-        </is>
-      </c>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>0.2886</t>
-        </is>
-      </c>
-      <c r="N102" t="inlineStr">
-        <is>
-          <t>1.2359</t>
-        </is>
-      </c>
-      <c r="O102" t="inlineStr">
-        <is>
-          <t>0.5820</t>
-        </is>
-      </c>
-      <c r="P102" t="inlineStr">
-        <is>
-          <t>0.4482</t>
-        </is>
-      </c>
-      <c r="Q102" t="inlineStr">
-        <is>
-          <t>0.3658</t>
-        </is>
-      </c>
-      <c r="R102" t="inlineStr">
-        <is>
-          <t>3.7249</t>
-        </is>
-      </c>
-      <c r="S102" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
-      </c>
-      <c r="T102" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
-      </c>
-      <c r="U102" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
-      </c>
-      <c r="V102" t="inlineStr">
-        <is>
-          <t>0.0743</t>
-        </is>
-      </c>
-      <c r="W102" t="inlineStr">
-        <is>
-          <t>0.1092</t>
-        </is>
-      </c>
-      <c r="X102" t="inlineStr">
-        <is>
-          <t>0.0462</t>
-        </is>
-      </c>
-      <c r="Y102" t="inlineStr">
-        <is>
-          <t>0.1253</t>
-        </is>
-      </c>
-      <c r="Z102" t="inlineStr">
-        <is>
-          <t>0.0366</t>
-        </is>
-      </c>
-      <c r="AA102" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
-      </c>
-      <c r="AB102" t="inlineStr">
-        <is>
-          <t>0.0007</t>
-        </is>
-      </c>
-      <c r="AC102" t="inlineStr">
-        <is>
-          <t>0.1153</t>
-        </is>
-      </c>
-      <c r="AD102" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
-      </c>
-      <c r="AE102" t="inlineStr">
-        <is>
-          <t>0.0255</t>
-        </is>
-      </c>
-      <c r="AF102" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
-      </c>
-      <c r="AG102" t="inlineStr">
-        <is>
-          <t>0.0000</t>
+          <t>0.6387</t>
         </is>
       </c>
     </row>
@@ -11365,160 +16173,50 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>7/32 (21.9%)</t>
+          <t>30/32 (93.8%)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>16/32 (50.0%)</t>
+          <t>2/32 (6.2%)</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>6/32 (18.8%)</t>
+          <t>2/32 (6.2%)</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>0/32 (0.0%)</t>
+          <t>22/32 (68.8%)</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>16/32 (50.0%)</t>
+          <t>2/32 (6.2%)</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>0/32 (0.0%)</t>
+          <t>1/32 (3.1%)</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>0/32 (0.0%)</t>
+          <t>2/32 (6.2%)</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>14/32 (43.8%)</t>
+          <t>1/32 (3.1%)</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>8/32 (25.0%)</t>
+          <t>1/32 (3.1%)</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
-        <is>
-          <t>12/32 (37.5%)</t>
-        </is>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>8/32 (25.0%)</t>
-        </is>
-      </c>
-      <c r="M103" t="inlineStr">
-        <is>
-          <t>13/32 (40.6%)</t>
-        </is>
-      </c>
-      <c r="N103" t="inlineStr">
-        <is>
-          <t>6/32 (18.8%)</t>
-        </is>
-      </c>
-      <c r="O103" t="inlineStr">
-        <is>
-          <t>6/32 (18.8%)</t>
-        </is>
-      </c>
-      <c r="P103" t="inlineStr">
-        <is>
-          <t>16/32 (50.0%)</t>
-        </is>
-      </c>
-      <c r="Q103" t="inlineStr">
-        <is>
-          <t>8/32 (25.0%)</t>
-        </is>
-      </c>
-      <c r="R103" t="inlineStr">
-        <is>
-          <t>26/32 (81.2%)</t>
-        </is>
-      </c>
-      <c r="S103" t="inlineStr">
-        <is>
-          <t>1/32 (3.1%)</t>
-        </is>
-      </c>
-      <c r="T103" t="inlineStr">
-        <is>
-          <t>0/32 (0.0%)</t>
-        </is>
-      </c>
-      <c r="U103" t="inlineStr">
-        <is>
-          <t>0/32 (0.0%)</t>
-        </is>
-      </c>
-      <c r="V103" t="inlineStr">
-        <is>
-          <t>8/32 (25.0%)</t>
-        </is>
-      </c>
-      <c r="W103" t="inlineStr">
-        <is>
-          <t>12/32 (37.5%)</t>
-        </is>
-      </c>
-      <c r="X103" t="inlineStr">
-        <is>
-          <t>11/32 (34.4%)</t>
-        </is>
-      </c>
-      <c r="Y103" t="inlineStr">
-        <is>
-          <t>14/32 (43.8%)</t>
-        </is>
-      </c>
-      <c r="Z103" t="inlineStr">
-        <is>
-          <t>6/32 (18.8%)</t>
-        </is>
-      </c>
-      <c r="AA103" t="inlineStr">
-        <is>
-          <t>1/32 (3.1%)</t>
-        </is>
-      </c>
-      <c r="AB103" t="inlineStr">
-        <is>
-          <t>4/32 (12.5%)</t>
-        </is>
-      </c>
-      <c r="AC103" t="inlineStr">
-        <is>
-          <t>8/32 (25.0%)</t>
-        </is>
-      </c>
-      <c r="AD103" t="inlineStr">
-        <is>
-          <t>0/32 (0.0%)</t>
-        </is>
-      </c>
-      <c r="AE103" t="inlineStr">
-        <is>
-          <t>7/32 (21.9%)</t>
-        </is>
-      </c>
-      <c r="AF103" t="inlineStr">
-        <is>
-          <t>0/32 (0.0%)</t>
-        </is>
-      </c>
-      <c r="AG103" t="inlineStr">
         <is>
           <t>0/32 (0.0%)</t>
         </is>
@@ -11532,160 +16230,50 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>0.0181</t>
+          <t>2.9440</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>0.5326</t>
+          <t>0.0008</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>0.0059</t>
+          <t>0.0005</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.5084</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>0.2684</t>
+          <t>0.0005</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.0006</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.0007</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>0.1728</t>
+          <t>0.0006</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>0.0474</t>
+          <t>0.0007</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
-        <is>
-          <t>0.0431</t>
-        </is>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>0.0553</t>
-        </is>
-      </c>
-      <c r="M104" t="inlineStr">
-        <is>
-          <t>0.0304</t>
-        </is>
-      </c>
-      <c r="N104" t="inlineStr">
-        <is>
-          <t>0.1555</t>
-        </is>
-      </c>
-      <c r="O104" t="inlineStr">
-        <is>
-          <t>0.0278</t>
-        </is>
-      </c>
-      <c r="P104" t="inlineStr">
-        <is>
-          <t>0.0463</t>
-        </is>
-      </c>
-      <c r="Q104" t="inlineStr">
-        <is>
-          <t>0.0491</t>
-        </is>
-      </c>
-      <c r="R104" t="inlineStr">
-        <is>
-          <t>5.3619</t>
-        </is>
-      </c>
-      <c r="S104" t="inlineStr">
-        <is>
-          <t>0.0008</t>
-        </is>
-      </c>
-      <c r="T104" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
-      </c>
-      <c r="U104" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
-      </c>
-      <c r="V104" t="inlineStr">
-        <is>
-          <t>0.2834</t>
-        </is>
-      </c>
-      <c r="W104" t="inlineStr">
-        <is>
-          <t>0.1405</t>
-        </is>
-      </c>
-      <c r="X104" t="inlineStr">
-        <is>
-          <t>1.6274</t>
-        </is>
-      </c>
-      <c r="Y104" t="inlineStr">
-        <is>
-          <t>0.1243</t>
-        </is>
-      </c>
-      <c r="Z104" t="inlineStr">
-        <is>
-          <t>0.0369</t>
-        </is>
-      </c>
-      <c r="AA104" t="inlineStr">
-        <is>
-          <t>0.0005</t>
-        </is>
-      </c>
-      <c r="AB104" t="inlineStr">
-        <is>
-          <t>0.0128</t>
-        </is>
-      </c>
-      <c r="AC104" t="inlineStr">
-        <is>
-          <t>0.8370</t>
-        </is>
-      </c>
-      <c r="AD104" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
-      </c>
-      <c r="AE104" t="inlineStr">
-        <is>
-          <t>0.0225</t>
-        </is>
-      </c>
-      <c r="AF104" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
-      </c>
-      <c r="AG104" t="inlineStr">
         <is>
           <t>0.0000</t>
         </is>
@@ -11699,162 +16287,52 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>13/21 (61.9%)</t>
+          <t>17/21 (81.0%)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>5/21 (23.8%)</t>
+          <t>0/21 (0.0%)</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
+          <t>0/21 (0.0%)</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>7/21 (33.3%)</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>0/21 (0.0%)</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
           <t>1/21 (4.8%)</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="H105" t="inlineStr">
         <is>
           <t>0/21 (0.0%)</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>6/21 (28.6%)</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr">
+      <c r="I105" t="inlineStr">
         <is>
           <t>0/21 (0.0%)</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
+      <c r="J105" t="inlineStr">
         <is>
           <t>0/21 (0.0%)</t>
         </is>
       </c>
-      <c r="I105" t="inlineStr">
-        <is>
-          <t>12/21 (57.1%)</t>
-        </is>
-      </c>
-      <c r="J105" t="inlineStr">
-        <is>
-          <t>4/21 (19.0%)</t>
-        </is>
-      </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>10/21 (47.6%)</t>
-        </is>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>3/21 (14.3%)</t>
-        </is>
-      </c>
-      <c r="M105" t="inlineStr">
-        <is>
-          <t>7/21 (33.3%)</t>
-        </is>
-      </c>
-      <c r="N105" t="inlineStr">
-        <is>
-          <t>6/21 (28.6%)</t>
-        </is>
-      </c>
-      <c r="O105" t="inlineStr">
-        <is>
-          <t>4/21 (19.0%)</t>
-        </is>
-      </c>
-      <c r="P105" t="inlineStr">
-        <is>
-          <t>13/21 (61.9%)</t>
-        </is>
-      </c>
-      <c r="Q105" t="inlineStr">
-        <is>
-          <t>4/21 (19.0%)</t>
-        </is>
-      </c>
-      <c r="R105" t="inlineStr">
-        <is>
-          <t>18/21 (85.7%)</t>
-        </is>
-      </c>
-      <c r="S105" t="inlineStr">
-        <is>
-          <t>6/21 (28.6%)</t>
-        </is>
-      </c>
-      <c r="T105" t="inlineStr">
-        <is>
-          <t>3/21 (14.3%)</t>
-        </is>
-      </c>
-      <c r="U105" t="inlineStr">
-        <is>
-          <t>3/21 (14.3%)</t>
-        </is>
-      </c>
-      <c r="V105" t="inlineStr">
-        <is>
-          <t>11/21 (52.4%)</t>
-        </is>
-      </c>
-      <c r="W105" t="inlineStr">
-        <is>
-          <t>13/21 (61.9%)</t>
-        </is>
-      </c>
-      <c r="X105" t="inlineStr">
-        <is>
-          <t>13/21 (61.9%)</t>
-        </is>
-      </c>
-      <c r="Y105" t="inlineStr">
-        <is>
-          <t>13/21 (61.9%)</t>
-        </is>
-      </c>
-      <c r="Z105" t="inlineStr">
-        <is>
-          <t>9/21 (42.9%)</t>
-        </is>
-      </c>
-      <c r="AA105" t="inlineStr">
-        <is>
-          <t>5/21 (23.8%)</t>
-        </is>
-      </c>
-      <c r="AB105" t="inlineStr">
-        <is>
-          <t>6/21 (28.6%)</t>
-        </is>
-      </c>
-      <c r="AC105" t="inlineStr">
-        <is>
-          <t>9/21 (42.9%)</t>
-        </is>
-      </c>
-      <c r="AD105" t="inlineStr">
-        <is>
-          <t>4/21 (19.0%)</t>
-        </is>
-      </c>
-      <c r="AE105" t="inlineStr">
-        <is>
-          <t>9/21 (42.9%)</t>
-        </is>
-      </c>
-      <c r="AF105" t="inlineStr">
-        <is>
-          <t>2/21 (9.5%)</t>
-        </is>
-      </c>
-      <c r="AG105" t="inlineStr">
-        <is>
-          <t>2/21 (9.5%)</t>
+          <t>1/21 (4.8%)</t>
         </is>
       </c>
     </row>
@@ -11866,32 +16344,32 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>0.0518</t>
+          <t>5.8466</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>0.0317</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>0.0010</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.1037</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>0.1097</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.0001</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -11901,127 +16379,1331 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>0.0762</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>0.0294</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>0.2259</t>
-        </is>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>0.0457</t>
-        </is>
-      </c>
-      <c r="M106" t="inlineStr">
-        <is>
-          <t>0.0131</t>
-        </is>
-      </c>
-      <c r="N106" t="inlineStr">
-        <is>
-          <t>0.0098</t>
-        </is>
-      </c>
-      <c r="O106" t="inlineStr">
-        <is>
-          <t>0.0418</t>
-        </is>
-      </c>
-      <c r="P106" t="inlineStr">
-        <is>
-          <t>0.1689</t>
-        </is>
-      </c>
-      <c r="Q106" t="inlineStr">
-        <is>
-          <t>0.0073</t>
-        </is>
-      </c>
-      <c r="R106" t="inlineStr">
-        <is>
-          <t>6.9495</t>
-        </is>
-      </c>
-      <c r="S106" t="inlineStr">
-        <is>
-          <t>0.0169</t>
-        </is>
-      </c>
-      <c r="T106" t="inlineStr">
-        <is>
-          <t>0.0019</t>
-        </is>
-      </c>
-      <c r="U106" t="inlineStr">
+          <t>4.1645</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Dataset: high_loadings</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="B110" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="C110" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="D110" s="1" t="n">
+        <v>342</v>
+      </c>
+      <c r="E110" s="1" t="n">
+        <v>408</v>
+      </c>
+      <c r="F110" s="1" t="n">
+        <v>494</v>
+      </c>
+      <c r="G110" s="1" t="n">
+        <v>581</v>
+      </c>
+      <c r="H110" s="1" t="n">
+        <v>606</v>
+      </c>
+      <c r="I110" s="1" t="n">
+        <v>625</v>
+      </c>
+      <c r="J110" s="1" t="n">
+        <v>712</v>
+      </c>
+      <c r="K110" s="1" t="n">
+        <v>871</v>
+      </c>
+      <c r="L110" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="M110" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="N110" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="O110" s="1" t="n">
+        <v>351</v>
+      </c>
+      <c r="P110" s="1" t="n">
+        <v>354</v>
+      </c>
+      <c r="Q110" s="1" t="n">
+        <v>565</v>
+      </c>
+      <c r="R110" s="1" t="n">
+        <v>583</v>
+      </c>
+      <c r="S110" s="1" t="n">
+        <v>649</v>
+      </c>
+      <c r="T110" s="1" t="n">
+        <v>680</v>
+      </c>
+      <c r="U110" s="1" t="n">
+        <v>864</v>
+      </c>
+      <c r="V110" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="W110" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="X110" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="Y110" s="1" t="n">
+        <v>334</v>
+      </c>
+      <c r="Z110" s="1" t="n">
+        <v>471</v>
+      </c>
+      <c r="AA110" s="1" t="n">
+        <v>497</v>
+      </c>
+      <c r="AB110" s="1" t="n">
+        <v>512</v>
+      </c>
+      <c r="AC110" s="1" t="n">
+        <v>541</v>
+      </c>
+      <c r="AD110" s="1" t="n">
+        <v>549</v>
+      </c>
+      <c r="AE110" s="1" t="n">
+        <v>584</v>
+      </c>
+      <c r="AF110" s="1" t="n">
+        <v>678</v>
+      </c>
+      <c r="AG110" s="1" t="n">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Predominant Category</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Cat 1</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Cat 1</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Cat 1</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Cat 1</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Cat 1</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Cat 1</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Cat 1</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>Cat 1</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>Cat 1</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>Cat 1</t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>Cat 2</t>
+        </is>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>Cat 2</t>
+        </is>
+      </c>
+      <c r="N111" t="inlineStr">
+        <is>
+          <t>Cat 2</t>
+        </is>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>Cat 2</t>
+        </is>
+      </c>
+      <c r="P111" t="inlineStr">
+        <is>
+          <t>Cat 2</t>
+        </is>
+      </c>
+      <c r="Q111" t="inlineStr">
+        <is>
+          <t>Cat 2</t>
+        </is>
+      </c>
+      <c r="R111" t="inlineStr">
+        <is>
+          <t>Cat 2</t>
+        </is>
+      </c>
+      <c r="S111" t="inlineStr">
+        <is>
+          <t>Cat 2</t>
+        </is>
+      </c>
+      <c r="T111" t="inlineStr">
+        <is>
+          <t>Cat 2</t>
+        </is>
+      </c>
+      <c r="U111" t="inlineStr">
+        <is>
+          <t>Cat 2</t>
+        </is>
+      </c>
+      <c r="V111" t="inlineStr">
+        <is>
+          <t>Cat 3</t>
+        </is>
+      </c>
+      <c r="W111" t="inlineStr">
+        <is>
+          <t>Cat 3</t>
+        </is>
+      </c>
+      <c r="X111" t="inlineStr">
+        <is>
+          <t>Cat 3</t>
+        </is>
+      </c>
+      <c r="Y111" t="inlineStr">
+        <is>
+          <t>Cat 3</t>
+        </is>
+      </c>
+      <c r="Z111" t="inlineStr">
+        <is>
+          <t>Cat 3</t>
+        </is>
+      </c>
+      <c r="AA111" t="inlineStr">
+        <is>
+          <t>Cat 3</t>
+        </is>
+      </c>
+      <c r="AB111" t="inlineStr">
+        <is>
+          <t>Cat 3</t>
+        </is>
+      </c>
+      <c r="AC111" t="inlineStr">
+        <is>
+          <t>Cat 3</t>
+        </is>
+      </c>
+      <c r="AD111" t="inlineStr">
+        <is>
+          <t>Cat 3</t>
+        </is>
+      </c>
+      <c r="AE111" t="inlineStr">
+        <is>
+          <t>Cat 3</t>
+        </is>
+      </c>
+      <c r="AF111" t="inlineStr">
+        <is>
+          <t>Cat 3</t>
+        </is>
+      </c>
+      <c r="AG111" t="inlineStr">
+        <is>
+          <t>Cat 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr"/>
+      <c r="B112" t="inlineStr"/>
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="inlineStr"/>
+      <c r="G112" t="inlineStr"/>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="inlineStr"/>
+      <c r="O112" t="inlineStr"/>
+      <c r="P112" t="inlineStr"/>
+      <c r="Q112" t="inlineStr"/>
+      <c r="R112" t="inlineStr"/>
+      <c r="S112" t="inlineStr"/>
+      <c r="T112" t="inlineStr"/>
+      <c r="U112" t="inlineStr"/>
+      <c r="V112" t="inlineStr"/>
+      <c r="W112" t="inlineStr"/>
+      <c r="X112" t="inlineStr"/>
+      <c r="Y112" t="inlineStr"/>
+      <c r="Z112" t="inlineStr"/>
+      <c r="AA112" t="inlineStr"/>
+      <c r="AB112" t="inlineStr"/>
+      <c r="AC112" t="inlineStr"/>
+      <c r="AD112" t="inlineStr"/>
+      <c r="AE112" t="inlineStr"/>
+      <c r="AF112" t="inlineStr"/>
+      <c r="AG112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Frequency Cat 1</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>1/17 (5.9%)</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>1/17 (5.9%)</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>1/17 (5.9%)</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>10/17 (58.8%)</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>1/17 (5.9%)</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>7/17 (41.2%)</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>7/17 (41.2%)</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>6/17 (35.3%)</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>5/17 (29.4%)</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>7/17 (41.2%)</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>4/17 (23.5%)</t>
+        </is>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>14/17 (82.4%)</t>
+        </is>
+      </c>
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>7/17 (41.2%)</t>
+        </is>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>8/17 (47.1%)</t>
+        </is>
+      </c>
+      <c r="P113" t="inlineStr">
+        <is>
+          <t>7/17 (41.2%)</t>
+        </is>
+      </c>
+      <c r="Q113" t="inlineStr">
+        <is>
+          <t>1/17 (5.9%)</t>
+        </is>
+      </c>
+      <c r="R113" t="inlineStr">
+        <is>
+          <t>1/17 (5.9%)</t>
+        </is>
+      </c>
+      <c r="S113" t="inlineStr">
+        <is>
+          <t>1/17 (5.9%)</t>
+        </is>
+      </c>
+      <c r="T113" t="inlineStr">
+        <is>
+          <t>0/17 (0.0%)</t>
+        </is>
+      </c>
+      <c r="U113" t="inlineStr">
+        <is>
+          <t>8/17 (47.1%)</t>
+        </is>
+      </c>
+      <c r="V113" t="inlineStr">
+        <is>
+          <t>4/17 (23.5%)</t>
+        </is>
+      </c>
+      <c r="W113" t="inlineStr">
+        <is>
+          <t>1/17 (5.9%)</t>
+        </is>
+      </c>
+      <c r="X113" t="inlineStr">
+        <is>
+          <t>9/17 (52.9%)</t>
+        </is>
+      </c>
+      <c r="Y113" t="inlineStr">
+        <is>
+          <t>1/17 (5.9%)</t>
+        </is>
+      </c>
+      <c r="Z113" t="inlineStr">
+        <is>
+          <t>6/17 (35.3%)</t>
+        </is>
+      </c>
+      <c r="AA113" t="inlineStr">
+        <is>
+          <t>1/17 (5.9%)</t>
+        </is>
+      </c>
+      <c r="AB113" t="inlineStr">
+        <is>
+          <t>3/17 (17.6%)</t>
+        </is>
+      </c>
+      <c r="AC113" t="inlineStr">
+        <is>
+          <t>1/17 (5.9%)</t>
+        </is>
+      </c>
+      <c r="AD113" t="inlineStr">
+        <is>
+          <t>8/17 (47.1%)</t>
+        </is>
+      </c>
+      <c r="AE113" t="inlineStr">
+        <is>
+          <t>6/17 (35.3%)</t>
+        </is>
+      </c>
+      <c r="AF113" t="inlineStr">
+        <is>
+          <t>5/17 (29.4%)</t>
+        </is>
+      </c>
+      <c r="AG113" t="inlineStr">
+        <is>
+          <t>4/17 (23.5%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Abundance Mean Cat 1</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
         <is>
           <t>0.0009</t>
         </is>
       </c>
-      <c r="V106" t="inlineStr">
-        <is>
-          <t>1.5101</t>
-        </is>
-      </c>
-      <c r="W106" t="inlineStr">
-        <is>
-          <t>1.1856</t>
-        </is>
-      </c>
-      <c r="X106" t="inlineStr">
-        <is>
-          <t>2.7596</t>
-        </is>
-      </c>
-      <c r="Y106" t="inlineStr">
-        <is>
-          <t>0.4315</t>
-        </is>
-      </c>
-      <c r="Z106" t="inlineStr">
-        <is>
-          <t>0.4448</t>
-        </is>
-      </c>
-      <c r="AA106" t="inlineStr">
-        <is>
-          <t>0.0132</t>
-        </is>
-      </c>
-      <c r="AB106" t="inlineStr">
-        <is>
-          <t>0.0085</t>
-        </is>
-      </c>
-      <c r="AC106" t="inlineStr">
-        <is>
-          <t>0.8108</t>
-        </is>
-      </c>
-      <c r="AD106" t="inlineStr">
-        <is>
-          <t>0.4952</t>
-        </is>
-      </c>
-      <c r="AE106" t="inlineStr">
-        <is>
-          <t>0.2507</t>
-        </is>
-      </c>
-      <c r="AF106" t="inlineStr">
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>0.3942</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>1.2550</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>0.4617</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>0.2330</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>0.6698</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>0.2038</t>
+        </is>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>0.2014</t>
+        </is>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>4.3419</t>
+        </is>
+      </c>
+      <c r="N114" t="inlineStr">
+        <is>
+          <t>0.1253</t>
+        </is>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>0.3329</t>
+        </is>
+      </c>
+      <c r="P114" t="inlineStr">
+        <is>
+          <t>0.6276</t>
+        </is>
+      </c>
+      <c r="Q114" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="R114" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="S114" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="T114" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="U114" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="V114" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="W114" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="X114" t="inlineStr">
+        <is>
+          <t>0.1647</t>
+        </is>
+      </c>
+      <c r="Y114" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="Z114" t="inlineStr">
+        <is>
+          <t>0.1085</t>
+        </is>
+      </c>
+      <c r="AA114" t="inlineStr">
         <is>
           <t>0.0011</t>
         </is>
       </c>
-      <c r="AG106" t="inlineStr">
-        <is>
-          <t>0.0011</t>
+      <c r="AB114" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="AC114" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="AD114" t="inlineStr">
+        <is>
+          <t>0.2137</t>
+        </is>
+      </c>
+      <c r="AE114" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="AF114" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="AG114" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Frequency Cat 2</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>2/32 (6.2%)</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>2/32 (6.2%)</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0/32 (0.0%)</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>16/32 (50.0%)</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>1/32 (3.1%)</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>7/32 (21.9%)</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>12/32 (37.5%)</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>7/32 (21.9%)</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>7/32 (21.9%)</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>5/32 (15.6%)</t>
+        </is>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>18/32 (56.2%)</t>
+        </is>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>29/32 (90.6%)</t>
+        </is>
+      </c>
+      <c r="N115" t="inlineStr">
+        <is>
+          <t>10/32 (31.2%)</t>
+        </is>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>14/32 (43.8%)</t>
+        </is>
+      </c>
+      <c r="P115" t="inlineStr">
+        <is>
+          <t>10/32 (31.2%)</t>
+        </is>
+      </c>
+      <c r="Q115" t="inlineStr">
+        <is>
+          <t>12/32 (37.5%)</t>
+        </is>
+      </c>
+      <c r="R115" t="inlineStr">
+        <is>
+          <t>1/32 (3.1%)</t>
+        </is>
+      </c>
+      <c r="S115" t="inlineStr">
+        <is>
+          <t>1/32 (3.1%)</t>
+        </is>
+      </c>
+      <c r="T115" t="inlineStr">
+        <is>
+          <t>2/32 (6.2%)</t>
+        </is>
+      </c>
+      <c r="U115" t="inlineStr">
+        <is>
+          <t>19/32 (59.4%)</t>
+        </is>
+      </c>
+      <c r="V115" t="inlineStr">
+        <is>
+          <t>14/32 (43.8%)</t>
+        </is>
+      </c>
+      <c r="W115" t="inlineStr">
+        <is>
+          <t>4/32 (12.5%)</t>
+        </is>
+      </c>
+      <c r="X115" t="inlineStr">
+        <is>
+          <t>14/32 (43.8%)</t>
+        </is>
+      </c>
+      <c r="Y115" t="inlineStr">
+        <is>
+          <t>9/32 (28.1%)</t>
+        </is>
+      </c>
+      <c r="Z115" t="inlineStr">
+        <is>
+          <t>6/32 (18.8%)</t>
+        </is>
+      </c>
+      <c r="AA115" t="inlineStr">
+        <is>
+          <t>4/32 (12.5%)</t>
+        </is>
+      </c>
+      <c r="AB115" t="inlineStr">
+        <is>
+          <t>5/32 (15.6%)</t>
+        </is>
+      </c>
+      <c r="AC115" t="inlineStr">
+        <is>
+          <t>1/32 (3.1%)</t>
+        </is>
+      </c>
+      <c r="AD115" t="inlineStr">
+        <is>
+          <t>17/32 (53.1%)</t>
+        </is>
+      </c>
+      <c r="AE115" t="inlineStr">
+        <is>
+          <t>7/32 (21.9%)</t>
+        </is>
+      </c>
+      <c r="AF115" t="inlineStr">
+        <is>
+          <t>13/32 (40.6%)</t>
+        </is>
+      </c>
+      <c r="AG115" t="inlineStr">
+        <is>
+          <t>6/32 (18.8%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Abundance Mean Cat 2</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>0.1566</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.1522</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>0.1152</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>0.1410</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>0.4130</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>0.1230</t>
+        </is>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>0.5628</t>
+        </is>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>6.4791</t>
+        </is>
+      </c>
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>0.7668</t>
+        </is>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>0.4137</t>
+        </is>
+      </c>
+      <c r="P116" t="inlineStr">
+        <is>
+          <t>2.3804</t>
+        </is>
+      </c>
+      <c r="Q116" t="inlineStr">
+        <is>
+          <t>0.1868</t>
+        </is>
+      </c>
+      <c r="R116" t="inlineStr">
+        <is>
+          <t>0.3146</t>
+        </is>
+      </c>
+      <c r="S116" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="T116" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="U116" t="inlineStr">
+        <is>
+          <t>0.3108</t>
+        </is>
+      </c>
+      <c r="V116" t="inlineStr">
+        <is>
+          <t>0.1302</t>
+        </is>
+      </c>
+      <c r="W116" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="X116" t="inlineStr">
+        <is>
+          <t>0.2900</t>
+        </is>
+      </c>
+      <c r="Y116" t="inlineStr">
+        <is>
+          <t>0.0613</t>
+        </is>
+      </c>
+      <c r="Z116" t="inlineStr">
+        <is>
+          <t>0.0822</t>
+        </is>
+      </c>
+      <c r="AA116" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="AB116" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="AC116" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="AD116" t="inlineStr">
+        <is>
+          <t>0.4112</t>
+        </is>
+      </c>
+      <c r="AE116" t="inlineStr">
+        <is>
+          <t>0.0947</t>
+        </is>
+      </c>
+      <c r="AF116" t="inlineStr">
+        <is>
+          <t>0.0639</t>
+        </is>
+      </c>
+      <c r="AG116" t="inlineStr">
+        <is>
+          <t>0.0895</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Frequency Cat 3</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>0/21 (0.0%)</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>0/21 (0.0%)</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>1/21 (4.8%)</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>9/21 (42.9%)</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>0/21 (0.0%)</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>6/21 (28.6%)</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>8/21 (38.1%)</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>8/21 (38.1%)</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>5/21 (23.8%)</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>6/21 (28.6%)</t>
+        </is>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>10/21 (47.6%)</t>
+        </is>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>18/21 (85.7%)</t>
+        </is>
+      </c>
+      <c r="N117" t="inlineStr">
+        <is>
+          <t>6/21 (28.6%)</t>
+        </is>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>11/21 (52.4%)</t>
+        </is>
+      </c>
+      <c r="P117" t="inlineStr">
+        <is>
+          <t>11/21 (52.4%)</t>
+        </is>
+      </c>
+      <c r="Q117" t="inlineStr">
+        <is>
+          <t>8/21 (38.1%)</t>
+        </is>
+      </c>
+      <c r="R117" t="inlineStr">
+        <is>
+          <t>2/21 (9.5%)</t>
+        </is>
+      </c>
+      <c r="S117" t="inlineStr">
+        <is>
+          <t>0/21 (0.0%)</t>
+        </is>
+      </c>
+      <c r="T117" t="inlineStr">
+        <is>
+          <t>0/21 (0.0%)</t>
+        </is>
+      </c>
+      <c r="U117" t="inlineStr">
+        <is>
+          <t>13/21 (61.9%)</t>
+        </is>
+      </c>
+      <c r="V117" t="inlineStr">
+        <is>
+          <t>11/21 (52.4%)</t>
+        </is>
+      </c>
+      <c r="W117" t="inlineStr">
+        <is>
+          <t>2/21 (9.5%)</t>
+        </is>
+      </c>
+      <c r="X117" t="inlineStr">
+        <is>
+          <t>8/21 (38.1%)</t>
+        </is>
+      </c>
+      <c r="Y117" t="inlineStr">
+        <is>
+          <t>5/21 (23.8%)</t>
+        </is>
+      </c>
+      <c r="Z117" t="inlineStr">
+        <is>
+          <t>6/21 (28.6%)</t>
+        </is>
+      </c>
+      <c r="AA117" t="inlineStr">
+        <is>
+          <t>1/21 (4.8%)</t>
+        </is>
+      </c>
+      <c r="AB117" t="inlineStr">
+        <is>
+          <t>3/21 (14.3%)</t>
+        </is>
+      </c>
+      <c r="AC117" t="inlineStr">
+        <is>
+          <t>1/21 (4.8%)</t>
+        </is>
+      </c>
+      <c r="AD117" t="inlineStr">
+        <is>
+          <t>15/21 (71.4%)</t>
+        </is>
+      </c>
+      <c r="AE117" t="inlineStr">
+        <is>
+          <t>6/21 (28.6%)</t>
+        </is>
+      </c>
+      <c r="AF117" t="inlineStr">
+        <is>
+          <t>9/21 (42.9%)</t>
+        </is>
+      </c>
+      <c r="AG117" t="inlineStr">
+        <is>
+          <t>9/21 (42.9%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Abundance Mean Cat 3</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>0.1646</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.9316</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>0.0693</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>0.0865</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>0.0756</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>0.5517</t>
+        </is>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>4.7475</t>
+        </is>
+      </c>
+      <c r="N118" t="inlineStr">
+        <is>
+          <t>0.7322</t>
+        </is>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>0.2100</t>
+        </is>
+      </c>
+      <c r="P118" t="inlineStr">
+        <is>
+          <t>1.1414</t>
+        </is>
+      </c>
+      <c r="Q118" t="inlineStr">
+        <is>
+          <t>0.1834</t>
+        </is>
+      </c>
+      <c r="R118" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="S118" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="T118" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="U118" t="inlineStr">
+        <is>
+          <t>0.1120</t>
+        </is>
+      </c>
+      <c r="V118" t="inlineStr">
+        <is>
+          <t>0.1112</t>
+        </is>
+      </c>
+      <c r="W118" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="X118" t="inlineStr">
+        <is>
+          <t>0.9130</t>
+        </is>
+      </c>
+      <c r="Y118" t="inlineStr">
+        <is>
+          <t>0.1121</t>
+        </is>
+      </c>
+      <c r="Z118" t="inlineStr">
+        <is>
+          <t>0.3176</t>
+        </is>
+      </c>
+      <c r="AA118" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="AB118" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="AC118" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="AD118" t="inlineStr">
+        <is>
+          <t>0.6438</t>
+        </is>
+      </c>
+      <c r="AE118" t="inlineStr">
+        <is>
+          <t>0.1348</t>
+        </is>
+      </c>
+      <c r="AF118" t="inlineStr">
+        <is>
+          <t>0.1871</t>
+        </is>
+      </c>
+      <c r="AG118" t="inlineStr">
+        <is>
+          <t>0.4174</t>
         </is>
       </c>
     </row>

--- a/data/feature_analysis_results.xlsx
+++ b/data/feature_analysis_results.xlsx
@@ -8460,82 +8460,82 @@
         </is>
       </c>
       <c r="B62" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="C62" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="C62" s="1" t="n">
+      <c r="D62" s="1" t="n">
+        <v>334</v>
+      </c>
+      <c r="E62" s="1" t="n">
+        <v>342</v>
+      </c>
+      <c r="F62" s="1" t="n">
+        <v>351</v>
+      </c>
+      <c r="G62" s="1" t="n">
+        <v>375</v>
+      </c>
+      <c r="H62" s="1" t="n">
+        <v>410</v>
+      </c>
+      <c r="I62" s="1" t="n">
+        <v>494</v>
+      </c>
+      <c r="J62" s="1" t="n">
+        <v>541</v>
+      </c>
+      <c r="K62" s="1" t="n">
+        <v>549</v>
+      </c>
+      <c r="L62" s="1" t="n">
+        <v>565</v>
+      </c>
+      <c r="M62" s="1" t="n">
+        <v>625</v>
+      </c>
+      <c r="N62" s="1" t="n">
+        <v>678</v>
+      </c>
+      <c r="O62" s="1" t="n">
+        <v>712</v>
+      </c>
+      <c r="P62" s="1" t="n">
+        <v>725</v>
+      </c>
+      <c r="Q62" s="1" t="n">
+        <v>799</v>
+      </c>
+      <c r="R62" s="1" t="n">
+        <v>864</v>
+      </c>
+      <c r="S62" s="1" t="n">
+        <v>871</v>
+      </c>
+      <c r="T62" s="1" t="n">
+        <v>863</v>
+      </c>
+      <c r="U62" s="1" t="n">
         <v>201</v>
       </c>
-      <c r="D62" s="1" t="n">
+      <c r="V62" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="W62" s="1" t="n">
         <v>229</v>
       </c>
-      <c r="E62" s="1" t="n">
+      <c r="X62" s="1" t="n">
+        <v>408</v>
+      </c>
+      <c r="Y62" s="1" t="n">
         <v>471</v>
       </c>
-      <c r="F62" s="1" t="n">
+      <c r="Z62" s="1" t="n">
+        <v>526</v>
+      </c>
+      <c r="AA62" s="1" t="n">
         <v>584</v>
-      </c>
-      <c r="G62" s="1" t="n">
-        <v>863</v>
-      </c>
-      <c r="H62" s="1" t="n">
-        <v>864</v>
-      </c>
-      <c r="I62" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="J62" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="K62" s="1" t="n">
-        <v>351</v>
-      </c>
-      <c r="L62" s="1" t="n">
-        <v>375</v>
-      </c>
-      <c r="M62" s="1" t="n">
-        <v>541</v>
-      </c>
-      <c r="N62" s="1" t="n">
-        <v>565</v>
-      </c>
-      <c r="O62" s="1" t="n">
-        <v>725</v>
-      </c>
-      <c r="P62" s="1" t="n">
-        <v>334</v>
-      </c>
-      <c r="Q62" s="1" t="n">
-        <v>342</v>
-      </c>
-      <c r="R62" s="1" t="n">
-        <v>408</v>
-      </c>
-      <c r="S62" s="1" t="n">
-        <v>410</v>
-      </c>
-      <c r="T62" s="1" t="n">
-        <v>494</v>
-      </c>
-      <c r="U62" s="1" t="n">
-        <v>526</v>
-      </c>
-      <c r="V62" s="1" t="n">
-        <v>549</v>
-      </c>
-      <c r="W62" s="1" t="n">
-        <v>625</v>
-      </c>
-      <c r="X62" s="1" t="n">
-        <v>678</v>
-      </c>
-      <c r="Y62" s="1" t="n">
-        <v>712</v>
-      </c>
-      <c r="Z62" s="1" t="n">
-        <v>799</v>
-      </c>
-      <c r="AA62" s="1" t="n">
-        <v>871</v>
       </c>
     </row>
     <row r="63">
@@ -8581,62 +8581,62 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
+          <t>Cat 1</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Cat 1</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>Cat 1</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>Cat 1</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>Cat 1</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>Cat 1</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>Cat 1</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>Cat 1</t>
+        </is>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>Cat 1</t>
+        </is>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>Cat 1</t>
+        </is>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>Cat 1</t>
+        </is>
+      </c>
+      <c r="T63" t="inlineStr">
+        <is>
           <t>Cat 2</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>Cat 2</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>Cat 2</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>Cat 2</t>
-        </is>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>Cat 2</t>
-        </is>
-      </c>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>Cat 2</t>
-        </is>
-      </c>
-      <c r="O63" t="inlineStr">
-        <is>
-          <t>Cat 2</t>
-        </is>
-      </c>
-      <c r="P63" t="inlineStr">
-        <is>
-          <t>Cat 3</t>
-        </is>
-      </c>
-      <c r="Q63" t="inlineStr">
-        <is>
-          <t>Cat 3</t>
-        </is>
-      </c>
-      <c r="R63" t="inlineStr">
-        <is>
-          <t>Cat 3</t>
-        </is>
-      </c>
-      <c r="S63" t="inlineStr">
-        <is>
-          <t>Cat 3</t>
-        </is>
-      </c>
-      <c r="T63" t="inlineStr">
-        <is>
-          <t>Cat 3</t>
         </is>
       </c>
       <c r="U63" t="inlineStr">
@@ -8712,122 +8712,122 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
+          <t>9/17 (52.9%)</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>11/17 (64.7%)</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>8/17 (47.1%)</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>2/17 (11.8%)</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>11/17 (64.7%)</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>11/17 (64.7%)</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>2/17 (11.8%)</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>2/17 (11.8%)</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>3/17 (17.6%)</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>14/17 (82.4%)</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>9/17 (52.9%)</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>10/17 (58.8%)</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>7/17 (41.2%)</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>5/17 (29.4%)</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>9/17 (52.9%)</t>
+        </is>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>2/17 (11.8%)</t>
+        </is>
+      </c>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>11/17 (64.7%)</t>
+        </is>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
           <t>6/17 (35.3%)</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>2/17 (11.8%)</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>5/17 (29.4%)</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>3/17 (17.6%)</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>3/17 (17.6%)</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
+      <c r="T65" t="inlineStr">
         <is>
           <t>10/17 (58.8%)</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>3/17 (17.6%)</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>3/17 (17.6%)</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>5/17 (29.4%)</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>6/17 (35.3%)</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>3/17 (17.6%)</t>
-        </is>
-      </c>
-      <c r="M65" t="inlineStr">
+      <c r="U65" t="inlineStr">
         <is>
           <t>0/17 (0.0%)</t>
         </is>
       </c>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>2/17 (11.8%)</t>
-        </is>
-      </c>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t>3/17 (17.6%)</t>
-        </is>
-      </c>
-      <c r="P65" t="inlineStr">
-        <is>
-          <t>1/17 (5.9%)</t>
-        </is>
-      </c>
-      <c r="Q65" t="inlineStr">
+      <c r="V65" t="inlineStr">
         <is>
           <t>0/17 (0.0%)</t>
         </is>
       </c>
-      <c r="R65" t="inlineStr">
-        <is>
-          <t>6/17 (35.3%)</t>
-        </is>
-      </c>
-      <c r="S65" t="inlineStr">
+      <c r="W65" t="inlineStr">
         <is>
           <t>0/17 (0.0%)</t>
         </is>
       </c>
-      <c r="T65" t="inlineStr">
+      <c r="X65" t="inlineStr">
         <is>
           <t>0/17 (0.0%)</t>
         </is>
       </c>
-      <c r="U65" t="inlineStr">
-        <is>
-          <t>3/17 (17.6%)</t>
-        </is>
-      </c>
-      <c r="V65" t="inlineStr">
-        <is>
-          <t>3/17 (17.6%)</t>
-        </is>
-      </c>
-      <c r="W65" t="inlineStr">
-        <is>
-          <t>2/17 (11.8%)</t>
-        </is>
-      </c>
-      <c r="X65" t="inlineStr">
-        <is>
-          <t>2/17 (11.8%)</t>
-        </is>
-      </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>1/17 (5.9%)</t>
+          <t>0/17 (0.0%)</t>
         </is>
       </c>
       <c r="Z65" t="inlineStr">
@@ -8837,7 +8837,7 @@
       </c>
       <c r="AA65" t="inlineStr">
         <is>
-          <t>2/17 (11.8%)</t>
+          <t>0/17 (0.0%)</t>
         </is>
       </c>
     </row>
@@ -8849,122 +8849,122 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0.9473</t>
+          <t>0.2877</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>0.0015</t>
+          <t>0.9006</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>0.9293</t>
+          <t>0.2478</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>0.4140</t>
+          <t>0.0004</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>0.1513</t>
+          <t>0.7303</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>0.5506</t>
+          <t>0.7887</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>0.2025</t>
+          <t>0.0002</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>0.0751</t>
+          <t>0.0003</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>0.6136</t>
+          <t>0.0022</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>0.3358</t>
+          <t>1.3636</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>0.0535</t>
+          <t>0.4559</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.4446</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>0.0152</t>
+          <t>0.2886</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>0.0186</t>
+          <t>1.2359</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>0.1022</t>
+          <t>0.5820</t>
         </is>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.0002</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>0.0933</t>
+          <t>0.4482</t>
         </is>
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.3658</t>
         </is>
       </c>
       <c r="T66" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.4485</t>
         </is>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>0.0846</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>0.4425</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="W66" t="inlineStr">
         <is>
-          <t>0.0275</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="X66" t="inlineStr">
         <is>
-          <t>0.0884</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>0.0868</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="Z66" t="inlineStr">
@@ -8974,7 +8974,7 @@
       </c>
       <c r="AA66" t="inlineStr">
         <is>
-          <t>0.0259</t>
+          <t>0.0000</t>
         </is>
       </c>
     </row>
@@ -8986,124 +8986,124 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>13/32 (40.6%)</t>
+          <t>0/32 (0.0%)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
+          <t>16/32 (50.0%)</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
           <t>0/32 (0.0%)</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>0/32 (0.0%)</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>16/32 (50.0%)</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0/32 (0.0%)</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>0/32 (0.0%)</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>0/32 (0.0%)</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>0/32 (0.0%)</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>0/32 (0.0%)</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>0/32 (0.0%)</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>0/32 (0.0%)</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>0/32 (0.0%)</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>0/32 (0.0%)</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>0/32 (0.0%)</t>
+        </is>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>0/32 (0.0%)</t>
+        </is>
+      </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>0/32 (0.0%)</t>
+        </is>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>0/32 (0.0%)</t>
+        </is>
+      </c>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>19/32 (59.4%)</t>
+        </is>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>0/32 (0.0%)</t>
+        </is>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>8/32 (25.0%)</t>
+        </is>
+      </c>
+      <c r="W67" t="inlineStr">
+        <is>
+          <t>12/32 (37.5%)</t>
+        </is>
+      </c>
+      <c r="X67" t="inlineStr">
         <is>
           <t>14/32 (43.8%)</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>5/32 (15.6%)</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>5/32 (15.6%)</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>12/32 (37.5%)</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>4/32 (12.5%)</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>4/32 (12.5%)</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>11/32 (34.4%)</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>13/32 (40.6%)</t>
-        </is>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>3/32 (9.4%)</t>
-        </is>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>2/32 (6.2%)</t>
-        </is>
-      </c>
-      <c r="N67" t="inlineStr">
-        <is>
-          <t>4/32 (12.5%)</t>
-        </is>
-      </c>
-      <c r="O67" t="inlineStr">
-        <is>
-          <t>3/32 (9.4%)</t>
-        </is>
-      </c>
-      <c r="P67" t="inlineStr">
-        <is>
-          <t>3/32 (9.4%)</t>
-        </is>
-      </c>
-      <c r="Q67" t="inlineStr">
+      <c r="Y67" t="inlineStr">
         <is>
           <t>0/32 (0.0%)</t>
         </is>
       </c>
-      <c r="R67" t="inlineStr">
-        <is>
-          <t>13/32 (40.6%)</t>
-        </is>
-      </c>
-      <c r="S67" t="inlineStr">
-        <is>
-          <t>1/32 (3.1%)</t>
-        </is>
-      </c>
-      <c r="T67" t="inlineStr">
-        <is>
-          <t>1/32 (3.1%)</t>
-        </is>
-      </c>
-      <c r="U67" t="inlineStr">
-        <is>
-          <t>7/32 (21.9%)</t>
-        </is>
-      </c>
-      <c r="V67" t="inlineStr">
-        <is>
-          <t>4/32 (12.5%)</t>
-        </is>
-      </c>
-      <c r="W67" t="inlineStr">
-        <is>
-          <t>2/32 (6.2%)</t>
-        </is>
-      </c>
-      <c r="X67" t="inlineStr">
-        <is>
-          <t>1/32 (3.1%)</t>
-        </is>
-      </c>
-      <c r="Y67" t="inlineStr">
-        <is>
-          <t>1/32 (3.1%)</t>
-        </is>
-      </c>
       <c r="Z67" t="inlineStr">
         <is>
           <t>0/32 (0.0%)</t>
@@ -9111,7 +9111,7 @@
       </c>
       <c r="AA67" t="inlineStr">
         <is>
-          <t>1/32 (3.1%)</t>
+          <t>0/32 (0.0%)</t>
         </is>
       </c>
     </row>
@@ -9123,77 +9123,77 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0.2072</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.5326</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>0.3449</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>0.0641</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>0.0815</t>
+          <t>0.2684</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>0.3241</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>0.1164</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>0.1071</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>0.6076</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>0.4252</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>0.3386</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>0.0011</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>0.2176</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>0.2931</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>0.0005</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr">
@@ -9203,42 +9203,42 @@
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>0.1394</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>0.0001</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="T68" t="inlineStr">
         <is>
-          <t>0.0001</t>
+          <t>0.5028</t>
         </is>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>0.1156</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>0.1869</t>
+          <t>0.2834</t>
         </is>
       </c>
       <c r="W68" t="inlineStr">
         <is>
-          <t>0.0003</t>
+          <t>0.1405</t>
         </is>
       </c>
       <c r="X68" t="inlineStr">
         <is>
-          <t>0.0002</t>
+          <t>0.1243</t>
         </is>
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>0.0004</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="Z68" t="inlineStr">
@@ -9248,7 +9248,7 @@
       </c>
       <c r="AA68" t="inlineStr">
         <is>
-          <t>0.0001</t>
+          <t>0.0000</t>
         </is>
       </c>
     </row>
@@ -9260,132 +9260,132 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>8/21 (38.1%)</t>
+          <t>0/21 (0.0%)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>1/21 (4.8%)</t>
+          <t>0/21 (0.0%)</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>6/21 (28.6%)</t>
+          <t>0/21 (0.0%)</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>1/21 (4.8%)</t>
+          <t>0/21 (0.0%)</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>1/21 (4.8%)</t>
+          <t>0/21 (0.0%)</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>7/21 (33.3%)</t>
+          <t>0/21 (0.0%)</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>4/21 (19.0%)</t>
+          <t>0/21 (0.0%)</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>2/21 (9.5%)</t>
+          <t>0/21 (0.0%)</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
+          <t>0/21 (0.0%)</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>0/21 (0.0%)</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>0/21 (0.0%)</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>0/21 (0.0%)</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>0/21 (0.0%)</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>0/21 (0.0%)</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>0/21 (0.0%)</t>
+        </is>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>0/21 (0.0%)</t>
+        </is>
+      </c>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>0/21 (0.0%)</t>
+        </is>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>0/21 (0.0%)</t>
+        </is>
+      </c>
+      <c r="T69" t="inlineStr">
+        <is>
+          <t>0/21 (0.0%)</t>
+        </is>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
           <t>3/21 (14.3%)</t>
         </is>
       </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>8/21 (38.1%)</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>5/21 (23.8%)</t>
-        </is>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>1/21 (4.8%)</t>
-        </is>
-      </c>
-      <c r="N69" t="inlineStr">
-        <is>
-          <t>3/21 (14.3%)</t>
-        </is>
-      </c>
-      <c r="O69" t="inlineStr">
-        <is>
-          <t>3/21 (14.3%)</t>
-        </is>
-      </c>
-      <c r="P69" t="inlineStr">
-        <is>
-          <t>4/21 (19.0%)</t>
-        </is>
-      </c>
-      <c r="Q69" t="inlineStr">
-        <is>
-          <t>2/21 (9.5%)</t>
-        </is>
-      </c>
-      <c r="R69" t="inlineStr">
-        <is>
-          <t>8/21 (38.1%)</t>
-        </is>
-      </c>
-      <c r="S69" t="inlineStr">
-        <is>
-          <t>1/21 (4.8%)</t>
-        </is>
-      </c>
-      <c r="T69" t="inlineStr">
-        <is>
-          <t>1/21 (4.8%)</t>
-        </is>
-      </c>
-      <c r="U69" t="inlineStr">
-        <is>
-          <t>5/21 (23.8%)</t>
-        </is>
-      </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>7/21 (33.3%)</t>
+          <t>11/21 (52.4%)</t>
         </is>
       </c>
       <c r="W69" t="inlineStr">
         <is>
-          <t>6/21 (28.6%)</t>
+          <t>13/21 (61.9%)</t>
         </is>
       </c>
       <c r="X69" t="inlineStr">
         <is>
-          <t>4/21 (19.0%)</t>
+          <t>13/21 (61.9%)</t>
         </is>
       </c>
       <c r="Y69" t="inlineStr">
         <is>
-          <t>3/21 (14.3%)</t>
+          <t>9/21 (42.9%)</t>
         </is>
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>2/21 (9.5%)</t>
+          <t>15/21 (71.4%)</t>
         </is>
       </c>
       <c r="AA69" t="inlineStr">
         <is>
-          <t>3/21 (14.3%)</t>
+          <t>9/21 (42.9%)</t>
         </is>
       </c>
     </row>
@@ -9397,132 +9397,132 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>0.4580</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>0.0007</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>0.1219</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>0.0121</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>0.0041</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>0.1896</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>0.0215</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>0.0089</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>0.5193</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>0.0804</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>0.0791</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>0.0002</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>0.0251</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>0.0095</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>0.1171</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>0.0004</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>0.3329</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>0.0001</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="T70" t="inlineStr">
         <is>
-          <t>0.0002</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>0.2438</t>
+          <t>0.0019</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>0.4609</t>
+          <t>1.5101</t>
         </is>
       </c>
       <c r="W70" t="inlineStr">
         <is>
-          <t>0.3373</t>
+          <t>1.1856</t>
         </is>
       </c>
       <c r="X70" t="inlineStr">
         <is>
-          <t>0.1617</t>
+          <t>0.4315</t>
         </is>
       </c>
       <c r="Y70" t="inlineStr">
         <is>
-          <t>0.9296</t>
+          <t>0.4448</t>
         </is>
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>0.0002</t>
+          <t>0.4884</t>
         </is>
       </c>
       <c r="AA70" t="inlineStr">
         <is>
-          <t>0.2750</t>
+          <t>0.2507</t>
         </is>
       </c>
     </row>
@@ -15951,34 +15951,34 @@
         </is>
       </c>
       <c r="B98" s="1" t="n">
+        <v>541</v>
+      </c>
+      <c r="C98" s="1" t="n">
+        <v>549</v>
+      </c>
+      <c r="D98" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="E98" s="1" t="n">
         <v>110</v>
       </c>
-      <c r="C98" s="1" t="n">
+      <c r="F98" s="1" t="n">
         <v>201</v>
       </c>
-      <c r="D98" s="1" t="n">
-        <v>541</v>
-      </c>
-      <c r="E98" s="1" t="n">
-        <v>549</v>
-      </c>
-      <c r="F98" s="1" t="n">
+      <c r="G98" s="1" t="n">
         <v>211</v>
       </c>
-      <c r="G98" s="1" t="n">
+      <c r="H98" s="1" t="n">
         <v>578</v>
       </c>
-      <c r="H98" s="1" t="n">
+      <c r="I98" s="1" t="n">
         <v>649</v>
       </c>
-      <c r="I98" s="1" t="n">
+      <c r="J98" s="1" t="n">
         <v>680</v>
       </c>
-      <c r="J98" s="1" t="n">
+      <c r="K98" s="1" t="n">
         <v>704</v>
-      </c>
-      <c r="K98" s="1" t="n">
-        <v>238</v>
       </c>
     </row>
     <row r="99">
@@ -15999,37 +15999,37 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Cat 1</t>
+          <t>Cat 2</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Cat 1</t>
+          <t>Cat 3</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Cat 2</t>
+          <t>Cat 3</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Cat 2</t>
+          <t>Cat 3</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Cat 2</t>
+          <t>Cat 3</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Cat 2</t>
+          <t>Cat 3</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Cat 2</t>
+          <t>Cat 3</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -16059,27 +16059,27 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
+          <t>3/17 (17.6%)</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
           <t>14/17 (82.4%)</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>1/17 (5.9%)</t>
-        </is>
-      </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>1/17 (5.9%)</t>
+          <t>0/17 (0.0%)</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>11/17 (64.7%)</t>
+          <t>17/17 (100.0%)</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>1/17 (5.9%)</t>
+          <t>0/17 (0.0%)</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -16094,7 +16094,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>1/17 (5.9%)</t>
+          <t>0/17 (0.0%)</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -16104,7 +16104,7 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>2/17 (11.8%)</t>
+          <t>0/17 (0.0%)</t>
         </is>
       </c>
     </row>
@@ -16116,27 +16116,27 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>9.6387</t>
+          <t>0.0022</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>0.0009</t>
+          <t>1.3636</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>0.0013</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>0.6980</t>
+          <t>3.7249</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>0.0001</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -16151,7 +16151,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>0.0001</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -16161,7 +16161,7 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>0.6387</t>
+          <t>0.0000</t>
         </is>
       </c>
     </row>
@@ -16173,47 +16173,47 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>30/32 (93.8%)</t>
+          <t>0/32 (0.0%)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>2/32 (6.2%)</t>
+          <t>14/32 (43.8%)</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>2/32 (6.2%)</t>
+          <t>3/32 (9.4%)</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>22/32 (68.8%)</t>
+          <t>26/32 (81.2%)</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>2/32 (6.2%)</t>
+          <t>0/32 (0.0%)</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>1/32 (3.1%)</t>
+          <t>0/32 (0.0%)</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>2/32 (6.2%)</t>
+          <t>0/32 (0.0%)</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>1/32 (3.1%)</t>
+          <t>0/32 (0.0%)</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>1/32 (3.1%)</t>
+          <t>0/32 (0.0%)</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -16230,47 +16230,47 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2.9440</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>0.0008</t>
+          <t>0.1728</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>0.0005</t>
+          <t>3.0723</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>0.5084</t>
+          <t>5.3619</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>0.0005</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>0.0006</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>0.0007</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>0.0006</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>0.0007</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -16287,47 +16287,47 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>17/21 (81.0%)</t>
+          <t>0/21 (0.0%)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
+          <t>12/21 (57.1%)</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
           <t>0/21 (0.0%)</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>0/21 (0.0%)</t>
-        </is>
-      </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>7/21 (33.3%)</t>
+          <t>18/21 (85.7%)</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>0/21 (0.0%)</t>
+          <t>3/21 (14.3%)</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>1/21 (4.8%)</t>
+          <t>3/21 (14.3%)</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>0/21 (0.0%)</t>
+          <t>2/21 (9.5%)</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>0/21 (0.0%)</t>
+          <t>2/21 (9.5%)</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>0/21 (0.0%)</t>
+          <t>2/21 (9.5%)</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -16344,12 +16344,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>5.8466</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.0762</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -16359,37 +16359,37 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>0.1037</t>
+          <t>6.9495</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.0019</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>0.0001</t>
+          <t>0.0009</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.0011</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.0011</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.0011</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>4.1645</t>
+          <t>0.0011</t>
         </is>
       </c>
     </row>
@@ -16407,100 +16407,94 @@
         </is>
       </c>
       <c r="B110" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="C110" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="D110" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="E110" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="F110" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="G110" s="1" t="n">
+        <v>334</v>
+      </c>
+      <c r="H110" s="1" t="n">
+        <v>342</v>
+      </c>
+      <c r="I110" s="1" t="n">
+        <v>351</v>
+      </c>
+      <c r="J110" s="1" t="n">
+        <v>426</v>
+      </c>
+      <c r="K110" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="L110" s="1" t="n">
+        <v>494</v>
+      </c>
+      <c r="M110" s="1" t="n">
+        <v>541</v>
+      </c>
+      <c r="N110" s="1" t="n">
+        <v>549</v>
+      </c>
+      <c r="O110" s="1" t="n">
+        <v>565</v>
+      </c>
+      <c r="P110" s="1" t="n">
+        <v>605</v>
+      </c>
+      <c r="Q110" s="1" t="n">
+        <v>625</v>
+      </c>
+      <c r="R110" s="1" t="n">
+        <v>636</v>
+      </c>
+      <c r="S110" s="1" t="n">
+        <v>657</v>
+      </c>
+      <c r="T110" s="1" t="n">
+        <v>678</v>
+      </c>
+      <c r="U110" s="1" t="n">
+        <v>712</v>
+      </c>
+      <c r="V110" s="1" t="n">
+        <v>725</v>
+      </c>
+      <c r="W110" s="1" t="n">
+        <v>864</v>
+      </c>
+      <c r="X110" s="1" t="n">
+        <v>871</v>
+      </c>
+      <c r="Y110" s="1" t="n">
+        <v>872</v>
+      </c>
+      <c r="Z110" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="AA110" s="1" t="n">
         <v>201</v>
       </c>
-      <c r="C110" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="D110" s="1" t="n">
-        <v>342</v>
-      </c>
-      <c r="E110" s="1" t="n">
-        <v>408</v>
-      </c>
-      <c r="F110" s="1" t="n">
-        <v>494</v>
-      </c>
-      <c r="G110" s="1" t="n">
-        <v>581</v>
-      </c>
-      <c r="H110" s="1" t="n">
-        <v>606</v>
-      </c>
-      <c r="I110" s="1" t="n">
-        <v>625</v>
-      </c>
-      <c r="J110" s="1" t="n">
-        <v>712</v>
-      </c>
-      <c r="K110" s="1" t="n">
-        <v>871</v>
-      </c>
-      <c r="L110" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="M110" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="N110" s="1" t="n">
+      <c r="AB110" s="1" t="n">
         <v>214</v>
       </c>
-      <c r="O110" s="1" t="n">
-        <v>351</v>
-      </c>
-      <c r="P110" s="1" t="n">
-        <v>354</v>
-      </c>
-      <c r="Q110" s="1" t="n">
-        <v>565</v>
-      </c>
-      <c r="R110" s="1" t="n">
-        <v>583</v>
-      </c>
-      <c r="S110" s="1" t="n">
-        <v>649</v>
-      </c>
-      <c r="T110" s="1" t="n">
-        <v>680</v>
-      </c>
-      <c r="U110" s="1" t="n">
-        <v>864</v>
-      </c>
-      <c r="V110" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="W110" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="X110" s="1" t="n">
+      <c r="AC110" s="1" t="n">
         <v>229</v>
       </c>
-      <c r="Y110" s="1" t="n">
-        <v>334</v>
-      </c>
-      <c r="Z110" s="1" t="n">
+      <c r="AD110" s="1" t="n">
         <v>471</v>
-      </c>
-      <c r="AA110" s="1" t="n">
-        <v>497</v>
-      </c>
-      <c r="AB110" s="1" t="n">
-        <v>512</v>
-      </c>
-      <c r="AC110" s="1" t="n">
-        <v>541</v>
-      </c>
-      <c r="AD110" s="1" t="n">
-        <v>549</v>
       </c>
       <c r="AE110" s="1" t="n">
         <v>584</v>
-      </c>
-      <c r="AF110" s="1" t="n">
-        <v>678</v>
-      </c>
-      <c r="AG110" s="1" t="n">
-        <v>725</v>
       </c>
     </row>
     <row r="111">
@@ -16561,110 +16555,100 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>Cat 2</t>
+          <t>Cat 1</t>
         </is>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>Cat 2</t>
+          <t>Cat 1</t>
         </is>
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>Cat 2</t>
+          <t>Cat 1</t>
         </is>
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>Cat 2</t>
+          <t>Cat 1</t>
         </is>
       </c>
       <c r="P111" t="inlineStr">
         <is>
-          <t>Cat 2</t>
+          <t>Cat 1</t>
         </is>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>Cat 2</t>
+          <t>Cat 1</t>
         </is>
       </c>
       <c r="R111" t="inlineStr">
         <is>
-          <t>Cat 2</t>
+          <t>Cat 1</t>
         </is>
       </c>
       <c r="S111" t="inlineStr">
         <is>
-          <t>Cat 2</t>
+          <t>Cat 1</t>
         </is>
       </c>
       <c r="T111" t="inlineStr">
         <is>
-          <t>Cat 2</t>
+          <t>Cat 1</t>
         </is>
       </c>
       <c r="U111" t="inlineStr">
         <is>
-          <t>Cat 2</t>
+          <t>Cat 1</t>
         </is>
       </c>
       <c r="V111" t="inlineStr">
         <is>
+          <t>Cat 1</t>
+        </is>
+      </c>
+      <c r="W111" t="inlineStr">
+        <is>
+          <t>Cat 1</t>
+        </is>
+      </c>
+      <c r="X111" t="inlineStr">
+        <is>
+          <t>Cat 1</t>
+        </is>
+      </c>
+      <c r="Y111" t="inlineStr">
+        <is>
+          <t>Cat 1</t>
+        </is>
+      </c>
+      <c r="Z111" t="inlineStr">
+        <is>
           <t>Cat 3</t>
         </is>
       </c>
-      <c r="W111" t="inlineStr">
+      <c r="AA111" t="inlineStr">
         <is>
           <t>Cat 3</t>
         </is>
       </c>
-      <c r="X111" t="inlineStr">
+      <c r="AB111" t="inlineStr">
         <is>
           <t>Cat 3</t>
         </is>
       </c>
-      <c r="Y111" t="inlineStr">
+      <c r="AC111" t="inlineStr">
         <is>
           <t>Cat 3</t>
         </is>
       </c>
-      <c r="Z111" t="inlineStr">
+      <c r="AD111" t="inlineStr">
         <is>
           <t>Cat 3</t>
         </is>
       </c>
-      <c r="AA111" t="inlineStr">
-        <is>
-          <t>Cat 3</t>
-        </is>
-      </c>
-      <c r="AB111" t="inlineStr">
-        <is>
-          <t>Cat 3</t>
-        </is>
-      </c>
-      <c r="AC111" t="inlineStr">
-        <is>
-          <t>Cat 3</t>
-        </is>
-      </c>
-      <c r="AD111" t="inlineStr">
-        <is>
-          <t>Cat 3</t>
-        </is>
-      </c>
       <c r="AE111" t="inlineStr">
-        <is>
-          <t>Cat 3</t>
-        </is>
-      </c>
-      <c r="AF111" t="inlineStr">
-        <is>
-          <t>Cat 3</t>
-        </is>
-      </c>
-      <c r="AG111" t="inlineStr">
         <is>
           <t>Cat 3</t>
         </is>
@@ -16702,8 +16686,6 @@
       <c r="AC112" t="inlineStr"/>
       <c r="AD112" t="inlineStr"/>
       <c r="AE112" t="inlineStr"/>
-      <c r="AF112" t="inlineStr"/>
-      <c r="AG112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -16713,162 +16695,152 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
+          <t>9/17 (52.9%)</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>4/17 (23.5%)</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>11/17 (64.7%)</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
           <t>1/17 (5.9%)</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
+      <c r="F113" t="inlineStr">
         <is>
           <t>1/17 (5.9%)</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>8/17 (47.1%)</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>2/17 (11.8%)</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>11/17 (64.7%)</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>6/17 (35.3%)</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>4/17 (23.5%)</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>2/17 (11.8%)</t>
+        </is>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>3/17 (17.6%)</t>
+        </is>
+      </c>
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>14/17 (82.4%)</t>
+        </is>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>9/17 (52.9%)</t>
+        </is>
+      </c>
+      <c r="P113" t="inlineStr">
+        <is>
+          <t>7/17 (41.2%)</t>
+        </is>
+      </c>
+      <c r="Q113" t="inlineStr">
+        <is>
+          <t>10/17 (58.8%)</t>
+        </is>
+      </c>
+      <c r="R113" t="inlineStr">
         <is>
           <t>1/17 (5.9%)</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>10/17 (58.8%)</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
+      <c r="S113" t="inlineStr">
+        <is>
+          <t>4/17 (23.5%)</t>
+        </is>
+      </c>
+      <c r="T113" t="inlineStr">
+        <is>
+          <t>7/17 (41.2%)</t>
+        </is>
+      </c>
+      <c r="U113" t="inlineStr">
+        <is>
+          <t>5/17 (29.4%)</t>
+        </is>
+      </c>
+      <c r="V113" t="inlineStr">
+        <is>
+          <t>9/17 (52.9%)</t>
+        </is>
+      </c>
+      <c r="W113" t="inlineStr">
+        <is>
+          <t>11/17 (64.7%)</t>
+        </is>
+      </c>
+      <c r="X113" t="inlineStr">
+        <is>
+          <t>6/17 (35.3%)</t>
+        </is>
+      </c>
+      <c r="Y113" t="inlineStr">
         <is>
           <t>1/17 (5.9%)</t>
         </is>
       </c>
-      <c r="G113" t="inlineStr">
+      <c r="Z113" t="inlineStr">
         <is>
           <t>7/17 (41.2%)</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>7/17 (41.2%)</t>
-        </is>
-      </c>
-      <c r="I113" t="inlineStr">
+      <c r="AA113" t="inlineStr">
+        <is>
+          <t>0/17 (0.0%)</t>
+        </is>
+      </c>
+      <c r="AB113" t="inlineStr">
+        <is>
+          <t>4/17 (23.5%)</t>
+        </is>
+      </c>
+      <c r="AC113" t="inlineStr">
         <is>
           <t>6/17 (35.3%)</t>
         </is>
       </c>
-      <c r="J113" t="inlineStr">
-        <is>
-          <t>5/17 (29.4%)</t>
-        </is>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>7/17 (41.2%)</t>
-        </is>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>4/17 (23.5%)</t>
-        </is>
-      </c>
-      <c r="M113" t="inlineStr">
-        <is>
-          <t>14/17 (82.4%)</t>
-        </is>
-      </c>
-      <c r="N113" t="inlineStr">
-        <is>
-          <t>7/17 (41.2%)</t>
-        </is>
-      </c>
-      <c r="O113" t="inlineStr">
-        <is>
-          <t>8/17 (47.1%)</t>
-        </is>
-      </c>
-      <c r="P113" t="inlineStr">
-        <is>
-          <t>7/17 (41.2%)</t>
-        </is>
-      </c>
-      <c r="Q113" t="inlineStr">
-        <is>
-          <t>1/17 (5.9%)</t>
-        </is>
-      </c>
-      <c r="R113" t="inlineStr">
-        <is>
-          <t>1/17 (5.9%)</t>
-        </is>
-      </c>
-      <c r="S113" t="inlineStr">
-        <is>
-          <t>1/17 (5.9%)</t>
-        </is>
-      </c>
-      <c r="T113" t="inlineStr">
-        <is>
-          <t>0/17 (0.0%)</t>
-        </is>
-      </c>
-      <c r="U113" t="inlineStr">
-        <is>
-          <t>8/17 (47.1%)</t>
-        </is>
-      </c>
-      <c r="V113" t="inlineStr">
-        <is>
-          <t>4/17 (23.5%)</t>
-        </is>
-      </c>
-      <c r="W113" t="inlineStr">
-        <is>
-          <t>1/17 (5.9%)</t>
-        </is>
-      </c>
-      <c r="X113" t="inlineStr">
-        <is>
-          <t>9/17 (52.9%)</t>
-        </is>
-      </c>
-      <c r="Y113" t="inlineStr">
-        <is>
-          <t>1/17 (5.9%)</t>
-        </is>
-      </c>
-      <c r="Z113" t="inlineStr">
-        <is>
-          <t>6/17 (35.3%)</t>
-        </is>
-      </c>
-      <c r="AA113" t="inlineStr">
-        <is>
-          <t>1/17 (5.9%)</t>
-        </is>
-      </c>
-      <c r="AB113" t="inlineStr">
+      <c r="AD113" t="inlineStr">
         <is>
           <t>3/17 (17.6%)</t>
         </is>
       </c>
-      <c r="AC113" t="inlineStr">
-        <is>
-          <t>1/17 (5.9%)</t>
-        </is>
-      </c>
-      <c r="AD113" t="inlineStr">
-        <is>
-          <t>8/17 (47.1%)</t>
-        </is>
-      </c>
       <c r="AE113" t="inlineStr">
         <is>
-          <t>6/17 (35.3%)</t>
-        </is>
-      </c>
-      <c r="AF113" t="inlineStr">
-        <is>
-          <t>5/17 (29.4%)</t>
-        </is>
-      </c>
-      <c r="AG113" t="inlineStr">
-        <is>
-          <t>4/17 (23.5%)</t>
+          <t>3/17 (17.6%)</t>
         </is>
       </c>
     </row>
@@ -16880,162 +16852,152 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>0.0009</t>
+          <t>0.2877</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>0.0007</t>
+          <t>0.0209</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>0.0002</t>
+          <t>0.9006</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>0.3942</t>
+          <t>0.0004</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>0.0002</t>
+          <t>0.0003</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>1.2550</t>
+          <t>0.2478</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>0.4617</t>
+          <t>0.0004</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>0.2330</t>
+          <t>0.7303</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>0.6698</t>
+          <t>0.0194</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>0.2038</t>
+          <t>0.0096</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>0.2014</t>
+          <t>0.0003</t>
         </is>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>4.3419</t>
+          <t>0.0022</t>
         </is>
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>0.1253</t>
+          <t>1.3636</t>
         </is>
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>0.3329</t>
+          <t>0.4558</t>
         </is>
       </c>
       <c r="P114" t="inlineStr">
         <is>
-          <t>0.6276</t>
+          <t>0.3178</t>
         </is>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>0.0031</t>
+          <t>0.4446</t>
         </is>
       </c>
       <c r="R114" t="inlineStr">
         <is>
-          <t>0.0075</t>
+          <t>0.0001</t>
         </is>
       </c>
       <c r="S114" t="inlineStr">
         <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="T114" t="inlineStr">
+        <is>
+          <t>0.2886</t>
+        </is>
+      </c>
+      <c r="U114" t="inlineStr">
+        <is>
+          <t>1.2359</t>
+        </is>
+      </c>
+      <c r="V114" t="inlineStr">
+        <is>
+          <t>0.5820</t>
+        </is>
+      </c>
+      <c r="W114" t="inlineStr">
+        <is>
+          <t>0.4482</t>
+        </is>
+      </c>
+      <c r="X114" t="inlineStr">
+        <is>
+          <t>0.3658</t>
+        </is>
+      </c>
+      <c r="Y114" t="inlineStr">
+        <is>
           <t>0.0001</t>
         </is>
       </c>
-      <c r="T114" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
-      </c>
-      <c r="U114" t="inlineStr">
-        <is>
-          <t>0.0207</t>
-        </is>
-      </c>
-      <c r="V114" t="inlineStr">
-        <is>
-          <t>0.0031</t>
-        </is>
-      </c>
-      <c r="W114" t="inlineStr">
-        <is>
-          <t>0.0004</t>
-        </is>
-      </c>
-      <c r="X114" t="inlineStr">
-        <is>
-          <t>0.1647</t>
-        </is>
-      </c>
-      <c r="Y114" t="inlineStr">
-        <is>
-          <t>0.0064</t>
-        </is>
-      </c>
       <c r="Z114" t="inlineStr">
         <is>
-          <t>0.1085</t>
+          <t>0.0746</t>
         </is>
       </c>
       <c r="AA114" t="inlineStr">
         <is>
-          <t>0.0011</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="AB114" t="inlineStr">
         <is>
-          <t>0.0021</t>
+          <t>0.0743</t>
         </is>
       </c>
       <c r="AC114" t="inlineStr">
         <is>
-          <t>0.0002</t>
+          <t>0.1092</t>
         </is>
       </c>
       <c r="AD114" t="inlineStr">
         <is>
-          <t>0.2137</t>
+          <t>0.0366</t>
         </is>
       </c>
       <c r="AE114" t="inlineStr">
         <is>
-          <t>0.0327</t>
-        </is>
-      </c>
-      <c r="AF114" t="inlineStr">
-        <is>
-          <t>0.0107</t>
-        </is>
-      </c>
-      <c r="AG114" t="inlineStr">
-        <is>
-          <t>0.0021</t>
+          <t>0.0255</t>
         </is>
       </c>
     </row>
@@ -17047,162 +17009,152 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
+          <t>7/32 (21.9%)</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
           <t>2/32 (6.2%)</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>16/32 (50.0%)</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>0/32 (0.0%)</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>0/32 (0.0%)</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>6/32 (18.8%)</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>0/32 (0.0%)</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>16/32 (50.0%)</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>6/32 (18.8%)</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>5/32 (15.6%)</t>
+        </is>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>0/32 (0.0%)</t>
+        </is>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>0/32 (0.0%)</t>
+        </is>
+      </c>
+      <c r="N115" t="inlineStr">
+        <is>
+          <t>14/32 (43.8%)</t>
+        </is>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>8/32 (25.0%)</t>
+        </is>
+      </c>
+      <c r="P115" t="inlineStr">
+        <is>
+          <t>6/32 (18.8%)</t>
+        </is>
+      </c>
+      <c r="Q115" t="inlineStr">
+        <is>
+          <t>8/32 (25.0%)</t>
+        </is>
+      </c>
+      <c r="R115" t="inlineStr">
+        <is>
+          <t>0/32 (0.0%)</t>
+        </is>
+      </c>
+      <c r="S115" t="inlineStr">
         <is>
           <t>2/32 (6.2%)</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
+      <c r="T115" t="inlineStr">
+        <is>
+          <t>13/32 (40.6%)</t>
+        </is>
+      </c>
+      <c r="U115" t="inlineStr">
+        <is>
+          <t>6/32 (18.8%)</t>
+        </is>
+      </c>
+      <c r="V115" t="inlineStr">
+        <is>
+          <t>6/32 (18.8%)</t>
+        </is>
+      </c>
+      <c r="W115" t="inlineStr">
+        <is>
+          <t>16/32 (50.0%)</t>
+        </is>
+      </c>
+      <c r="X115" t="inlineStr">
+        <is>
+          <t>8/32 (25.0%)</t>
+        </is>
+      </c>
+      <c r="Y115" t="inlineStr">
         <is>
           <t>0/32 (0.0%)</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>16/32 (50.0%)</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>1/32 (3.1%)</t>
-        </is>
-      </c>
-      <c r="G115" t="inlineStr">
+      <c r="Z115" t="inlineStr">
+        <is>
+          <t>5/32 (15.6%)</t>
+        </is>
+      </c>
+      <c r="AA115" t="inlineStr">
+        <is>
+          <t>0/32 (0.0%)</t>
+        </is>
+      </c>
+      <c r="AB115" t="inlineStr">
+        <is>
+          <t>8/32 (25.0%)</t>
+        </is>
+      </c>
+      <c r="AC115" t="inlineStr">
+        <is>
+          <t>12/32 (37.5%)</t>
+        </is>
+      </c>
+      <c r="AD115" t="inlineStr">
+        <is>
+          <t>6/32 (18.8%)</t>
+        </is>
+      </c>
+      <c r="AE115" t="inlineStr">
         <is>
           <t>7/32 (21.9%)</t>
-        </is>
-      </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>12/32 (37.5%)</t>
-        </is>
-      </c>
-      <c r="I115" t="inlineStr">
-        <is>
-          <t>7/32 (21.9%)</t>
-        </is>
-      </c>
-      <c r="J115" t="inlineStr">
-        <is>
-          <t>7/32 (21.9%)</t>
-        </is>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>5/32 (15.6%)</t>
-        </is>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>18/32 (56.2%)</t>
-        </is>
-      </c>
-      <c r="M115" t="inlineStr">
-        <is>
-          <t>29/32 (90.6%)</t>
-        </is>
-      </c>
-      <c r="N115" t="inlineStr">
-        <is>
-          <t>10/32 (31.2%)</t>
-        </is>
-      </c>
-      <c r="O115" t="inlineStr">
-        <is>
-          <t>14/32 (43.8%)</t>
-        </is>
-      </c>
-      <c r="P115" t="inlineStr">
-        <is>
-          <t>10/32 (31.2%)</t>
-        </is>
-      </c>
-      <c r="Q115" t="inlineStr">
-        <is>
-          <t>12/32 (37.5%)</t>
-        </is>
-      </c>
-      <c r="R115" t="inlineStr">
-        <is>
-          <t>1/32 (3.1%)</t>
-        </is>
-      </c>
-      <c r="S115" t="inlineStr">
-        <is>
-          <t>1/32 (3.1%)</t>
-        </is>
-      </c>
-      <c r="T115" t="inlineStr">
-        <is>
-          <t>2/32 (6.2%)</t>
-        </is>
-      </c>
-      <c r="U115" t="inlineStr">
-        <is>
-          <t>19/32 (59.4%)</t>
-        </is>
-      </c>
-      <c r="V115" t="inlineStr">
-        <is>
-          <t>14/32 (43.8%)</t>
-        </is>
-      </c>
-      <c r="W115" t="inlineStr">
-        <is>
-          <t>4/32 (12.5%)</t>
-        </is>
-      </c>
-      <c r="X115" t="inlineStr">
-        <is>
-          <t>14/32 (43.8%)</t>
-        </is>
-      </c>
-      <c r="Y115" t="inlineStr">
-        <is>
-          <t>9/32 (28.1%)</t>
-        </is>
-      </c>
-      <c r="Z115" t="inlineStr">
-        <is>
-          <t>6/32 (18.8%)</t>
-        </is>
-      </c>
-      <c r="AA115" t="inlineStr">
-        <is>
-          <t>4/32 (12.5%)</t>
-        </is>
-      </c>
-      <c r="AB115" t="inlineStr">
-        <is>
-          <t>5/32 (15.6%)</t>
-        </is>
-      </c>
-      <c r="AC115" t="inlineStr">
-        <is>
-          <t>1/32 (3.1%)</t>
-        </is>
-      </c>
-      <c r="AD115" t="inlineStr">
-        <is>
-          <t>17/32 (53.1%)</t>
-        </is>
-      </c>
-      <c r="AE115" t="inlineStr">
-        <is>
-          <t>7/32 (21.9%)</t>
-        </is>
-      </c>
-      <c r="AF115" t="inlineStr">
-        <is>
-          <t>13/32 (40.6%)</t>
-        </is>
-      </c>
-      <c r="AG115" t="inlineStr">
-        <is>
-          <t>6/32 (18.8%)</t>
         </is>
       </c>
     </row>
@@ -17214,162 +17166,152 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>0.0008</t>
+          <t>0.0181</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>0.0002</t>
+          <t>0.0020</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.5326</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>0.1566</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>0.0001</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>0.1522</t>
+          <t>0.0059</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>0.1152</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>0.1410</t>
+          <t>0.2684</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>0.4130</t>
+          <t>0.0064</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>0.1230</t>
+          <t>0.0032</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>0.5628</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>6.4791</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>0.7668</t>
+          <t>0.1728</t>
         </is>
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>0.4137</t>
+          <t>0.0474</t>
         </is>
       </c>
       <c r="P116" t="inlineStr">
         <is>
-          <t>2.3804</t>
+          <t>0.0347</t>
         </is>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>0.1868</t>
+          <t>0.0553</t>
         </is>
       </c>
       <c r="R116" t="inlineStr">
         <is>
-          <t>0.3146</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="S116" t="inlineStr">
         <is>
-          <t>0.0006</t>
+          <t>0.0010</t>
         </is>
       </c>
       <c r="T116" t="inlineStr">
         <is>
-          <t>0.0007</t>
+          <t>0.0304</t>
         </is>
       </c>
       <c r="U116" t="inlineStr">
         <is>
-          <t>0.3108</t>
+          <t>0.1555</t>
         </is>
       </c>
       <c r="V116" t="inlineStr">
         <is>
-          <t>0.1302</t>
+          <t>0.0278</t>
         </is>
       </c>
       <c r="W116" t="inlineStr">
         <is>
-          <t>0.0024</t>
+          <t>0.0463</t>
         </is>
       </c>
       <c r="X116" t="inlineStr">
         <is>
-          <t>0.2900</t>
+          <t>0.0491</t>
         </is>
       </c>
       <c r="Y116" t="inlineStr">
         <is>
-          <t>0.0613</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="Z116" t="inlineStr">
         <is>
-          <t>0.0822</t>
+          <t>0.0072</t>
         </is>
       </c>
       <c r="AA116" t="inlineStr">
         <is>
-          <t>0.0023</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="AB116" t="inlineStr">
         <is>
-          <t>0.0055</t>
+          <t>0.2834</t>
         </is>
       </c>
       <c r="AC116" t="inlineStr">
         <is>
-          <t>0.0007</t>
+          <t>0.1405</t>
         </is>
       </c>
       <c r="AD116" t="inlineStr">
         <is>
-          <t>0.4112</t>
+          <t>0.0369</t>
         </is>
       </c>
       <c r="AE116" t="inlineStr">
         <is>
-          <t>0.0947</t>
-        </is>
-      </c>
-      <c r="AF116" t="inlineStr">
-        <is>
-          <t>0.0639</t>
-        </is>
-      </c>
-      <c r="AG116" t="inlineStr">
-        <is>
-          <t>0.0895</t>
+          <t>0.0225</t>
         </is>
       </c>
     </row>
@@ -17381,160 +17323,150 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
+          <t>13/21 (61.9%)</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
           <t>0/21 (0.0%)</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr">
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>5/21 (23.8%)</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
         <is>
           <t>0/21 (0.0%)</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>0/21 (0.0%)</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
         <is>
           <t>1/21 (4.8%)</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>0/21 (0.0%)</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>6/21 (28.6%)</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>2/21 (9.5%)</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>1/21 (4.8%)</t>
+        </is>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>0/21 (0.0%)</t>
+        </is>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>0/21 (0.0%)</t>
+        </is>
+      </c>
+      <c r="N117" t="inlineStr">
+        <is>
+          <t>12/21 (57.1%)</t>
+        </is>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>4/21 (19.0%)</t>
+        </is>
+      </c>
+      <c r="P117" t="inlineStr">
+        <is>
+          <t>2/21 (9.5%)</t>
+        </is>
+      </c>
+      <c r="Q117" t="inlineStr">
+        <is>
+          <t>3/21 (14.3%)</t>
+        </is>
+      </c>
+      <c r="R117" t="inlineStr">
+        <is>
+          <t>0/21 (0.0%)</t>
+        </is>
+      </c>
+      <c r="S117" t="inlineStr">
+        <is>
+          <t>0/21 (0.0%)</t>
+        </is>
+      </c>
+      <c r="T117" t="inlineStr">
+        <is>
+          <t>7/21 (33.3%)</t>
+        </is>
+      </c>
+      <c r="U117" t="inlineStr">
+        <is>
+          <t>6/21 (28.6%)</t>
+        </is>
+      </c>
+      <c r="V117" t="inlineStr">
+        <is>
+          <t>4/21 (19.0%)</t>
+        </is>
+      </c>
+      <c r="W117" t="inlineStr">
+        <is>
+          <t>13/21 (61.9%)</t>
+        </is>
+      </c>
+      <c r="X117" t="inlineStr">
+        <is>
+          <t>4/21 (19.0%)</t>
+        </is>
+      </c>
+      <c r="Y117" t="inlineStr">
+        <is>
+          <t>0/21 (0.0%)</t>
+        </is>
+      </c>
+      <c r="Z117" t="inlineStr">
+        <is>
+          <t>11/21 (52.4%)</t>
+        </is>
+      </c>
+      <c r="AA117" t="inlineStr">
+        <is>
+          <t>3/21 (14.3%)</t>
+        </is>
+      </c>
+      <c r="AB117" t="inlineStr">
+        <is>
+          <t>11/21 (52.4%)</t>
+        </is>
+      </c>
+      <c r="AC117" t="inlineStr">
+        <is>
+          <t>13/21 (61.9%)</t>
+        </is>
+      </c>
+      <c r="AD117" t="inlineStr">
         <is>
           <t>9/21 (42.9%)</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>0/21 (0.0%)</t>
-        </is>
-      </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t>6/21 (28.6%)</t>
-        </is>
-      </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>8/21 (38.1%)</t>
-        </is>
-      </c>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t>8/21 (38.1%)</t>
-        </is>
-      </c>
-      <c r="J117" t="inlineStr">
-        <is>
-          <t>5/21 (23.8%)</t>
-        </is>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>6/21 (28.6%)</t>
-        </is>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>10/21 (47.6%)</t>
-        </is>
-      </c>
-      <c r="M117" t="inlineStr">
-        <is>
-          <t>18/21 (85.7%)</t>
-        </is>
-      </c>
-      <c r="N117" t="inlineStr">
-        <is>
-          <t>6/21 (28.6%)</t>
-        </is>
-      </c>
-      <c r="O117" t="inlineStr">
-        <is>
-          <t>11/21 (52.4%)</t>
-        </is>
-      </c>
-      <c r="P117" t="inlineStr">
-        <is>
-          <t>11/21 (52.4%)</t>
-        </is>
-      </c>
-      <c r="Q117" t="inlineStr">
-        <is>
-          <t>8/21 (38.1%)</t>
-        </is>
-      </c>
-      <c r="R117" t="inlineStr">
-        <is>
-          <t>2/21 (9.5%)</t>
-        </is>
-      </c>
-      <c r="S117" t="inlineStr">
-        <is>
-          <t>0/21 (0.0%)</t>
-        </is>
-      </c>
-      <c r="T117" t="inlineStr">
-        <is>
-          <t>0/21 (0.0%)</t>
-        </is>
-      </c>
-      <c r="U117" t="inlineStr">
-        <is>
-          <t>13/21 (61.9%)</t>
-        </is>
-      </c>
-      <c r="V117" t="inlineStr">
-        <is>
-          <t>11/21 (52.4%)</t>
-        </is>
-      </c>
-      <c r="W117" t="inlineStr">
-        <is>
-          <t>2/21 (9.5%)</t>
-        </is>
-      </c>
-      <c r="X117" t="inlineStr">
-        <is>
-          <t>8/21 (38.1%)</t>
-        </is>
-      </c>
-      <c r="Y117" t="inlineStr">
-        <is>
-          <t>5/21 (23.8%)</t>
-        </is>
-      </c>
-      <c r="Z117" t="inlineStr">
-        <is>
-          <t>6/21 (28.6%)</t>
-        </is>
-      </c>
-      <c r="AA117" t="inlineStr">
-        <is>
-          <t>1/21 (4.8%)</t>
-        </is>
-      </c>
-      <c r="AB117" t="inlineStr">
-        <is>
-          <t>3/21 (14.3%)</t>
-        </is>
-      </c>
-      <c r="AC117" t="inlineStr">
-        <is>
-          <t>1/21 (4.8%)</t>
-        </is>
-      </c>
-      <c r="AD117" t="inlineStr">
-        <is>
-          <t>15/21 (71.4%)</t>
-        </is>
-      </c>
       <c r="AE117" t="inlineStr">
-        <is>
-          <t>6/21 (28.6%)</t>
-        </is>
-      </c>
-      <c r="AF117" t="inlineStr">
-        <is>
-          <t>9/21 (42.9%)</t>
-        </is>
-      </c>
-      <c r="AG117" t="inlineStr">
         <is>
           <t>9/21 (42.9%)</t>
         </is>
@@ -17548,7 +17480,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.0518</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -17558,12 +17490,12 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>0.0002</t>
+          <t>0.0317</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>0.1646</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -17573,62 +17505,62 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>0.9316</t>
+          <t>0.0010</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>0.0693</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>0.0865</t>
+          <t>0.1097</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>0.0756</t>
+          <t>0.0009</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>0.0259</t>
+          <t>0.0001</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>0.5517</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>4.7475</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>0.7322</t>
+          <t>0.0762</t>
         </is>
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>0.2100</t>
+          <t>0.0294</t>
         </is>
       </c>
       <c r="P118" t="inlineStr">
         <is>
-          <t>1.1414</t>
+          <t>0.0848</t>
         </is>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>0.1834</t>
+          <t>0.0457</t>
         </is>
       </c>
       <c r="R118" t="inlineStr">
         <is>
-          <t>0.0097</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="S118" t="inlineStr">
@@ -17638,72 +17570,62 @@
       </c>
       <c r="T118" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.0131</t>
         </is>
       </c>
       <c r="U118" t="inlineStr">
         <is>
-          <t>0.1120</t>
+          <t>0.0098</t>
         </is>
       </c>
       <c r="V118" t="inlineStr">
         <is>
-          <t>0.1112</t>
+          <t>0.0418</t>
         </is>
       </c>
       <c r="W118" t="inlineStr">
         <is>
-          <t>0.0142</t>
+          <t>0.1689</t>
         </is>
       </c>
       <c r="X118" t="inlineStr">
         <is>
-          <t>0.9130</t>
+          <t>0.0073</t>
         </is>
       </c>
       <c r="Y118" t="inlineStr">
         <is>
-          <t>0.1121</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="Z118" t="inlineStr">
         <is>
-          <t>0.3176</t>
+          <t>0.1035</t>
         </is>
       </c>
       <c r="AA118" t="inlineStr">
         <is>
-          <t>0.0096</t>
+          <t>0.0019</t>
         </is>
       </c>
       <c r="AB118" t="inlineStr">
         <is>
-          <t>0.0185</t>
+          <t>1.5101</t>
         </is>
       </c>
       <c r="AC118" t="inlineStr">
         <is>
-          <t>0.0006</t>
+          <t>1.1856</t>
         </is>
       </c>
       <c r="AD118" t="inlineStr">
         <is>
-          <t>0.6438</t>
+          <t>0.4448</t>
         </is>
       </c>
       <c r="AE118" t="inlineStr">
         <is>
-          <t>0.1348</t>
-        </is>
-      </c>
-      <c r="AF118" t="inlineStr">
-        <is>
-          <t>0.1871</t>
-        </is>
-      </c>
-      <c r="AG118" t="inlineStr">
-        <is>
-          <t>0.4174</t>
+          <t>0.2507</t>
         </is>
       </c>
     </row>

--- a/data/feature_analysis_results.xlsx
+++ b/data/feature_analysis_results.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Feature Analysis" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feature Analysis" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/data/feature_analysis_results.xlsx
+++ b/data/feature_analysis_results.xlsx
@@ -8460,10 +8460,10 @@
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>23</v>
+        <v>201</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>91</v>
+        <v>229</v>
       </c>
       <c r="D62" s="1" t="n">
         <v>334</v>
@@ -8472,64 +8472,64 @@
         <v>342</v>
       </c>
       <c r="F62" s="1" t="n">
+        <v>410</v>
+      </c>
+      <c r="G62" s="1" t="n">
+        <v>471</v>
+      </c>
+      <c r="H62" s="1" t="n">
+        <v>549</v>
+      </c>
+      <c r="I62" s="1" t="n">
+        <v>625</v>
+      </c>
+      <c r="J62" s="1" t="n">
+        <v>678</v>
+      </c>
+      <c r="K62" s="1" t="n">
+        <v>712</v>
+      </c>
+      <c r="L62" s="1" t="n">
+        <v>799</v>
+      </c>
+      <c r="M62" s="1" t="n">
+        <v>871</v>
+      </c>
+      <c r="N62" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="O62" s="1" t="n">
         <v>351</v>
       </c>
-      <c r="G62" s="1" t="n">
+      <c r="P62" s="1" t="n">
         <v>375</v>
       </c>
-      <c r="H62" s="1" t="n">
-        <v>410</v>
-      </c>
-      <c r="I62" s="1" t="n">
-        <v>494</v>
-      </c>
-      <c r="J62" s="1" t="n">
+      <c r="Q62" s="1" t="n">
         <v>541</v>
       </c>
-      <c r="K62" s="1" t="n">
-        <v>549</v>
-      </c>
-      <c r="L62" s="1" t="n">
+      <c r="R62" s="1" t="n">
         <v>565</v>
       </c>
-      <c r="M62" s="1" t="n">
-        <v>625</v>
-      </c>
-      <c r="N62" s="1" t="n">
-        <v>678</v>
-      </c>
-      <c r="O62" s="1" t="n">
-        <v>712</v>
-      </c>
-      <c r="P62" s="1" t="n">
+      <c r="S62" s="1" t="n">
         <v>725</v>
-      </c>
-      <c r="Q62" s="1" t="n">
-        <v>799</v>
-      </c>
-      <c r="R62" s="1" t="n">
-        <v>864</v>
-      </c>
-      <c r="S62" s="1" t="n">
-        <v>871</v>
       </c>
       <c r="T62" s="1" t="n">
         <v>863</v>
       </c>
       <c r="U62" s="1" t="n">
-        <v>201</v>
+        <v>864</v>
       </c>
       <c r="V62" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="W62" s="1" t="n">
         <v>214</v>
-      </c>
-      <c r="W62" s="1" t="n">
-        <v>229</v>
       </c>
       <c r="X62" s="1" t="n">
         <v>408</v>
       </c>
       <c r="Y62" s="1" t="n">
-        <v>471</v>
+        <v>494</v>
       </c>
       <c r="Z62" s="1" t="n">
         <v>526</v>
@@ -8606,32 +8606,32 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>Cat 1</t>
+          <t>Cat 2</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>Cat 1</t>
+          <t>Cat 2</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>Cat 1</t>
+          <t>Cat 2</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>Cat 1</t>
+          <t>Cat 2</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>Cat 1</t>
+          <t>Cat 2</t>
         </is>
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>Cat 1</t>
+          <t>Cat 2</t>
         </is>
       </c>
       <c r="T63" t="inlineStr">
@@ -8641,7 +8641,7 @@
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>Cat 3</t>
+          <t>Cat 2</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
@@ -8712,132 +8712,132 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>9/17 (52.9%)</t>
+          <t>1/17 (5.9%)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>11/17 (64.7%)</t>
+          <t>5/17 (29.4%)</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>8/17 (47.1%)</t>
+          <t>4/17 (23.5%)</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
+          <t>1/17 (5.9%)</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1/17 (5.9%)</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
           <t>2/17 (11.8%)</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>11/17 (64.7%)</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>11/17 (64.7%)</t>
-        </is>
-      </c>
       <c r="H65" t="inlineStr">
         <is>
+          <t>4/17 (23.5%)</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>5/17 (29.4%)</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>3/17 (17.6%)</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
           <t>2/17 (11.8%)</t>
         </is>
       </c>
-      <c r="I65" t="inlineStr">
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>1/17 (5.9%)</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
         <is>
           <t>2/17 (11.8%)</t>
         </is>
       </c>
-      <c r="J65" t="inlineStr">
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>2/17 (11.8%)</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>6/17 (35.3%)</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
         <is>
           <t>3/17 (17.6%)</t>
         </is>
       </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>14/17 (82.4%)</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>9/17 (52.9%)</t>
-        </is>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>10/17 (58.8%)</t>
-        </is>
-      </c>
-      <c r="N65" t="inlineStr">
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>0/17 (0.0%)</t>
+        </is>
+      </c>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>3/17 (17.6%)</t>
+        </is>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>1/17 (5.9%)</t>
+        </is>
+      </c>
+      <c r="T65" t="inlineStr">
         <is>
           <t>7/17 (41.2%)</t>
         </is>
       </c>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t>5/17 (29.4%)</t>
-        </is>
-      </c>
-      <c r="P65" t="inlineStr">
-        <is>
-          <t>9/17 (52.9%)</t>
-        </is>
-      </c>
-      <c r="Q65" t="inlineStr">
+      <c r="U65" t="inlineStr">
         <is>
           <t>2/17 (11.8%)</t>
         </is>
       </c>
-      <c r="R65" t="inlineStr">
-        <is>
-          <t>11/17 (64.7%)</t>
-        </is>
-      </c>
-      <c r="S65" t="inlineStr">
-        <is>
-          <t>6/17 (35.3%)</t>
-        </is>
-      </c>
-      <c r="T65" t="inlineStr">
-        <is>
-          <t>10/17 (58.8%)</t>
-        </is>
-      </c>
-      <c r="U65" t="inlineStr">
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>7/17 (41.2%)</t>
+        </is>
+      </c>
+      <c r="W65" t="inlineStr">
+        <is>
+          <t>4/17 (23.5%)</t>
+        </is>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>7/17 (41.2%)</t>
+        </is>
+      </c>
+      <c r="Y65" t="inlineStr">
         <is>
           <t>0/17 (0.0%)</t>
         </is>
       </c>
-      <c r="V65" t="inlineStr">
-        <is>
-          <t>0/17 (0.0%)</t>
-        </is>
-      </c>
-      <c r="W65" t="inlineStr">
-        <is>
-          <t>0/17 (0.0%)</t>
-        </is>
-      </c>
-      <c r="X65" t="inlineStr">
-        <is>
-          <t>0/17 (0.0%)</t>
-        </is>
-      </c>
-      <c r="Y65" t="inlineStr">
-        <is>
-          <t>0/17 (0.0%)</t>
-        </is>
-      </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>0/17 (0.0%)</t>
+          <t>3/17 (17.6%)</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
         <is>
-          <t>0/17 (0.0%)</t>
+          <t>2/17 (11.8%)</t>
         </is>
       </c>
     </row>
@@ -8849,117 +8849,117 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0.2877</t>
+          <t>0.0006</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>0.9006</t>
+          <t>1.0213</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>0.2478</t>
+          <t>0.2403</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>0.0004</t>
+          <t>0.0002</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>0.7303</t>
+          <t>0.0001</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>0.7887</t>
+          <t>0.3676</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>0.0002</t>
+          <t>0.6593</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>0.0003</t>
+          <t>0.2304</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>0.0022</t>
+          <t>0.2794</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>1.3636</t>
+          <t>0.6123</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>0.4559</t>
+          <t>0.0001</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>0.4446</t>
+          <t>0.1833</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>0.2886</t>
+          <t>0.0026</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>1.2359</t>
+          <t>0.3639</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>0.5820</t>
+          <t>0.0538</t>
         </is>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>0.0002</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>0.4482</t>
+          <t>0.0133</t>
         </is>
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>0.3658</t>
+          <t>0.0005</t>
         </is>
       </c>
       <c r="T66" t="inlineStr">
         <is>
-          <t>0.4485</t>
+          <t>0.2060</t>
         </is>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.0093</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.5332</t>
         </is>
       </c>
       <c r="W66" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.4934</t>
         </is>
       </c>
       <c r="X66" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.0624</t>
         </is>
       </c>
       <c r="Y66" t="inlineStr">
@@ -8969,12 +8969,12 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.0909</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.1435</t>
         </is>
       </c>
     </row>
@@ -8986,132 +8986,132 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>0/32 (0.0%)</t>
+          <t>1/32 (3.1%)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>16/32 (50.0%)</t>
+          <t>12/32 (37.5%)</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>0/32 (0.0%)</t>
+          <t>3/32 (9.4%)</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>0/32 (0.0%)</t>
+          <t>1/32 (3.1%)</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>16/32 (50.0%)</t>
+          <t>1/32 (3.1%)</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>0/32 (0.0%)</t>
+          <t>3/32 (9.4%)</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>0/32 (0.0%)</t>
+          <t>8/32 (25.0%)</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>0/32 (0.0%)</t>
+          <t>4/32 (12.5%)</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>0/32 (0.0%)</t>
+          <t>3/32 (9.4%)</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>0/32 (0.0%)</t>
+          <t>2/32 (6.2%)</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>0/32 (0.0%)</t>
+          <t>1/32 (3.1%)</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>0/32 (0.0%)</t>
+          <t>3/32 (9.4%)</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>0/32 (0.0%)</t>
+          <t>5/32 (15.6%)</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>0/32 (0.0%)</t>
+          <t>14/32 (43.8%)</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>0/32 (0.0%)</t>
+          <t>6/32 (18.8%)</t>
         </is>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>0/32 (0.0%)</t>
+          <t>2/32 (6.2%)</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>0/32 (0.0%)</t>
+          <t>4/32 (12.5%)</t>
         </is>
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>0/32 (0.0%)</t>
+          <t>6/32 (18.8%)</t>
         </is>
       </c>
       <c r="T67" t="inlineStr">
         <is>
-          <t>19/32 (59.4%)</t>
+          <t>14/32 (43.8%)</t>
         </is>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>0/32 (0.0%)</t>
+          <t>6/32 (18.8%)</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>8/32 (25.0%)</t>
+          <t>12/32 (37.5%)</t>
         </is>
       </c>
       <c r="W67" t="inlineStr">
         <is>
-          <t>12/32 (37.5%)</t>
+          <t>7/32 (21.9%)</t>
         </is>
       </c>
       <c r="X67" t="inlineStr">
         <is>
-          <t>14/32 (43.8%)</t>
+          <t>11/32 (34.4%)</t>
         </is>
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>0/32 (0.0%)</t>
+          <t>1/32 (3.1%)</t>
         </is>
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>0/32 (0.0%)</t>
+          <t>6/32 (18.8%)</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr">
         <is>
-          <t>0/32 (0.0%)</t>
+          <t>3/32 (9.4%)</t>
         </is>
       </c>
     </row>
@@ -9123,52 +9123,52 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.0005</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>0.5326</t>
+          <t>0.2524</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.0006</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.0001</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>0.2684</t>
+          <t>0.0001</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.0656</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.3253</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.0007</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.0007</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.0009</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -9178,77 +9178,77 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.0016</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.1118</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.4086</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.3656</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.0011</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.2257</t>
         </is>
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.2992</t>
         </is>
       </c>
       <c r="T68" t="inlineStr">
         <is>
-          <t>0.5028</t>
+          <t>0.4255</t>
         </is>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.1261</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>0.2834</t>
+          <t>0.2808</t>
         </is>
       </c>
       <c r="W68" t="inlineStr">
         <is>
-          <t>0.1405</t>
+          <t>0.6310</t>
         </is>
       </c>
       <c r="X68" t="inlineStr">
         <is>
-          <t>0.1243</t>
+          <t>0.0713</t>
         </is>
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.0001</t>
         </is>
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.1514</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.0094</t>
         </is>
       </c>
     </row>
@@ -9260,97 +9260,97 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
+          <t>1/21 (4.8%)</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>8/21 (38.1%)</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1/21 (4.8%)</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
           <t>0/21 (0.0%)</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>0/21 (0.0%)</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>4/21 (19.0%)</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>2/21 (9.5%)</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>1/21 (4.8%)</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>1/21 (4.8%)</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>1/21 (4.8%)</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
         <is>
           <t>0/21 (0.0%)</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>0/21 (0.0%)</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>0/21 (0.0%)</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>0/21 (0.0%)</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>0/21 (0.0%)</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>0/21 (0.0%)</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>0/21 (0.0%)</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>0/21 (0.0%)</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>0/21 (0.0%)</t>
-        </is>
-      </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>0/21 (0.0%)</t>
+          <t>1/21 (4.8%)</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>0/21 (0.0%)</t>
+          <t>2/21 (9.5%)</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>0/21 (0.0%)</t>
+          <t>7/21 (33.3%)</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>0/21 (0.0%)</t>
+          <t>2/21 (9.5%)</t>
         </is>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>0/21 (0.0%)</t>
+          <t>1/21 (4.8%)</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>0/21 (0.0%)</t>
+          <t>2/21 (9.5%)</t>
         </is>
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>0/21 (0.0%)</t>
+          <t>2/21 (9.5%)</t>
         </is>
       </c>
       <c r="T69" t="inlineStr">
         <is>
-          <t>0/21 (0.0%)</t>
+          <t>8/21 (38.1%)</t>
         </is>
       </c>
       <c r="U69" t="inlineStr">
@@ -9360,32 +9360,32 @@
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>11/21 (52.4%)</t>
+          <t>8/21 (38.1%)</t>
         </is>
       </c>
       <c r="W69" t="inlineStr">
         <is>
-          <t>13/21 (61.9%)</t>
+          <t>8/21 (38.1%)</t>
         </is>
       </c>
       <c r="X69" t="inlineStr">
         <is>
-          <t>13/21 (61.9%)</t>
+          <t>9/21 (42.9%)</t>
         </is>
       </c>
       <c r="Y69" t="inlineStr">
         <is>
-          <t>9/21 (42.9%)</t>
+          <t>1/21 (4.8%)</t>
         </is>
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>15/21 (71.4%)</t>
+          <t>6/21 (28.6%)</t>
         </is>
       </c>
       <c r="AA69" t="inlineStr">
         <is>
-          <t>9/21 (42.9%)</t>
+          <t>4/21 (19.0%)</t>
         </is>
       </c>
     </row>
@@ -9397,17 +9397,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.0007</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.1885</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.0052</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -9422,27 +9422,27 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.0473</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.0745</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.1723</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.0063</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.5035</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
@@ -9452,77 +9452,77 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.1453</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.0604</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.0830</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.0378</t>
         </is>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.0002</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.0142</t>
         </is>
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.0148</t>
         </is>
       </c>
       <c r="T70" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.3141</t>
         </is>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>0.0019</t>
+          <t>0.1632</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>1.5101</t>
+          <t>0.6811</t>
         </is>
       </c>
       <c r="W70" t="inlineStr">
         <is>
-          <t>1.1856</t>
+          <t>0.5811</t>
         </is>
       </c>
       <c r="X70" t="inlineStr">
         <is>
-          <t>0.4315</t>
+          <t>0.4618</t>
         </is>
       </c>
       <c r="Y70" t="inlineStr">
         <is>
-          <t>0.4448</t>
+          <t>0.0002</t>
         </is>
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>0.4884</t>
+          <t>0.1842</t>
         </is>
       </c>
       <c r="AA70" t="inlineStr">
         <is>
-          <t>0.2507</t>
+          <t>0.1202</t>
         </is>
       </c>
     </row>
@@ -15951,22 +15951,22 @@
         </is>
       </c>
       <c r="B98" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="C98" s="1" t="n">
         <v>541</v>
       </c>
-      <c r="C98" s="1" t="n">
+      <c r="D98" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="E98" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="F98" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="G98" s="1" t="n">
         <v>549</v>
-      </c>
-      <c r="D98" s="1" t="n">
-        <v>238</v>
-      </c>
-      <c r="E98" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="F98" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="G98" s="1" t="n">
-        <v>211</v>
       </c>
       <c r="H98" s="1" t="n">
         <v>578</v>
@@ -16004,37 +16004,37 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Cat 3</t>
+          <t>Cat 2</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Cat 3</t>
+          <t>Cat 2</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Cat 3</t>
+          <t>Cat 2</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Cat 3</t>
+          <t>Cat 2</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Cat 3</t>
+          <t>Cat 2</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Cat 3</t>
+          <t>Cat 2</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>Cat 3</t>
+          <t>Cat 2</t>
         </is>
       </c>
     </row>
@@ -16059,32 +16059,32 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>3/17 (17.6%)</t>
+          <t>2/17 (11.8%)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>14/17 (82.4%)</t>
+          <t>2/17 (11.8%)</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>0/17 (0.0%)</t>
+          <t>15/17 (88.2%)</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>17/17 (100.0%)</t>
+          <t>1/17 (5.9%)</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>0/17 (0.0%)</t>
+          <t>1/17 (5.9%)</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>0/17 (0.0%)</t>
+          <t>10/17 (58.8%)</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -16116,32 +16116,32 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>0.0022</t>
+          <t>5.1452</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>1.3636</t>
+          <t>0.0015</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>3.5077</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>3.7249</t>
+          <t>0.0006</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.0003</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.2309</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -16173,52 +16173,52 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>0/32 (0.0%)</t>
+          <t>1/32 (3.1%)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>14/32 (43.8%)</t>
+          <t>1/32 (3.1%)</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>3/32 (9.4%)</t>
+          <t>28/32 (87.5%)</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>26/32 (81.2%)</t>
+          <t>2/32 (6.2%)</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>0/32 (0.0%)</t>
+          <t>2/32 (6.2%)</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>0/32 (0.0%)</t>
+          <t>21/32 (65.6%)</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>0/32 (0.0%)</t>
+          <t>1/32 (3.1%)</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>0/32 (0.0%)</t>
+          <t>2/32 (6.2%)</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>0/32 (0.0%)</t>
+          <t>2/32 (6.2%)</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>0/32 (0.0%)</t>
+          <t>1/32 (3.1%)</t>
         </is>
       </c>
     </row>
@@ -16230,52 +16230,52 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.3389</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>0.1728</t>
+          <t>0.0004</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>3.0723</t>
+          <t>6.4179</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>5.3619</t>
+          <t>0.0009</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.0005</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.6389</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.0006</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.0007</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.0007</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.0007</t>
         </is>
       </c>
     </row>
@@ -16292,47 +16292,47 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>12/21 (57.1%)</t>
+          <t>0/21 (0.0%)</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
+          <t>18/21 (85.7%)</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
           <t>0/21 (0.0%)</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>18/21 (85.7%)</t>
-        </is>
-      </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>3/21 (14.3%)</t>
+          <t>0/21 (0.0%)</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>3/21 (14.3%)</t>
+          <t>9/21 (42.9%)</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>2/21 (9.5%)</t>
+          <t>1/21 (4.8%)</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>2/21 (9.5%)</t>
+          <t>0/21 (0.0%)</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>2/21 (9.5%)</t>
+          <t>0/21 (0.0%)</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>1/21 (4.8%)</t>
+          <t>0/21 (0.0%)</t>
         </is>
       </c>
     </row>
@@ -16349,47 +16349,47 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>0.0762</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>5.5161</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>6.9495</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>0.0019</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>0.0009</t>
+          <t>0.2830</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>0.0011</t>
+          <t>0.0001</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>0.0011</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>0.0011</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>0.0011</t>
+          <t>0.0000</t>
         </is>
       </c>
     </row>
@@ -16407,43 +16407,43 @@
         </is>
       </c>
       <c r="B110" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="C110" s="1" t="n">
+        <v>351</v>
+      </c>
+      <c r="D110" s="1" t="n">
+        <v>471</v>
+      </c>
+      <c r="E110" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="C110" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="D110" s="1" t="n">
+      <c r="F110" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="E110" s="1" t="n">
+      <c r="G110" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="F110" s="1" t="n">
+      <c r="H110" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="I110" s="1" t="n">
         <v>225</v>
       </c>
-      <c r="G110" s="1" t="n">
+      <c r="J110" s="1" t="n">
         <v>334</v>
       </c>
-      <c r="H110" s="1" t="n">
+      <c r="K110" s="1" t="n">
         <v>342</v>
       </c>
-      <c r="I110" s="1" t="n">
-        <v>351</v>
-      </c>
-      <c r="J110" s="1" t="n">
+      <c r="L110" s="1" t="n">
         <v>426</v>
       </c>
-      <c r="K110" s="1" t="n">
+      <c r="M110" s="1" t="n">
         <v>480</v>
       </c>
-      <c r="L110" s="1" t="n">
-        <v>494</v>
-      </c>
-      <c r="M110" s="1" t="n">
+      <c r="N110" s="1" t="n">
         <v>541</v>
-      </c>
-      <c r="N110" s="1" t="n">
-        <v>549</v>
       </c>
       <c r="O110" s="1" t="n">
         <v>565</v>
@@ -16452,49 +16452,49 @@
         <v>605</v>
       </c>
       <c r="Q110" s="1" t="n">
+        <v>636</v>
+      </c>
+      <c r="R110" s="1" t="n">
+        <v>657</v>
+      </c>
+      <c r="S110" s="1" t="n">
+        <v>678</v>
+      </c>
+      <c r="T110" s="1" t="n">
+        <v>725</v>
+      </c>
+      <c r="U110" s="1" t="n">
+        <v>872</v>
+      </c>
+      <c r="V110" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="W110" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="X110" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="Y110" s="1" t="n">
+        <v>494</v>
+      </c>
+      <c r="Z110" s="1" t="n">
+        <v>549</v>
+      </c>
+      <c r="AA110" s="1" t="n">
+        <v>584</v>
+      </c>
+      <c r="AB110" s="1" t="n">
         <v>625</v>
       </c>
-      <c r="R110" s="1" t="n">
-        <v>636</v>
-      </c>
-      <c r="S110" s="1" t="n">
-        <v>657</v>
-      </c>
-      <c r="T110" s="1" t="n">
-        <v>678</v>
-      </c>
-      <c r="U110" s="1" t="n">
+      <c r="AC110" s="1" t="n">
         <v>712</v>
       </c>
-      <c r="V110" s="1" t="n">
-        <v>725</v>
-      </c>
-      <c r="W110" s="1" t="n">
+      <c r="AD110" s="1" t="n">
         <v>864</v>
       </c>
-      <c r="X110" s="1" t="n">
+      <c r="AE110" s="1" t="n">
         <v>871</v>
-      </c>
-      <c r="Y110" s="1" t="n">
-        <v>872</v>
-      </c>
-      <c r="Z110" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="AA110" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="AB110" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="AC110" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="AD110" s="1" t="n">
-        <v>471</v>
-      </c>
-      <c r="AE110" s="1" t="n">
-        <v>584</v>
       </c>
     </row>
     <row r="111">
@@ -16520,107 +16520,107 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Cat 1</t>
+          <t>Cat 2</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Cat 1</t>
+          <t>Cat 2</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Cat 1</t>
+          <t>Cat 2</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Cat 1</t>
+          <t>Cat 2</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>Cat 1</t>
+          <t>Cat 2</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Cat 1</t>
+          <t>Cat 2</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>Cat 1</t>
+          <t>Cat 2</t>
         </is>
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>Cat 1</t>
+          <t>Cat 2</t>
         </is>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>Cat 1</t>
+          <t>Cat 2</t>
         </is>
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>Cat 1</t>
+          <t>Cat 2</t>
         </is>
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>Cat 1</t>
+          <t>Cat 2</t>
         </is>
       </c>
       <c r="P111" t="inlineStr">
         <is>
-          <t>Cat 1</t>
+          <t>Cat 2</t>
         </is>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>Cat 1</t>
+          <t>Cat 2</t>
         </is>
       </c>
       <c r="R111" t="inlineStr">
         <is>
-          <t>Cat 1</t>
+          <t>Cat 2</t>
         </is>
       </c>
       <c r="S111" t="inlineStr">
         <is>
-          <t>Cat 1</t>
+          <t>Cat 2</t>
         </is>
       </c>
       <c r="T111" t="inlineStr">
         <is>
-          <t>Cat 1</t>
+          <t>Cat 2</t>
         </is>
       </c>
       <c r="U111" t="inlineStr">
         <is>
-          <t>Cat 1</t>
+          <t>Cat 2</t>
         </is>
       </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>Cat 1</t>
+          <t>Cat 3</t>
         </is>
       </c>
       <c r="W111" t="inlineStr">
         <is>
-          <t>Cat 1</t>
+          <t>Cat 3</t>
         </is>
       </c>
       <c r="X111" t="inlineStr">
         <is>
-          <t>Cat 1</t>
+          <t>Cat 3</t>
         </is>
       </c>
       <c r="Y111" t="inlineStr">
         <is>
-          <t>Cat 1</t>
+          <t>Cat 3</t>
         </is>
       </c>
       <c r="Z111" t="inlineStr">
@@ -16695,152 +16695,152 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
+          <t>11/17 (64.7%)</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
           <t>9/17 (52.9%)</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>5/17 (29.4%)</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>7/17 (41.2%)</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>8/17 (47.1%)</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0/17 (0.0%)</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>0/17 (0.0%)</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>0/17 (0.0%)</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>3/17 (17.6%)</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>0/17 (0.0%)</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>1/17 (5.9%)</t>
+        </is>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>1/17 (5.9%)</t>
+        </is>
+      </c>
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>0/17 (0.0%)</t>
+        </is>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>5/17 (29.4%)</t>
+        </is>
+      </c>
+      <c r="P113" t="inlineStr">
+        <is>
+          <t>3/17 (17.6%)</t>
+        </is>
+      </c>
+      <c r="Q113" t="inlineStr">
+        <is>
+          <t>0/17 (0.0%)</t>
+        </is>
+      </c>
+      <c r="R113" t="inlineStr">
+        <is>
+          <t>0/17 (0.0%)</t>
+        </is>
+      </c>
+      <c r="S113" t="inlineStr">
+        <is>
+          <t>5/17 (29.4%)</t>
+        </is>
+      </c>
+      <c r="T113" t="inlineStr">
+        <is>
+          <t>5/17 (29.4%)</t>
+        </is>
+      </c>
+      <c r="U113" t="inlineStr">
+        <is>
+          <t>0/17 (0.0%)</t>
+        </is>
+      </c>
+      <c r="V113" t="inlineStr">
         <is>
           <t>4/17 (23.5%)</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>11/17 (64.7%)</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>1/17 (5.9%)</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>1/17 (5.9%)</t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr">
+      <c r="W113" t="inlineStr">
+        <is>
+          <t>0/17 (0.0%)</t>
+        </is>
+      </c>
+      <c r="X113" t="inlineStr">
         <is>
           <t>8/17 (47.1%)</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2/17 (11.8%)</t>
-        </is>
-      </c>
-      <c r="I113" t="inlineStr">
-        <is>
-          <t>11/17 (64.7%)</t>
-        </is>
-      </c>
-      <c r="J113" t="inlineStr">
+      <c r="Y113" t="inlineStr">
+        <is>
+          <t>0/17 (0.0%)</t>
+        </is>
+      </c>
+      <c r="Z113" t="inlineStr">
+        <is>
+          <t>10/17 (58.8%)</t>
+        </is>
+      </c>
+      <c r="AA113" t="inlineStr">
         <is>
           <t>6/17 (35.3%)</t>
         </is>
       </c>
-      <c r="K113" t="inlineStr">
+      <c r="AB113" t="inlineStr">
+        <is>
+          <t>7/17 (41.2%)</t>
+        </is>
+      </c>
+      <c r="AC113" t="inlineStr">
         <is>
           <t>4/17 (23.5%)</t>
         </is>
       </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>2/17 (11.8%)</t>
-        </is>
-      </c>
-      <c r="M113" t="inlineStr">
-        <is>
-          <t>3/17 (17.6%)</t>
-        </is>
-      </c>
-      <c r="N113" t="inlineStr">
-        <is>
-          <t>14/17 (82.4%)</t>
-        </is>
-      </c>
-      <c r="O113" t="inlineStr">
-        <is>
-          <t>9/17 (52.9%)</t>
-        </is>
-      </c>
-      <c r="P113" t="inlineStr">
-        <is>
-          <t>7/17 (41.2%)</t>
-        </is>
-      </c>
-      <c r="Q113" t="inlineStr">
+      <c r="AD113" t="inlineStr">
         <is>
           <t>10/17 (58.8%)</t>
         </is>
       </c>
-      <c r="R113" t="inlineStr">
-        <is>
-          <t>1/17 (5.9%)</t>
-        </is>
-      </c>
-      <c r="S113" t="inlineStr">
-        <is>
-          <t>4/17 (23.5%)</t>
-        </is>
-      </c>
-      <c r="T113" t="inlineStr">
-        <is>
-          <t>7/17 (41.2%)</t>
-        </is>
-      </c>
-      <c r="U113" t="inlineStr">
+      <c r="AE113" t="inlineStr">
         <is>
           <t>5/17 (29.4%)</t>
-        </is>
-      </c>
-      <c r="V113" t="inlineStr">
-        <is>
-          <t>9/17 (52.9%)</t>
-        </is>
-      </c>
-      <c r="W113" t="inlineStr">
-        <is>
-          <t>11/17 (64.7%)</t>
-        </is>
-      </c>
-      <c r="X113" t="inlineStr">
-        <is>
-          <t>6/17 (35.3%)</t>
-        </is>
-      </c>
-      <c r="Y113" t="inlineStr">
-        <is>
-          <t>1/17 (5.9%)</t>
-        </is>
-      </c>
-      <c r="Z113" t="inlineStr">
-        <is>
-          <t>7/17 (41.2%)</t>
-        </is>
-      </c>
-      <c r="AA113" t="inlineStr">
-        <is>
-          <t>0/17 (0.0%)</t>
-        </is>
-      </c>
-      <c r="AB113" t="inlineStr">
-        <is>
-          <t>4/17 (23.5%)</t>
-        </is>
-      </c>
-      <c r="AC113" t="inlineStr">
-        <is>
-          <t>6/17 (35.3%)</t>
-        </is>
-      </c>
-      <c r="AD113" t="inlineStr">
-        <is>
-          <t>3/17 (17.6%)</t>
-        </is>
-      </c>
-      <c r="AE113" t="inlineStr">
-        <is>
-          <t>3/17 (17.6%)</t>
         </is>
       </c>
     </row>
@@ -16852,152 +16852,152 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>0.2877</t>
+          <t>0.8965</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>0.0209</t>
+          <t>0.3952</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>0.9006</t>
+          <t>0.3743</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>0.0004</t>
+          <t>0.0271</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>0.0003</t>
+          <t>0.1189</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>0.2478</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>0.0004</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>0.7303</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>0.0194</t>
+          <t>0.0032</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>0.0096</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>0.0003</t>
+          <t>0.0014</t>
         </is>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>0.0022</t>
+          <t>0.0014</t>
         </is>
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>1.3636</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>0.4558</t>
+          <t>0.0710</t>
         </is>
       </c>
       <c r="P114" t="inlineStr">
         <is>
-          <t>0.3178</t>
+          <t>0.0463</t>
         </is>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>0.4446</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="R114" t="inlineStr">
         <is>
-          <t>0.0001</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="S114" t="inlineStr">
         <is>
-          <t>0.0032</t>
+          <t>0.0113</t>
         </is>
       </c>
       <c r="T114" t="inlineStr">
         <is>
-          <t>0.2886</t>
+          <t>0.0513</t>
         </is>
       </c>
       <c r="U114" t="inlineStr">
         <is>
-          <t>1.2359</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="V114" t="inlineStr">
         <is>
-          <t>0.5820</t>
+          <t>0.0328</t>
         </is>
       </c>
       <c r="W114" t="inlineStr">
         <is>
-          <t>0.4482</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="X114" t="inlineStr">
         <is>
-          <t>0.3658</t>
+          <t>0.3917</t>
         </is>
       </c>
       <c r="Y114" t="inlineStr">
         <is>
-          <t>0.0001</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="Z114" t="inlineStr">
         <is>
-          <t>0.0746</t>
+          <t>0.1248</t>
         </is>
       </c>
       <c r="AA114" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.0684</t>
         </is>
       </c>
       <c r="AB114" t="inlineStr">
         <is>
-          <t>0.0743</t>
+          <t>0.0887</t>
         </is>
       </c>
       <c r="AC114" t="inlineStr">
         <is>
-          <t>0.1092</t>
+          <t>0.0927</t>
         </is>
       </c>
       <c r="AD114" t="inlineStr">
         <is>
-          <t>0.0366</t>
+          <t>0.0898</t>
         </is>
       </c>
       <c r="AE114" t="inlineStr">
         <is>
-          <t>0.0255</t>
+          <t>0.0389</t>
         </is>
       </c>
     </row>
@@ -17009,152 +17009,152 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
+          <t>11/32 (34.4%)</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>14/32 (43.8%)</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
           <t>7/32 (21.9%)</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>12/32 (37.5%)</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>15/32 (46.9%)</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>1/32 (3.1%)</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
         <is>
           <t>2/32 (6.2%)</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>16/32 (50.0%)</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>0/32 (0.0%)</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>0/32 (0.0%)</t>
-        </is>
-      </c>
-      <c r="G115" t="inlineStr">
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>1/32 (3.1%)</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
         <is>
           <t>6/32 (18.8%)</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>0/32 (0.0%)</t>
-        </is>
-      </c>
-      <c r="I115" t="inlineStr">
-        <is>
-          <t>16/32 (50.0%)</t>
-        </is>
-      </c>
-      <c r="J115" t="inlineStr">
-        <is>
-          <t>6/32 (18.8%)</t>
-        </is>
-      </c>
       <c r="K115" t="inlineStr">
         <is>
+          <t>2/32 (6.2%)</t>
+        </is>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>8/32 (25.0%)</t>
+        </is>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
           <t>5/32 (15.6%)</t>
         </is>
       </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>0/32 (0.0%)</t>
-        </is>
-      </c>
-      <c r="M115" t="inlineStr">
-        <is>
-          <t>0/32 (0.0%)</t>
-        </is>
-      </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>14/32 (43.8%)</t>
+          <t>2/32 (6.2%)</t>
         </is>
       </c>
       <c r="O115" t="inlineStr">
         <is>
+          <t>9/32 (28.1%)</t>
+        </is>
+      </c>
+      <c r="P115" t="inlineStr">
+        <is>
+          <t>7/32 (21.9%)</t>
+        </is>
+      </c>
+      <c r="Q115" t="inlineStr">
+        <is>
+          <t>1/32 (3.1%)</t>
+        </is>
+      </c>
+      <c r="R115" t="inlineStr">
+        <is>
+          <t>5/32 (15.6%)</t>
+        </is>
+      </c>
+      <c r="S115" t="inlineStr">
+        <is>
+          <t>11/32 (34.4%)</t>
+        </is>
+      </c>
+      <c r="T115" t="inlineStr">
+        <is>
           <t>8/32 (25.0%)</t>
         </is>
       </c>
-      <c r="P115" t="inlineStr">
-        <is>
-          <t>6/32 (18.8%)</t>
-        </is>
-      </c>
-      <c r="Q115" t="inlineStr">
+      <c r="U115" t="inlineStr">
+        <is>
+          <t>1/32 (3.1%)</t>
+        </is>
+      </c>
+      <c r="V115" t="inlineStr">
+        <is>
+          <t>10/32 (31.2%)</t>
+        </is>
+      </c>
+      <c r="W115" t="inlineStr">
+        <is>
+          <t>3/32 (9.4%)</t>
+        </is>
+      </c>
+      <c r="X115" t="inlineStr">
         <is>
           <t>8/32 (25.0%)</t>
         </is>
       </c>
-      <c r="R115" t="inlineStr">
-        <is>
-          <t>0/32 (0.0%)</t>
-        </is>
-      </c>
-      <c r="S115" t="inlineStr">
-        <is>
-          <t>2/32 (6.2%)</t>
-        </is>
-      </c>
-      <c r="T115" t="inlineStr">
-        <is>
-          <t>13/32 (40.6%)</t>
-        </is>
-      </c>
-      <c r="U115" t="inlineStr">
-        <is>
-          <t>6/32 (18.8%)</t>
-        </is>
-      </c>
-      <c r="V115" t="inlineStr">
-        <is>
-          <t>6/32 (18.8%)</t>
-        </is>
-      </c>
-      <c r="W115" t="inlineStr">
-        <is>
-          <t>16/32 (50.0%)</t>
-        </is>
-      </c>
-      <c r="X115" t="inlineStr">
+      <c r="Y115" t="inlineStr">
+        <is>
+          <t>1/32 (3.1%)</t>
+        </is>
+      </c>
+      <c r="Z115" t="inlineStr">
+        <is>
+          <t>17/32 (53.1%)</t>
+        </is>
+      </c>
+      <c r="AA115" t="inlineStr">
+        <is>
+          <t>7/32 (21.9%)</t>
+        </is>
+      </c>
+      <c r="AB115" t="inlineStr">
+        <is>
+          <t>9/32 (28.1%)</t>
+        </is>
+      </c>
+      <c r="AC115" t="inlineStr">
+        <is>
+          <t>7/32 (21.9%)</t>
+        </is>
+      </c>
+      <c r="AD115" t="inlineStr">
+        <is>
+          <t>17/32 (53.1%)</t>
+        </is>
+      </c>
+      <c r="AE115" t="inlineStr">
         <is>
           <t>8/32 (25.0%)</t>
-        </is>
-      </c>
-      <c r="Y115" t="inlineStr">
-        <is>
-          <t>0/32 (0.0%)</t>
-        </is>
-      </c>
-      <c r="Z115" t="inlineStr">
-        <is>
-          <t>5/32 (15.6%)</t>
-        </is>
-      </c>
-      <c r="AA115" t="inlineStr">
-        <is>
-          <t>0/32 (0.0%)</t>
-        </is>
-      </c>
-      <c r="AB115" t="inlineStr">
-        <is>
-          <t>8/32 (25.0%)</t>
-        </is>
-      </c>
-      <c r="AC115" t="inlineStr">
-        <is>
-          <t>12/32 (37.5%)</t>
-        </is>
-      </c>
-      <c r="AD115" t="inlineStr">
-        <is>
-          <t>6/32 (18.8%)</t>
-        </is>
-      </c>
-      <c r="AE115" t="inlineStr">
-        <is>
-          <t>7/32 (21.9%)</t>
         </is>
       </c>
     </row>
@@ -17166,152 +17166,152 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>0.0181</t>
+          <t>0.1859</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>0.0020</t>
+          <t>0.4440</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>0.5326</t>
+          <t>0.0767</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.1321</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.6210</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>0.0059</t>
+          <t>0.0002</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.0008</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>0.2684</t>
+          <t>0.0001</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>0.0064</t>
+          <t>0.1279</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>0.0032</t>
+          <t>0.0002</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.0122</t>
         </is>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.0056</t>
         </is>
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>0.1728</t>
+          <t>0.0011</t>
         </is>
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>0.0474</t>
+          <t>0.2458</t>
         </is>
       </c>
       <c r="P116" t="inlineStr">
         <is>
-          <t>0.0347</t>
+          <t>0.1753</t>
         </is>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>0.0553</t>
+          <t>0.0001</t>
         </is>
       </c>
       <c r="R116" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.0023</t>
         </is>
       </c>
       <c r="S116" t="inlineStr">
         <is>
-          <t>0.0010</t>
+          <t>0.1714</t>
         </is>
       </c>
       <c r="T116" t="inlineStr">
         <is>
-          <t>0.0304</t>
+          <t>0.3120</t>
         </is>
       </c>
       <c r="U116" t="inlineStr">
         <is>
-          <t>0.1555</t>
+          <t>0.0001</t>
         </is>
       </c>
       <c r="V116" t="inlineStr">
         <is>
-          <t>0.0278</t>
+          <t>0.0462</t>
         </is>
       </c>
       <c r="W116" t="inlineStr">
         <is>
-          <t>0.0463</t>
+          <t>0.0048</t>
         </is>
       </c>
       <c r="X116" t="inlineStr">
         <is>
-          <t>0.0491</t>
+          <t>0.3298</t>
         </is>
       </c>
       <c r="Y116" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.0001</t>
         </is>
       </c>
       <c r="Z116" t="inlineStr">
         <is>
-          <t>0.0072</t>
+          <t>0.5495</t>
         </is>
       </c>
       <c r="AA116" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.0929</t>
         </is>
       </c>
       <c r="AB116" t="inlineStr">
         <is>
-          <t>0.2834</t>
+          <t>0.1332</t>
         </is>
       </c>
       <c r="AC116" t="inlineStr">
         <is>
-          <t>0.1405</t>
+          <t>0.3511</t>
         </is>
       </c>
       <c r="AD116" t="inlineStr">
         <is>
-          <t>0.0369</t>
+          <t>0.2125</t>
         </is>
       </c>
       <c r="AE116" t="inlineStr">
         <is>
-          <t>0.0225</t>
+          <t>0.1089</t>
         </is>
       </c>
     </row>
@@ -17323,152 +17323,152 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
+          <t>9/21 (42.9%)</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>10/21 (47.6%)</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>6/21 (28.6%)</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>10/21 (47.6%)</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>9/21 (42.9%)</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0/21 (0.0%)</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>1/21 (4.8%)</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>0/21 (0.0%)</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>6/21 (28.6%)</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>0/21 (0.0%)</t>
+        </is>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>5/21 (23.8%)</t>
+        </is>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>4/21 (19.0%)</t>
+        </is>
+      </c>
+      <c r="N117" t="inlineStr">
+        <is>
+          <t>1/21 (4.8%)</t>
+        </is>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>7/21 (33.3%)</t>
+        </is>
+      </c>
+      <c r="P117" t="inlineStr">
+        <is>
+          <t>5/21 (23.8%)</t>
+        </is>
+      </c>
+      <c r="Q117" t="inlineStr">
+        <is>
+          <t>0/21 (0.0%)</t>
+        </is>
+      </c>
+      <c r="R117" t="inlineStr">
+        <is>
+          <t>1/21 (4.8%)</t>
+        </is>
+      </c>
+      <c r="S117" t="inlineStr">
+        <is>
+          <t>11/21 (52.4%)</t>
+        </is>
+      </c>
+      <c r="T117" t="inlineStr">
+        <is>
+          <t>6/21 (28.6%)</t>
+        </is>
+      </c>
+      <c r="U117" t="inlineStr">
+        <is>
+          <t>0/21 (0.0%)</t>
+        </is>
+      </c>
+      <c r="V117" t="inlineStr">
+        <is>
+          <t>9/21 (42.9%)</t>
+        </is>
+      </c>
+      <c r="W117" t="inlineStr">
+        <is>
+          <t>3/21 (14.3%)</t>
+        </is>
+      </c>
+      <c r="X117" t="inlineStr">
+        <is>
+          <t>7/21 (33.3%)</t>
+        </is>
+      </c>
+      <c r="Y117" t="inlineStr">
+        <is>
+          <t>1/21 (4.8%)</t>
+        </is>
+      </c>
+      <c r="Z117" t="inlineStr">
+        <is>
           <t>13/21 (61.9%)</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>0/21 (0.0%)</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
+      <c r="AA117" t="inlineStr">
+        <is>
+          <t>6/21 (28.6%)</t>
+        </is>
+      </c>
+      <c r="AB117" t="inlineStr">
         <is>
           <t>5/21 (23.8%)</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>0/21 (0.0%)</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>0/21 (0.0%)</t>
-        </is>
-      </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t>1/21 (4.8%)</t>
-        </is>
-      </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>0/21 (0.0%)</t>
-        </is>
-      </c>
-      <c r="I117" t="inlineStr">
+      <c r="AC117" t="inlineStr">
         <is>
           <t>6/21 (28.6%)</t>
         </is>
       </c>
-      <c r="J117" t="inlineStr">
-        <is>
-          <t>2/21 (9.5%)</t>
-        </is>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>1/21 (4.8%)</t>
-        </is>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>0/21 (0.0%)</t>
-        </is>
-      </c>
-      <c r="M117" t="inlineStr">
-        <is>
-          <t>0/21 (0.0%)</t>
-        </is>
-      </c>
-      <c r="N117" t="inlineStr">
-        <is>
-          <t>12/21 (57.1%)</t>
-        </is>
-      </c>
-      <c r="O117" t="inlineStr">
-        <is>
-          <t>4/21 (19.0%)</t>
-        </is>
-      </c>
-      <c r="P117" t="inlineStr">
-        <is>
-          <t>2/21 (9.5%)</t>
-        </is>
-      </c>
-      <c r="Q117" t="inlineStr">
-        <is>
-          <t>3/21 (14.3%)</t>
-        </is>
-      </c>
-      <c r="R117" t="inlineStr">
-        <is>
-          <t>0/21 (0.0%)</t>
-        </is>
-      </c>
-      <c r="S117" t="inlineStr">
-        <is>
-          <t>0/21 (0.0%)</t>
-        </is>
-      </c>
-      <c r="T117" t="inlineStr">
-        <is>
-          <t>7/21 (33.3%)</t>
-        </is>
-      </c>
-      <c r="U117" t="inlineStr">
-        <is>
-          <t>6/21 (28.6%)</t>
-        </is>
-      </c>
-      <c r="V117" t="inlineStr">
-        <is>
-          <t>4/21 (19.0%)</t>
-        </is>
-      </c>
-      <c r="W117" t="inlineStr">
+      <c r="AD117" t="inlineStr">
         <is>
           <t>13/21 (61.9%)</t>
         </is>
       </c>
-      <c r="X117" t="inlineStr">
-        <is>
-          <t>4/21 (19.0%)</t>
-        </is>
-      </c>
-      <c r="Y117" t="inlineStr">
-        <is>
-          <t>0/21 (0.0%)</t>
-        </is>
-      </c>
-      <c r="Z117" t="inlineStr">
-        <is>
-          <t>11/21 (52.4%)</t>
-        </is>
-      </c>
-      <c r="AA117" t="inlineStr">
-        <is>
-          <t>3/21 (14.3%)</t>
-        </is>
-      </c>
-      <c r="AB117" t="inlineStr">
-        <is>
-          <t>11/21 (52.4%)</t>
-        </is>
-      </c>
-      <c r="AC117" t="inlineStr">
-        <is>
-          <t>13/21 (61.9%)</t>
-        </is>
-      </c>
-      <c r="AD117" t="inlineStr">
-        <is>
-          <t>9/21 (42.9%)</t>
-        </is>
-      </c>
       <c r="AE117" t="inlineStr">
         <is>
-          <t>9/21 (42.9%)</t>
+          <t>5/21 (23.8%)</t>
         </is>
       </c>
     </row>
@@ -17480,152 +17480,152 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>0.0518</t>
+          <t>0.4792</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.1133</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>0.0317</t>
+          <t>0.1109</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.0889</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.5297</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>0.0010</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.0007</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>0.1097</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>0.0009</t>
+          <t>0.0131</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>0.0001</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.0066</t>
         </is>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.0032</t>
         </is>
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>0.0762</t>
+          <t>0.0002</t>
         </is>
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>0.0294</t>
+          <t>0.0386</t>
         </is>
       </c>
       <c r="P118" t="inlineStr">
         <is>
-          <t>0.0848</t>
+          <t>0.0903</t>
         </is>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>0.0457</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="R118" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.0005</t>
         </is>
       </c>
       <c r="S118" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.0228</t>
         </is>
       </c>
       <c r="T118" t="inlineStr">
         <is>
-          <t>0.0131</t>
+          <t>0.0383</t>
         </is>
       </c>
       <c r="U118" t="inlineStr">
         <is>
-          <t>0.0098</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="V118" t="inlineStr">
         <is>
-          <t>0.0418</t>
+          <t>0.0779</t>
         </is>
       </c>
       <c r="W118" t="inlineStr">
         <is>
-          <t>0.1689</t>
+          <t>0.0127</t>
         </is>
       </c>
       <c r="X118" t="inlineStr">
         <is>
-          <t>0.0073</t>
+          <t>1.1824</t>
         </is>
       </c>
       <c r="Y118" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.0002</t>
         </is>
       </c>
       <c r="Z118" t="inlineStr">
         <is>
-          <t>0.1035</t>
+          <t>0.5050</t>
         </is>
       </c>
       <c r="AA118" t="inlineStr">
         <is>
-          <t>0.0019</t>
+          <t>0.1086</t>
         </is>
       </c>
       <c r="AB118" t="inlineStr">
         <is>
-          <t>1.5101</t>
+          <t>0.2151</t>
         </is>
       </c>
       <c r="AC118" t="inlineStr">
         <is>
-          <t>1.1856</t>
+          <t>0.6372</t>
         </is>
       </c>
       <c r="AD118" t="inlineStr">
         <is>
-          <t>0.4448</t>
+          <t>0.2058</t>
         </is>
       </c>
       <c r="AE118" t="inlineStr">
         <is>
-          <t>0.2507</t>
+          <t>0.1810</t>
         </is>
       </c>
     </row>

--- a/data/feature_analysis_results.xlsx
+++ b/data/feature_analysis_results.xlsx
@@ -8460,10 +8460,10 @@
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>201</v>
+        <v>23</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>229</v>
+        <v>91</v>
       </c>
       <c r="D62" s="1" t="n">
         <v>334</v>
@@ -8472,64 +8472,64 @@
         <v>342</v>
       </c>
       <c r="F62" s="1" t="n">
+        <v>351</v>
+      </c>
+      <c r="G62" s="1" t="n">
+        <v>375</v>
+      </c>
+      <c r="H62" s="1" t="n">
         <v>410</v>
       </c>
-      <c r="G62" s="1" t="n">
-        <v>471</v>
-      </c>
-      <c r="H62" s="1" t="n">
+      <c r="I62" s="1" t="n">
+        <v>494</v>
+      </c>
+      <c r="J62" s="1" t="n">
+        <v>541</v>
+      </c>
+      <c r="K62" s="1" t="n">
         <v>549</v>
       </c>
-      <c r="I62" s="1" t="n">
+      <c r="L62" s="1" t="n">
+        <v>565</v>
+      </c>
+      <c r="M62" s="1" t="n">
         <v>625</v>
       </c>
-      <c r="J62" s="1" t="n">
+      <c r="N62" s="1" t="n">
         <v>678</v>
       </c>
-      <c r="K62" s="1" t="n">
+      <c r="O62" s="1" t="n">
         <v>712</v>
       </c>
-      <c r="L62" s="1" t="n">
+      <c r="P62" s="1" t="n">
+        <v>725</v>
+      </c>
+      <c r="Q62" s="1" t="n">
         <v>799</v>
       </c>
-      <c r="M62" s="1" t="n">
+      <c r="R62" s="1" t="n">
+        <v>864</v>
+      </c>
+      <c r="S62" s="1" t="n">
         <v>871</v>
-      </c>
-      <c r="N62" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="O62" s="1" t="n">
-        <v>351</v>
-      </c>
-      <c r="P62" s="1" t="n">
-        <v>375</v>
-      </c>
-      <c r="Q62" s="1" t="n">
-        <v>541</v>
-      </c>
-      <c r="R62" s="1" t="n">
-        <v>565</v>
-      </c>
-      <c r="S62" s="1" t="n">
-        <v>725</v>
       </c>
       <c r="T62" s="1" t="n">
         <v>863</v>
       </c>
       <c r="U62" s="1" t="n">
-        <v>864</v>
+        <v>201</v>
       </c>
       <c r="V62" s="1" t="n">
-        <v>91</v>
+        <v>214</v>
       </c>
       <c r="W62" s="1" t="n">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="X62" s="1" t="n">
         <v>408</v>
       </c>
       <c r="Y62" s="1" t="n">
-        <v>494</v>
+        <v>471</v>
       </c>
       <c r="Z62" s="1" t="n">
         <v>526</v>
@@ -8606,42 +8606,42 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
+          <t>Cat 1</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>Cat 1</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>Cat 1</t>
+        </is>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>Cat 1</t>
+        </is>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>Cat 1</t>
+        </is>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>Cat 1</t>
+        </is>
+      </c>
+      <c r="T63" t="inlineStr">
+        <is>
           <t>Cat 2</t>
         </is>
       </c>
-      <c r="O63" t="inlineStr">
-        <is>
-          <t>Cat 2</t>
-        </is>
-      </c>
-      <c r="P63" t="inlineStr">
-        <is>
-          <t>Cat 2</t>
-        </is>
-      </c>
-      <c r="Q63" t="inlineStr">
-        <is>
-          <t>Cat 2</t>
-        </is>
-      </c>
-      <c r="R63" t="inlineStr">
-        <is>
-          <t>Cat 2</t>
-        </is>
-      </c>
-      <c r="S63" t="inlineStr">
-        <is>
-          <t>Cat 2</t>
-        </is>
-      </c>
-      <c r="T63" t="inlineStr">
-        <is>
-          <t>Cat 2</t>
-        </is>
-      </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>Cat 2</t>
+          <t>Cat 3</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
@@ -8712,117 +8712,117 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1/17 (5.9%)</t>
+          <t>9/17 (52.9%)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
+          <t>11/17 (64.7%)</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>8/17 (47.1%)</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>2/17 (11.8%)</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>11/17 (64.7%)</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>11/17 (64.7%)</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>2/17 (11.8%)</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>2/17 (11.8%)</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>3/17 (17.6%)</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>14/17 (82.4%)</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>9/17 (52.9%)</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>10/17 (58.8%)</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>7/17 (41.2%)</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
           <t>5/17 (29.4%)</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>4/17 (23.5%)</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>1/17 (5.9%)</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>1/17 (5.9%)</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>9/17 (52.9%)</t>
+        </is>
+      </c>
+      <c r="Q65" t="inlineStr">
         <is>
           <t>2/17 (11.8%)</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>4/17 (23.5%)</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>5/17 (29.4%)</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>3/17 (17.6%)</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>2/17 (11.8%)</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>1/17 (5.9%)</t>
-        </is>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>2/17 (11.8%)</t>
-        </is>
-      </c>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>2/17 (11.8%)</t>
-        </is>
-      </c>
-      <c r="O65" t="inlineStr">
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>11/17 (64.7%)</t>
+        </is>
+      </c>
+      <c r="S65" t="inlineStr">
         <is>
           <t>6/17 (35.3%)</t>
         </is>
       </c>
-      <c r="P65" t="inlineStr">
-        <is>
-          <t>3/17 (17.6%)</t>
-        </is>
-      </c>
-      <c r="Q65" t="inlineStr">
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>10/17 (58.8%)</t>
+        </is>
+      </c>
+      <c r="U65" t="inlineStr">
         <is>
           <t>0/17 (0.0%)</t>
         </is>
       </c>
-      <c r="R65" t="inlineStr">
-        <is>
-          <t>3/17 (17.6%)</t>
-        </is>
-      </c>
-      <c r="S65" t="inlineStr">
-        <is>
-          <t>1/17 (5.9%)</t>
-        </is>
-      </c>
-      <c r="T65" t="inlineStr">
-        <is>
-          <t>7/17 (41.2%)</t>
-        </is>
-      </c>
-      <c r="U65" t="inlineStr">
-        <is>
-          <t>2/17 (11.8%)</t>
-        </is>
-      </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>7/17 (41.2%)</t>
+          <t>0/17 (0.0%)</t>
         </is>
       </c>
       <c r="W65" t="inlineStr">
         <is>
-          <t>4/17 (23.5%)</t>
+          <t>0/17 (0.0%)</t>
         </is>
       </c>
       <c r="X65" t="inlineStr">
         <is>
-          <t>7/17 (41.2%)</t>
+          <t>0/17 (0.0%)</t>
         </is>
       </c>
       <c r="Y65" t="inlineStr">
@@ -8832,12 +8832,12 @@
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>3/17 (17.6%)</t>
+          <t>0/17 (0.0%)</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
         <is>
-          <t>2/17 (11.8%)</t>
+          <t>0/17 (0.0%)</t>
         </is>
       </c>
     </row>
@@ -8849,117 +8849,117 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0.0006</t>
+          <t>0.2877</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>1.0213</t>
+          <t>0.9006</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>0.2403</t>
+          <t>0.2478</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.7303</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.7887</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
           <t>0.0002</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>0.0001</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>0.3676</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>0.6593</t>
-        </is>
-      </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>0.2304</t>
+          <t>0.0003</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>0.2794</t>
+          <t>0.0022</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>0.6123</t>
+          <t>1.3636</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>0.0001</t>
+          <t>0.4559</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>0.1833</t>
+          <t>0.4446</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>0.0026</t>
+          <t>0.2886</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>0.3639</t>
+          <t>1.2359</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>0.0538</t>
+          <t>0.5820</t>
         </is>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.0002</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>0.0133</t>
+          <t>0.4482</t>
         </is>
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>0.0005</t>
+          <t>0.3658</t>
         </is>
       </c>
       <c r="T66" t="inlineStr">
         <is>
-          <t>0.2060</t>
+          <t>0.4485</t>
         </is>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>0.0093</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>0.5332</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="W66" t="inlineStr">
         <is>
-          <t>0.4934</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="X66" t="inlineStr">
         <is>
-          <t>0.0624</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="Y66" t="inlineStr">
@@ -8969,12 +8969,12 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>0.0909</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
         <is>
-          <t>0.1435</t>
+          <t>0.0000</t>
         </is>
       </c>
     </row>
@@ -8986,132 +8986,132 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1/32 (3.1%)</t>
+          <t>0/32 (0.0%)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
+          <t>16/32 (50.0%)</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0/32 (0.0%)</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>0/32 (0.0%)</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>16/32 (50.0%)</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0/32 (0.0%)</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>0/32 (0.0%)</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>0/32 (0.0%)</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>0/32 (0.0%)</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>0/32 (0.0%)</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>0/32 (0.0%)</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>0/32 (0.0%)</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>0/32 (0.0%)</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>0/32 (0.0%)</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>0/32 (0.0%)</t>
+        </is>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>0/32 (0.0%)</t>
+        </is>
+      </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>0/32 (0.0%)</t>
+        </is>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>0/32 (0.0%)</t>
+        </is>
+      </c>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>19/32 (59.4%)</t>
+        </is>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>0/32 (0.0%)</t>
+        </is>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>8/32 (25.0%)</t>
+        </is>
+      </c>
+      <c r="W67" t="inlineStr">
+        <is>
           <t>12/32 (37.5%)</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>3/32 (9.4%)</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>1/32 (3.1%)</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>1/32 (3.1%)</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>3/32 (9.4%)</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>8/32 (25.0%)</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>4/32 (12.5%)</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>3/32 (9.4%)</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>2/32 (6.2%)</t>
-        </is>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>1/32 (3.1%)</t>
-        </is>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>3/32 (9.4%)</t>
-        </is>
-      </c>
-      <c r="N67" t="inlineStr">
-        <is>
-          <t>5/32 (15.6%)</t>
-        </is>
-      </c>
-      <c r="O67" t="inlineStr">
+      <c r="X67" t="inlineStr">
         <is>
           <t>14/32 (43.8%)</t>
         </is>
       </c>
-      <c r="P67" t="inlineStr">
-        <is>
-          <t>6/32 (18.8%)</t>
-        </is>
-      </c>
-      <c r="Q67" t="inlineStr">
-        <is>
-          <t>2/32 (6.2%)</t>
-        </is>
-      </c>
-      <c r="R67" t="inlineStr">
-        <is>
-          <t>4/32 (12.5%)</t>
-        </is>
-      </c>
-      <c r="S67" t="inlineStr">
-        <is>
-          <t>6/32 (18.8%)</t>
-        </is>
-      </c>
-      <c r="T67" t="inlineStr">
-        <is>
-          <t>14/32 (43.8%)</t>
-        </is>
-      </c>
-      <c r="U67" t="inlineStr">
-        <is>
-          <t>6/32 (18.8%)</t>
-        </is>
-      </c>
-      <c r="V67" t="inlineStr">
-        <is>
-          <t>12/32 (37.5%)</t>
-        </is>
-      </c>
-      <c r="W67" t="inlineStr">
-        <is>
-          <t>7/32 (21.9%)</t>
-        </is>
-      </c>
-      <c r="X67" t="inlineStr">
-        <is>
-          <t>11/32 (34.4%)</t>
-        </is>
-      </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>1/32 (3.1%)</t>
+          <t>0/32 (0.0%)</t>
         </is>
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>6/32 (18.8%)</t>
+          <t>0/32 (0.0%)</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr">
         <is>
-          <t>3/32 (9.4%)</t>
+          <t>0/32 (0.0%)</t>
         </is>
       </c>
     </row>
@@ -9123,52 +9123,52 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0.0005</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>0.2524</t>
+          <t>0.5326</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>0.0006</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>0.0001</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>0.0001</t>
+          <t>0.2684</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>0.0656</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>0.3253</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>0.0007</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>0.0007</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>0.0009</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -9178,77 +9178,77 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>0.0016</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>0.1118</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>0.4086</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>0.3656</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>0.0011</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>0.2257</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>0.2992</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="T68" t="inlineStr">
         <is>
-          <t>0.4255</t>
+          <t>0.5028</t>
         </is>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>0.1261</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>0.2808</t>
+          <t>0.2834</t>
         </is>
       </c>
       <c r="W68" t="inlineStr">
         <is>
-          <t>0.6310</t>
+          <t>0.1405</t>
         </is>
       </c>
       <c r="X68" t="inlineStr">
         <is>
-          <t>0.0713</t>
+          <t>0.1243</t>
         </is>
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>0.0001</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>0.1514</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr">
         <is>
-          <t>0.0094</t>
+          <t>0.0000</t>
         </is>
       </c>
     </row>
@@ -9260,17 +9260,17 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>1/21 (4.8%)</t>
+          <t>0/21 (0.0%)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>8/21 (38.1%)</t>
+          <t>0/21 (0.0%)</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>1/21 (4.8%)</t>
+          <t>0/21 (0.0%)</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -9285,27 +9285,27 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>4/21 (19.0%)</t>
+          <t>0/21 (0.0%)</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2/21 (9.5%)</t>
+          <t>0/21 (0.0%)</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>1/21 (4.8%)</t>
+          <t>0/21 (0.0%)</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>1/21 (4.8%)</t>
+          <t>0/21 (0.0%)</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>1/21 (4.8%)</t>
+          <t>0/21 (0.0%)</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
@@ -9315,42 +9315,42 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>1/21 (4.8%)</t>
+          <t>0/21 (0.0%)</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>2/21 (9.5%)</t>
+          <t>0/21 (0.0%)</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>7/21 (33.3%)</t>
+          <t>0/21 (0.0%)</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>2/21 (9.5%)</t>
+          <t>0/21 (0.0%)</t>
         </is>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>1/21 (4.8%)</t>
+          <t>0/21 (0.0%)</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>2/21 (9.5%)</t>
+          <t>0/21 (0.0%)</t>
         </is>
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>2/21 (9.5%)</t>
+          <t>0/21 (0.0%)</t>
         </is>
       </c>
       <c r="T69" t="inlineStr">
         <is>
-          <t>8/21 (38.1%)</t>
+          <t>0/21 (0.0%)</t>
         </is>
       </c>
       <c r="U69" t="inlineStr">
@@ -9360,32 +9360,32 @@
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>8/21 (38.1%)</t>
+          <t>11/21 (52.4%)</t>
         </is>
       </c>
       <c r="W69" t="inlineStr">
         <is>
-          <t>8/21 (38.1%)</t>
+          <t>13/21 (61.9%)</t>
         </is>
       </c>
       <c r="X69" t="inlineStr">
         <is>
+          <t>13/21 (61.9%)</t>
+        </is>
+      </c>
+      <c r="Y69" t="inlineStr">
+        <is>
           <t>9/21 (42.9%)</t>
         </is>
       </c>
-      <c r="Y69" t="inlineStr">
-        <is>
-          <t>1/21 (4.8%)</t>
-        </is>
-      </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>6/21 (28.6%)</t>
+          <t>15/21 (71.4%)</t>
         </is>
       </c>
       <c r="AA69" t="inlineStr">
         <is>
-          <t>4/21 (19.0%)</t>
+          <t>9/21 (42.9%)</t>
         </is>
       </c>
     </row>
@@ -9397,17 +9397,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>0.0007</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>0.1885</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>0.0052</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -9422,27 +9422,27 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>0.0473</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>0.0745</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>0.1723</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>0.0063</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>0.5035</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
@@ -9452,77 +9452,77 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>0.1453</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>0.0604</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>0.0830</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>0.0378</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>0.0002</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>0.0142</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>0.0148</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="T70" t="inlineStr">
         <is>
-          <t>0.3141</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>0.1632</t>
+          <t>0.0019</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>0.6811</t>
+          <t>1.5101</t>
         </is>
       </c>
       <c r="W70" t="inlineStr">
         <is>
-          <t>0.5811</t>
+          <t>1.1856</t>
         </is>
       </c>
       <c r="X70" t="inlineStr">
         <is>
-          <t>0.4618</t>
+          <t>0.4315</t>
         </is>
       </c>
       <c r="Y70" t="inlineStr">
         <is>
-          <t>0.0002</t>
+          <t>0.4448</t>
         </is>
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>0.1842</t>
+          <t>0.4884</t>
         </is>
       </c>
       <c r="AA70" t="inlineStr">
         <is>
-          <t>0.1202</t>
+          <t>0.2507</t>
         </is>
       </c>
     </row>
@@ -15951,22 +15951,22 @@
         </is>
       </c>
       <c r="B98" s="1" t="n">
+        <v>541</v>
+      </c>
+      <c r="C98" s="1" t="n">
+        <v>549</v>
+      </c>
+      <c r="D98" s="1" t="n">
         <v>238</v>
       </c>
-      <c r="C98" s="1" t="n">
-        <v>541</v>
-      </c>
-      <c r="D98" s="1" t="n">
+      <c r="E98" s="1" t="n">
         <v>110</v>
       </c>
-      <c r="E98" s="1" t="n">
+      <c r="F98" s="1" t="n">
         <v>201</v>
       </c>
-      <c r="F98" s="1" t="n">
+      <c r="G98" s="1" t="n">
         <v>211</v>
-      </c>
-      <c r="G98" s="1" t="n">
-        <v>549</v>
       </c>
       <c r="H98" s="1" t="n">
         <v>578</v>
@@ -16004,37 +16004,37 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Cat 2</t>
+          <t>Cat 3</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Cat 2</t>
+          <t>Cat 3</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Cat 2</t>
+          <t>Cat 3</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Cat 2</t>
+          <t>Cat 3</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Cat 2</t>
+          <t>Cat 3</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Cat 2</t>
+          <t>Cat 3</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>Cat 2</t>
+          <t>Cat 3</t>
         </is>
       </c>
     </row>
@@ -16059,32 +16059,32 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2/17 (11.8%)</t>
+          <t>3/17 (17.6%)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>2/17 (11.8%)</t>
+          <t>14/17 (82.4%)</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>15/17 (88.2%)</t>
+          <t>0/17 (0.0%)</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>1/17 (5.9%)</t>
+          <t>17/17 (100.0%)</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>1/17 (5.9%)</t>
+          <t>0/17 (0.0%)</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>10/17 (58.8%)</t>
+          <t>0/17 (0.0%)</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -16116,32 +16116,32 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>5.1452</t>
+          <t>0.0022</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>0.0015</t>
+          <t>1.3636</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>3.5077</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>0.0006</t>
+          <t>3.7249</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>0.0003</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>0.2309</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -16173,52 +16173,52 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>1/32 (3.1%)</t>
+          <t>0/32 (0.0%)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>1/32 (3.1%)</t>
+          <t>14/32 (43.8%)</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>28/32 (87.5%)</t>
+          <t>3/32 (9.4%)</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>2/32 (6.2%)</t>
+          <t>26/32 (81.2%)</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>2/32 (6.2%)</t>
+          <t>0/32 (0.0%)</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>21/32 (65.6%)</t>
+          <t>0/32 (0.0%)</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>1/32 (3.1%)</t>
+          <t>0/32 (0.0%)</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>2/32 (6.2%)</t>
+          <t>0/32 (0.0%)</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>2/32 (6.2%)</t>
+          <t>0/32 (0.0%)</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>1/32 (3.1%)</t>
+          <t>0/32 (0.0%)</t>
         </is>
       </c>
     </row>
@@ -16230,52 +16230,52 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>0.3389</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>0.0004</t>
+          <t>0.1728</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>6.4179</t>
+          <t>3.0723</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>0.0009</t>
+          <t>5.3619</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>0.0005</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>0.6389</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>0.0006</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>0.0007</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>0.0007</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>0.0007</t>
+          <t>0.0000</t>
         </is>
       </c>
     </row>
@@ -16292,47 +16292,47 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
+          <t>12/21 (57.1%)</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
           <t>0/21 (0.0%)</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>18/21 (85.7%)</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>0/21 (0.0%)</t>
-        </is>
-      </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>0/21 (0.0%)</t>
+          <t>3/21 (14.3%)</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>9/21 (42.9%)</t>
+          <t>3/21 (14.3%)</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
+          <t>2/21 (9.5%)</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>2/21 (9.5%)</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>2/21 (9.5%)</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
           <t>1/21 (4.8%)</t>
-        </is>
-      </c>
-      <c r="I105" t="inlineStr">
-        <is>
-          <t>0/21 (0.0%)</t>
-        </is>
-      </c>
-      <c r="J105" t="inlineStr">
-        <is>
-          <t>0/21 (0.0%)</t>
-        </is>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>0/21 (0.0%)</t>
         </is>
       </c>
     </row>
@@ -16349,47 +16349,47 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.0762</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>5.5161</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>6.9495</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.0019</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>0.2830</t>
+          <t>0.0009</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>0.0001</t>
+          <t>0.0011</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.0011</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.0011</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.0011</t>
         </is>
       </c>
     </row>
@@ -16407,43 +16407,43 @@
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>229</v>
+        <v>23</v>
       </c>
       <c r="C110" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="D110" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="E110" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="F110" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="G110" s="1" t="n">
+        <v>334</v>
+      </c>
+      <c r="H110" s="1" t="n">
+        <v>342</v>
+      </c>
+      <c r="I110" s="1" t="n">
         <v>351</v>
       </c>
-      <c r="D110" s="1" t="n">
-        <v>471</v>
-      </c>
-      <c r="E110" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="F110" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="G110" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="H110" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="I110" s="1" t="n">
-        <v>225</v>
-      </c>
       <c r="J110" s="1" t="n">
-        <v>334</v>
+        <v>426</v>
       </c>
       <c r="K110" s="1" t="n">
-        <v>342</v>
+        <v>480</v>
       </c>
       <c r="L110" s="1" t="n">
-        <v>426</v>
+        <v>494</v>
       </c>
       <c r="M110" s="1" t="n">
-        <v>480</v>
+        <v>541</v>
       </c>
       <c r="N110" s="1" t="n">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="O110" s="1" t="n">
         <v>565</v>
@@ -16452,49 +16452,49 @@
         <v>605</v>
       </c>
       <c r="Q110" s="1" t="n">
+        <v>625</v>
+      </c>
+      <c r="R110" s="1" t="n">
         <v>636</v>
       </c>
-      <c r="R110" s="1" t="n">
+      <c r="S110" s="1" t="n">
         <v>657</v>
       </c>
-      <c r="S110" s="1" t="n">
+      <c r="T110" s="1" t="n">
         <v>678</v>
       </c>
-      <c r="T110" s="1" t="n">
+      <c r="U110" s="1" t="n">
+        <v>712</v>
+      </c>
+      <c r="V110" s="1" t="n">
         <v>725</v>
       </c>
-      <c r="U110" s="1" t="n">
+      <c r="W110" s="1" t="n">
+        <v>864</v>
+      </c>
+      <c r="X110" s="1" t="n">
+        <v>871</v>
+      </c>
+      <c r="Y110" s="1" t="n">
         <v>872</v>
       </c>
-      <c r="V110" s="1" t="n">
+      <c r="Z110" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="W110" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="X110" s="1" t="n">
+      <c r="AA110" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="AB110" s="1" t="n">
         <v>214</v>
       </c>
-      <c r="Y110" s="1" t="n">
-        <v>494</v>
-      </c>
-      <c r="Z110" s="1" t="n">
-        <v>549</v>
-      </c>
-      <c r="AA110" s="1" t="n">
+      <c r="AC110" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="AD110" s="1" t="n">
+        <v>471</v>
+      </c>
+      <c r="AE110" s="1" t="n">
         <v>584</v>
-      </c>
-      <c r="AB110" s="1" t="n">
-        <v>625</v>
-      </c>
-      <c r="AC110" s="1" t="n">
-        <v>712</v>
-      </c>
-      <c r="AD110" s="1" t="n">
-        <v>864</v>
-      </c>
-      <c r="AE110" s="1" t="n">
-        <v>871</v>
       </c>
     </row>
     <row r="111">
@@ -16520,107 +16520,107 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Cat 2</t>
+          <t>Cat 1</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Cat 2</t>
+          <t>Cat 1</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Cat 2</t>
+          <t>Cat 1</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Cat 2</t>
+          <t>Cat 1</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>Cat 2</t>
+          <t>Cat 1</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Cat 2</t>
+          <t>Cat 1</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>Cat 2</t>
+          <t>Cat 1</t>
         </is>
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>Cat 2</t>
+          <t>Cat 1</t>
         </is>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>Cat 2</t>
+          <t>Cat 1</t>
         </is>
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>Cat 2</t>
+          <t>Cat 1</t>
         </is>
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>Cat 2</t>
+          <t>Cat 1</t>
         </is>
       </c>
       <c r="P111" t="inlineStr">
         <is>
-          <t>Cat 2</t>
+          <t>Cat 1</t>
         </is>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>Cat 2</t>
+          <t>Cat 1</t>
         </is>
       </c>
       <c r="R111" t="inlineStr">
         <is>
-          <t>Cat 2</t>
+          <t>Cat 1</t>
         </is>
       </c>
       <c r="S111" t="inlineStr">
         <is>
-          <t>Cat 2</t>
+          <t>Cat 1</t>
         </is>
       </c>
       <c r="T111" t="inlineStr">
         <is>
-          <t>Cat 2</t>
+          <t>Cat 1</t>
         </is>
       </c>
       <c r="U111" t="inlineStr">
         <is>
-          <t>Cat 2</t>
+          <t>Cat 1</t>
         </is>
       </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>Cat 3</t>
+          <t>Cat 1</t>
         </is>
       </c>
       <c r="W111" t="inlineStr">
         <is>
-          <t>Cat 3</t>
+          <t>Cat 1</t>
         </is>
       </c>
       <c r="X111" t="inlineStr">
         <is>
-          <t>Cat 3</t>
+          <t>Cat 1</t>
         </is>
       </c>
       <c r="Y111" t="inlineStr">
         <is>
-          <t>Cat 3</t>
+          <t>Cat 1</t>
         </is>
       </c>
       <c r="Z111" t="inlineStr">
@@ -16695,152 +16695,152 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
+          <t>9/17 (52.9%)</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>4/17 (23.5%)</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
           <t>11/17 (64.7%)</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>1/17 (5.9%)</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>1/17 (5.9%)</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>8/17 (47.1%)</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>2/17 (11.8%)</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>11/17 (64.7%)</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>6/17 (35.3%)</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>4/17 (23.5%)</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>2/17 (11.8%)</t>
+        </is>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>3/17 (17.6%)</t>
+        </is>
+      </c>
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>14/17 (82.4%)</t>
+        </is>
+      </c>
+      <c r="O113" t="inlineStr">
         <is>
           <t>9/17 (52.9%)</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
+      <c r="P113" t="inlineStr">
+        <is>
+          <t>7/17 (41.2%)</t>
+        </is>
+      </c>
+      <c r="Q113" t="inlineStr">
+        <is>
+          <t>10/17 (58.8%)</t>
+        </is>
+      </c>
+      <c r="R113" t="inlineStr">
+        <is>
+          <t>1/17 (5.9%)</t>
+        </is>
+      </c>
+      <c r="S113" t="inlineStr">
+        <is>
+          <t>4/17 (23.5%)</t>
+        </is>
+      </c>
+      <c r="T113" t="inlineStr">
+        <is>
+          <t>7/17 (41.2%)</t>
+        </is>
+      </c>
+      <c r="U113" t="inlineStr">
         <is>
           <t>5/17 (29.4%)</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
+      <c r="V113" t="inlineStr">
+        <is>
+          <t>9/17 (52.9%)</t>
+        </is>
+      </c>
+      <c r="W113" t="inlineStr">
+        <is>
+          <t>11/17 (64.7%)</t>
+        </is>
+      </c>
+      <c r="X113" t="inlineStr">
+        <is>
+          <t>6/17 (35.3%)</t>
+        </is>
+      </c>
+      <c r="Y113" t="inlineStr">
+        <is>
+          <t>1/17 (5.9%)</t>
+        </is>
+      </c>
+      <c r="Z113" t="inlineStr">
         <is>
           <t>7/17 (41.2%)</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>8/17 (47.1%)</t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr">
+      <c r="AA113" t="inlineStr">
         <is>
           <t>0/17 (0.0%)</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>0/17 (0.0%)</t>
-        </is>
-      </c>
-      <c r="I113" t="inlineStr">
-        <is>
-          <t>0/17 (0.0%)</t>
-        </is>
-      </c>
-      <c r="J113" t="inlineStr">
+      <c r="AB113" t="inlineStr">
+        <is>
+          <t>4/17 (23.5%)</t>
+        </is>
+      </c>
+      <c r="AC113" t="inlineStr">
+        <is>
+          <t>6/17 (35.3%)</t>
+        </is>
+      </c>
+      <c r="AD113" t="inlineStr">
         <is>
           <t>3/17 (17.6%)</t>
         </is>
       </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>0/17 (0.0%)</t>
-        </is>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>1/17 (5.9%)</t>
-        </is>
-      </c>
-      <c r="M113" t="inlineStr">
-        <is>
-          <t>1/17 (5.9%)</t>
-        </is>
-      </c>
-      <c r="N113" t="inlineStr">
-        <is>
-          <t>0/17 (0.0%)</t>
-        </is>
-      </c>
-      <c r="O113" t="inlineStr">
-        <is>
-          <t>5/17 (29.4%)</t>
-        </is>
-      </c>
-      <c r="P113" t="inlineStr">
+      <c r="AE113" t="inlineStr">
         <is>
           <t>3/17 (17.6%)</t>
-        </is>
-      </c>
-      <c r="Q113" t="inlineStr">
-        <is>
-          <t>0/17 (0.0%)</t>
-        </is>
-      </c>
-      <c r="R113" t="inlineStr">
-        <is>
-          <t>0/17 (0.0%)</t>
-        </is>
-      </c>
-      <c r="S113" t="inlineStr">
-        <is>
-          <t>5/17 (29.4%)</t>
-        </is>
-      </c>
-      <c r="T113" t="inlineStr">
-        <is>
-          <t>5/17 (29.4%)</t>
-        </is>
-      </c>
-      <c r="U113" t="inlineStr">
-        <is>
-          <t>0/17 (0.0%)</t>
-        </is>
-      </c>
-      <c r="V113" t="inlineStr">
-        <is>
-          <t>4/17 (23.5%)</t>
-        </is>
-      </c>
-      <c r="W113" t="inlineStr">
-        <is>
-          <t>0/17 (0.0%)</t>
-        </is>
-      </c>
-      <c r="X113" t="inlineStr">
-        <is>
-          <t>8/17 (47.1%)</t>
-        </is>
-      </c>
-      <c r="Y113" t="inlineStr">
-        <is>
-          <t>0/17 (0.0%)</t>
-        </is>
-      </c>
-      <c r="Z113" t="inlineStr">
-        <is>
-          <t>10/17 (58.8%)</t>
-        </is>
-      </c>
-      <c r="AA113" t="inlineStr">
-        <is>
-          <t>6/17 (35.3%)</t>
-        </is>
-      </c>
-      <c r="AB113" t="inlineStr">
-        <is>
-          <t>7/17 (41.2%)</t>
-        </is>
-      </c>
-      <c r="AC113" t="inlineStr">
-        <is>
-          <t>4/17 (23.5%)</t>
-        </is>
-      </c>
-      <c r="AD113" t="inlineStr">
-        <is>
-          <t>10/17 (58.8%)</t>
-        </is>
-      </c>
-      <c r="AE113" t="inlineStr">
-        <is>
-          <t>5/17 (29.4%)</t>
         </is>
       </c>
     </row>
@@ -16852,152 +16852,152 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>0.8965</t>
+          <t>0.2877</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>0.3952</t>
+          <t>0.0209</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>0.3743</t>
+          <t>0.9006</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>0.0271</t>
+          <t>0.0004</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>0.1189</t>
+          <t>0.0003</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.2478</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.0004</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.7303</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="N114" t="inlineStr">
+        <is>
+          <t>1.3636</t>
+        </is>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>0.4558</t>
+        </is>
+      </c>
+      <c r="P114" t="inlineStr">
+        <is>
+          <t>0.3178</t>
+        </is>
+      </c>
+      <c r="Q114" t="inlineStr">
+        <is>
+          <t>0.4446</t>
+        </is>
+      </c>
+      <c r="R114" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="S114" t="inlineStr">
+        <is>
           <t>0.0032</t>
         </is>
       </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>0.0014</t>
-        </is>
-      </c>
-      <c r="M114" t="inlineStr">
-        <is>
-          <t>0.0014</t>
-        </is>
-      </c>
-      <c r="N114" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
-      </c>
-      <c r="O114" t="inlineStr">
-        <is>
-          <t>0.0710</t>
-        </is>
-      </c>
-      <c r="P114" t="inlineStr">
-        <is>
-          <t>0.0463</t>
-        </is>
-      </c>
-      <c r="Q114" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
-      </c>
-      <c r="R114" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
-      </c>
-      <c r="S114" t="inlineStr">
-        <is>
-          <t>0.0113</t>
-        </is>
-      </c>
       <c r="T114" t="inlineStr">
         <is>
-          <t>0.0513</t>
+          <t>0.2886</t>
         </is>
       </c>
       <c r="U114" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>1.2359</t>
         </is>
       </c>
       <c r="V114" t="inlineStr">
         <is>
-          <t>0.0328</t>
+          <t>0.5820</t>
         </is>
       </c>
       <c r="W114" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.4482</t>
         </is>
       </c>
       <c r="X114" t="inlineStr">
         <is>
-          <t>0.3917</t>
+          <t>0.3658</t>
         </is>
       </c>
       <c r="Y114" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.0001</t>
         </is>
       </c>
       <c r="Z114" t="inlineStr">
         <is>
-          <t>0.1248</t>
+          <t>0.0746</t>
         </is>
       </c>
       <c r="AA114" t="inlineStr">
         <is>
-          <t>0.0684</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="AB114" t="inlineStr">
         <is>
-          <t>0.0887</t>
+          <t>0.0743</t>
         </is>
       </c>
       <c r="AC114" t="inlineStr">
         <is>
-          <t>0.0927</t>
+          <t>0.1092</t>
         </is>
       </c>
       <c r="AD114" t="inlineStr">
         <is>
-          <t>0.0898</t>
+          <t>0.0366</t>
         </is>
       </c>
       <c r="AE114" t="inlineStr">
         <is>
-          <t>0.0389</t>
+          <t>0.0255</t>
         </is>
       </c>
     </row>
@@ -17009,152 +17009,152 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>11/32 (34.4%)</t>
+          <t>7/32 (21.9%)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
+          <t>2/32 (6.2%)</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>16/32 (50.0%)</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>0/32 (0.0%)</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>0/32 (0.0%)</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>6/32 (18.8%)</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>0/32 (0.0%)</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>16/32 (50.0%)</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>6/32 (18.8%)</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>5/32 (15.6%)</t>
+        </is>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>0/32 (0.0%)</t>
+        </is>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>0/32 (0.0%)</t>
+        </is>
+      </c>
+      <c r="N115" t="inlineStr">
+        <is>
           <t>14/32 (43.8%)</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>8/32 (25.0%)</t>
+        </is>
+      </c>
+      <c r="P115" t="inlineStr">
+        <is>
+          <t>6/32 (18.8%)</t>
+        </is>
+      </c>
+      <c r="Q115" t="inlineStr">
+        <is>
+          <t>8/32 (25.0%)</t>
+        </is>
+      </c>
+      <c r="R115" t="inlineStr">
+        <is>
+          <t>0/32 (0.0%)</t>
+        </is>
+      </c>
+      <c r="S115" t="inlineStr">
+        <is>
+          <t>2/32 (6.2%)</t>
+        </is>
+      </c>
+      <c r="T115" t="inlineStr">
+        <is>
+          <t>13/32 (40.6%)</t>
+        </is>
+      </c>
+      <c r="U115" t="inlineStr">
+        <is>
+          <t>6/32 (18.8%)</t>
+        </is>
+      </c>
+      <c r="V115" t="inlineStr">
+        <is>
+          <t>6/32 (18.8%)</t>
+        </is>
+      </c>
+      <c r="W115" t="inlineStr">
+        <is>
+          <t>16/32 (50.0%)</t>
+        </is>
+      </c>
+      <c r="X115" t="inlineStr">
+        <is>
+          <t>8/32 (25.0%)</t>
+        </is>
+      </c>
+      <c r="Y115" t="inlineStr">
+        <is>
+          <t>0/32 (0.0%)</t>
+        </is>
+      </c>
+      <c r="Z115" t="inlineStr">
+        <is>
+          <t>5/32 (15.6%)</t>
+        </is>
+      </c>
+      <c r="AA115" t="inlineStr">
+        <is>
+          <t>0/32 (0.0%)</t>
+        </is>
+      </c>
+      <c r="AB115" t="inlineStr">
+        <is>
+          <t>8/32 (25.0%)</t>
+        </is>
+      </c>
+      <c r="AC115" t="inlineStr">
+        <is>
+          <t>12/32 (37.5%)</t>
+        </is>
+      </c>
+      <c r="AD115" t="inlineStr">
+        <is>
+          <t>6/32 (18.8%)</t>
+        </is>
+      </c>
+      <c r="AE115" t="inlineStr">
         <is>
           <t>7/32 (21.9%)</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>12/32 (37.5%)</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>15/32 (46.9%)</t>
-        </is>
-      </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>1/32 (3.1%)</t>
-        </is>
-      </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2/32 (6.2%)</t>
-        </is>
-      </c>
-      <c r="I115" t="inlineStr">
-        <is>
-          <t>1/32 (3.1%)</t>
-        </is>
-      </c>
-      <c r="J115" t="inlineStr">
-        <is>
-          <t>6/32 (18.8%)</t>
-        </is>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>2/32 (6.2%)</t>
-        </is>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>8/32 (25.0%)</t>
-        </is>
-      </c>
-      <c r="M115" t="inlineStr">
-        <is>
-          <t>5/32 (15.6%)</t>
-        </is>
-      </c>
-      <c r="N115" t="inlineStr">
-        <is>
-          <t>2/32 (6.2%)</t>
-        </is>
-      </c>
-      <c r="O115" t="inlineStr">
-        <is>
-          <t>9/32 (28.1%)</t>
-        </is>
-      </c>
-      <c r="P115" t="inlineStr">
-        <is>
-          <t>7/32 (21.9%)</t>
-        </is>
-      </c>
-      <c r="Q115" t="inlineStr">
-        <is>
-          <t>1/32 (3.1%)</t>
-        </is>
-      </c>
-      <c r="R115" t="inlineStr">
-        <is>
-          <t>5/32 (15.6%)</t>
-        </is>
-      </c>
-      <c r="S115" t="inlineStr">
-        <is>
-          <t>11/32 (34.4%)</t>
-        </is>
-      </c>
-      <c r="T115" t="inlineStr">
-        <is>
-          <t>8/32 (25.0%)</t>
-        </is>
-      </c>
-      <c r="U115" t="inlineStr">
-        <is>
-          <t>1/32 (3.1%)</t>
-        </is>
-      </c>
-      <c r="V115" t="inlineStr">
-        <is>
-          <t>10/32 (31.2%)</t>
-        </is>
-      </c>
-      <c r="W115" t="inlineStr">
-        <is>
-          <t>3/32 (9.4%)</t>
-        </is>
-      </c>
-      <c r="X115" t="inlineStr">
-        <is>
-          <t>8/32 (25.0%)</t>
-        </is>
-      </c>
-      <c r="Y115" t="inlineStr">
-        <is>
-          <t>1/32 (3.1%)</t>
-        </is>
-      </c>
-      <c r="Z115" t="inlineStr">
-        <is>
-          <t>17/32 (53.1%)</t>
-        </is>
-      </c>
-      <c r="AA115" t="inlineStr">
-        <is>
-          <t>7/32 (21.9%)</t>
-        </is>
-      </c>
-      <c r="AB115" t="inlineStr">
-        <is>
-          <t>9/32 (28.1%)</t>
-        </is>
-      </c>
-      <c r="AC115" t="inlineStr">
-        <is>
-          <t>7/32 (21.9%)</t>
-        </is>
-      </c>
-      <c r="AD115" t="inlineStr">
-        <is>
-          <t>17/32 (53.1%)</t>
-        </is>
-      </c>
-      <c r="AE115" t="inlineStr">
-        <is>
-          <t>8/32 (25.0%)</t>
         </is>
       </c>
     </row>
@@ -17166,152 +17166,152 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>0.1859</t>
+          <t>0.0181</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>0.4440</t>
+          <t>0.0020</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>0.0767</t>
+          <t>0.5326</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>0.1321</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>0.6210</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>0.0002</t>
+          <t>0.0059</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>0.0008</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>0.0001</t>
+          <t>0.2684</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>0.1279</t>
+          <t>0.0064</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>0.0002</t>
+          <t>0.0032</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>0.0122</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>0.0056</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>0.0011</t>
+          <t>0.1728</t>
         </is>
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>0.2458</t>
+          <t>0.0474</t>
         </is>
       </c>
       <c r="P116" t="inlineStr">
         <is>
-          <t>0.1753</t>
+          <t>0.0347</t>
         </is>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>0.0001</t>
+          <t>0.0553</t>
         </is>
       </c>
       <c r="R116" t="inlineStr">
         <is>
-          <t>0.0023</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="S116" t="inlineStr">
         <is>
-          <t>0.1714</t>
+          <t>0.0010</t>
         </is>
       </c>
       <c r="T116" t="inlineStr">
         <is>
-          <t>0.3120</t>
+          <t>0.0304</t>
         </is>
       </c>
       <c r="U116" t="inlineStr">
         <is>
-          <t>0.0001</t>
+          <t>0.1555</t>
         </is>
       </c>
       <c r="V116" t="inlineStr">
         <is>
-          <t>0.0462</t>
+          <t>0.0278</t>
         </is>
       </c>
       <c r="W116" t="inlineStr">
         <is>
-          <t>0.0048</t>
+          <t>0.0463</t>
         </is>
       </c>
       <c r="X116" t="inlineStr">
         <is>
-          <t>0.3298</t>
+          <t>0.0491</t>
         </is>
       </c>
       <c r="Y116" t="inlineStr">
         <is>
-          <t>0.0001</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="Z116" t="inlineStr">
         <is>
-          <t>0.5495</t>
+          <t>0.0072</t>
         </is>
       </c>
       <c r="AA116" t="inlineStr">
         <is>
-          <t>0.0929</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="AB116" t="inlineStr">
         <is>
-          <t>0.1332</t>
+          <t>0.2834</t>
         </is>
       </c>
       <c r="AC116" t="inlineStr">
         <is>
-          <t>0.3511</t>
+          <t>0.1405</t>
         </is>
       </c>
       <c r="AD116" t="inlineStr">
         <is>
-          <t>0.2125</t>
+          <t>0.0369</t>
         </is>
       </c>
       <c r="AE116" t="inlineStr">
         <is>
-          <t>0.1089</t>
+          <t>0.0225</t>
         </is>
       </c>
     </row>
@@ -17323,152 +17323,152 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
+          <t>13/21 (61.9%)</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>0/21 (0.0%)</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>5/21 (23.8%)</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>0/21 (0.0%)</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>0/21 (0.0%)</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>1/21 (4.8%)</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>0/21 (0.0%)</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>6/21 (28.6%)</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>2/21 (9.5%)</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>1/21 (4.8%)</t>
+        </is>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>0/21 (0.0%)</t>
+        </is>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>0/21 (0.0%)</t>
+        </is>
+      </c>
+      <c r="N117" t="inlineStr">
+        <is>
+          <t>12/21 (57.1%)</t>
+        </is>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>4/21 (19.0%)</t>
+        </is>
+      </c>
+      <c r="P117" t="inlineStr">
+        <is>
+          <t>2/21 (9.5%)</t>
+        </is>
+      </c>
+      <c r="Q117" t="inlineStr">
+        <is>
+          <t>3/21 (14.3%)</t>
+        </is>
+      </c>
+      <c r="R117" t="inlineStr">
+        <is>
+          <t>0/21 (0.0%)</t>
+        </is>
+      </c>
+      <c r="S117" t="inlineStr">
+        <is>
+          <t>0/21 (0.0%)</t>
+        </is>
+      </c>
+      <c r="T117" t="inlineStr">
+        <is>
+          <t>7/21 (33.3%)</t>
+        </is>
+      </c>
+      <c r="U117" t="inlineStr">
+        <is>
+          <t>6/21 (28.6%)</t>
+        </is>
+      </c>
+      <c r="V117" t="inlineStr">
+        <is>
+          <t>4/21 (19.0%)</t>
+        </is>
+      </c>
+      <c r="W117" t="inlineStr">
+        <is>
+          <t>13/21 (61.9%)</t>
+        </is>
+      </c>
+      <c r="X117" t="inlineStr">
+        <is>
+          <t>4/21 (19.0%)</t>
+        </is>
+      </c>
+      <c r="Y117" t="inlineStr">
+        <is>
+          <t>0/21 (0.0%)</t>
+        </is>
+      </c>
+      <c r="Z117" t="inlineStr">
+        <is>
+          <t>11/21 (52.4%)</t>
+        </is>
+      </c>
+      <c r="AA117" t="inlineStr">
+        <is>
+          <t>3/21 (14.3%)</t>
+        </is>
+      </c>
+      <c r="AB117" t="inlineStr">
+        <is>
+          <t>11/21 (52.4%)</t>
+        </is>
+      </c>
+      <c r="AC117" t="inlineStr">
+        <is>
+          <t>13/21 (61.9%)</t>
+        </is>
+      </c>
+      <c r="AD117" t="inlineStr">
+        <is>
           <t>9/21 (42.9%)</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>10/21 (47.6%)</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>6/21 (28.6%)</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>10/21 (47.6%)</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
+      <c r="AE117" t="inlineStr">
         <is>
           <t>9/21 (42.9%)</t>
-        </is>
-      </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t>0/21 (0.0%)</t>
-        </is>
-      </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>1/21 (4.8%)</t>
-        </is>
-      </c>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t>0/21 (0.0%)</t>
-        </is>
-      </c>
-      <c r="J117" t="inlineStr">
-        <is>
-          <t>6/21 (28.6%)</t>
-        </is>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>0/21 (0.0%)</t>
-        </is>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>5/21 (23.8%)</t>
-        </is>
-      </c>
-      <c r="M117" t="inlineStr">
-        <is>
-          <t>4/21 (19.0%)</t>
-        </is>
-      </c>
-      <c r="N117" t="inlineStr">
-        <is>
-          <t>1/21 (4.8%)</t>
-        </is>
-      </c>
-      <c r="O117" t="inlineStr">
-        <is>
-          <t>7/21 (33.3%)</t>
-        </is>
-      </c>
-      <c r="P117" t="inlineStr">
-        <is>
-          <t>5/21 (23.8%)</t>
-        </is>
-      </c>
-      <c r="Q117" t="inlineStr">
-        <is>
-          <t>0/21 (0.0%)</t>
-        </is>
-      </c>
-      <c r="R117" t="inlineStr">
-        <is>
-          <t>1/21 (4.8%)</t>
-        </is>
-      </c>
-      <c r="S117" t="inlineStr">
-        <is>
-          <t>11/21 (52.4%)</t>
-        </is>
-      </c>
-      <c r="T117" t="inlineStr">
-        <is>
-          <t>6/21 (28.6%)</t>
-        </is>
-      </c>
-      <c r="U117" t="inlineStr">
-        <is>
-          <t>0/21 (0.0%)</t>
-        </is>
-      </c>
-      <c r="V117" t="inlineStr">
-        <is>
-          <t>9/21 (42.9%)</t>
-        </is>
-      </c>
-      <c r="W117" t="inlineStr">
-        <is>
-          <t>3/21 (14.3%)</t>
-        </is>
-      </c>
-      <c r="X117" t="inlineStr">
-        <is>
-          <t>7/21 (33.3%)</t>
-        </is>
-      </c>
-      <c r="Y117" t="inlineStr">
-        <is>
-          <t>1/21 (4.8%)</t>
-        </is>
-      </c>
-      <c r="Z117" t="inlineStr">
-        <is>
-          <t>13/21 (61.9%)</t>
-        </is>
-      </c>
-      <c r="AA117" t="inlineStr">
-        <is>
-          <t>6/21 (28.6%)</t>
-        </is>
-      </c>
-      <c r="AB117" t="inlineStr">
-        <is>
-          <t>5/21 (23.8%)</t>
-        </is>
-      </c>
-      <c r="AC117" t="inlineStr">
-        <is>
-          <t>6/21 (28.6%)</t>
-        </is>
-      </c>
-      <c r="AD117" t="inlineStr">
-        <is>
-          <t>13/21 (61.9%)</t>
-        </is>
-      </c>
-      <c r="AE117" t="inlineStr">
-        <is>
-          <t>5/21 (23.8%)</t>
         </is>
       </c>
     </row>
@@ -17480,152 +17480,152 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>0.4792</t>
+          <t>0.0518</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>0.1133</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>0.1109</t>
+          <t>0.0317</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>0.0889</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>0.5297</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.0010</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>0.0007</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.1097</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="N118" t="inlineStr">
+        <is>
+          <t>0.0762</t>
+        </is>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="P118" t="inlineStr">
+        <is>
+          <t>0.0848</t>
+        </is>
+      </c>
+      <c r="Q118" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="R118" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="S118" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="T118" t="inlineStr">
+        <is>
           <t>0.0131</t>
         </is>
       </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>0.0066</t>
-        </is>
-      </c>
-      <c r="M118" t="inlineStr">
-        <is>
-          <t>0.0032</t>
-        </is>
-      </c>
-      <c r="N118" t="inlineStr">
-        <is>
-          <t>0.0002</t>
-        </is>
-      </c>
-      <c r="O118" t="inlineStr">
-        <is>
-          <t>0.0386</t>
-        </is>
-      </c>
-      <c r="P118" t="inlineStr">
-        <is>
-          <t>0.0903</t>
-        </is>
-      </c>
-      <c r="Q118" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
-      </c>
-      <c r="R118" t="inlineStr">
-        <is>
-          <t>0.0005</t>
-        </is>
-      </c>
-      <c r="S118" t="inlineStr">
-        <is>
-          <t>0.0228</t>
-        </is>
-      </c>
-      <c r="T118" t="inlineStr">
-        <is>
-          <t>0.0383</t>
-        </is>
-      </c>
       <c r="U118" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.0098</t>
         </is>
       </c>
       <c r="V118" t="inlineStr">
         <is>
-          <t>0.0779</t>
+          <t>0.0418</t>
         </is>
       </c>
       <c r="W118" t="inlineStr">
         <is>
-          <t>0.0127</t>
+          <t>0.1689</t>
         </is>
       </c>
       <c r="X118" t="inlineStr">
         <is>
-          <t>1.1824</t>
+          <t>0.0073</t>
         </is>
       </c>
       <c r="Y118" t="inlineStr">
         <is>
-          <t>0.0002</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="Z118" t="inlineStr">
         <is>
-          <t>0.5050</t>
+          <t>0.1035</t>
         </is>
       </c>
       <c r="AA118" t="inlineStr">
         <is>
-          <t>0.1086</t>
+          <t>0.0019</t>
         </is>
       </c>
       <c r="AB118" t="inlineStr">
         <is>
-          <t>0.2151</t>
+          <t>1.5101</t>
         </is>
       </c>
       <c r="AC118" t="inlineStr">
         <is>
-          <t>0.6372</t>
+          <t>1.1856</t>
         </is>
       </c>
       <c r="AD118" t="inlineStr">
         <is>
-          <t>0.2058</t>
+          <t>0.4448</t>
         </is>
       </c>
       <c r="AE118" t="inlineStr">
         <is>
-          <t>0.1810</t>
+          <t>0.2507</t>
         </is>
       </c>
     </row>
